--- a/Cofi/master.xlsx
+++ b/Cofi/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zyy/OneDrive/Columbia/0_Clubs/DPI/MM/DPI_NYCCP/Cofi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="353" documentId="8_{F1962E47-CBA2-024B-A1D4-ECDA12383FF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B48E2B87-9951-7642-9C5A-0E341DAD8012}"/>
+  <xr:revisionPtr revIDLastSave="475" documentId="8_{F1962E47-CBA2-024B-A1D4-ECDA12383FF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4D2EC071-B5D1-C943-960B-B356193AD145}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="2780" windowWidth="25140" windowHeight="12420" activeTab="4" xr2:uid="{687A766B-E2D6-6040-8210-6E46568CC1E1}"/>
+    <workbookView xWindow="1700" yWindow="700" windowWidth="25140" windowHeight="12420" activeTab="1" xr2:uid="{687A766B-E2D6-6040-8210-6E46568CC1E1}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -254,7 +254,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,7 +572,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1131,8 +1131,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B6049C-8DA6-6348-B6AE-52FF469FFFF4}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1165,23 +1166,23 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>J2/SUM($J2:$N2)</f>
-        <v>0.625</v>
+        <f>J2*5</f>
+        <v>5</v>
       </c>
       <c r="C2">
-        <f>K2/SUM($J2:$N2)</f>
-        <v>0.125</v>
+        <f t="shared" ref="C2:C11" si="0">K2*5</f>
+        <v>1</v>
       </c>
       <c r="D2">
-        <f>L2/SUM($J2:$N2)</f>
+        <f t="shared" ref="D2:D11" si="1">L2*5</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>M2/SUM($J2:$N2)</f>
-        <v>0.25</v>
+        <f t="shared" ref="E2:E11" si="2">M2*5</f>
+        <v>2</v>
       </c>
       <c r="F2">
-        <f>N2/SUM($J2:$N2)</f>
+        <f t="shared" ref="F2:F11" si="3">N2*5</f>
         <v>0</v>
       </c>
       <c r="G2" t="s">
@@ -1208,24 +1209,24 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>J3/SUM($J3:$N3)</f>
-        <v>0.25</v>
+        <f t="shared" ref="B3:B11" si="4">J3*5</f>
+        <v>2</v>
       </c>
       <c r="C3">
-        <f>K3/SUM($J3:$N3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D3">
-        <f>L3/SUM($J3:$N3)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>M3/SUM($J3:$N3)</f>
-        <v>0.125</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F3">
-        <f>N3/SUM($J3:$N3)</f>
-        <v>0.625</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -1251,30 +1252,30 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f>J4/SUM($J4:$N4)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="C4">
-        <f>K4/SUM($J4:$N4)</f>
-        <v>0.625</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="D4">
-        <f>L4/SUM($J4:$N4)</f>
-        <v>0.37499999999999994</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="E4">
-        <f>M4/SUM($J4:$N4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>N4/SUM($J4:$N4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1294,30 +1295,30 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>J5/SUM($J5:$N5)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="C5">
-        <f>K5/SUM($J5:$N5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5">
-        <f>L5/SUM($J5:$N5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>M5/SUM($J5:$N5)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="F5">
-        <f>N5/SUM($J5:$N5)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1337,30 +1338,30 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>J6/SUM($J6:$N6)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="C6">
-        <f>K6/SUM($J6:$N6)</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="D6">
-        <f>L6/SUM($J6:$N6)</f>
-        <v>0.16666666666666669</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E6">
-        <f>M6/SUM($J6:$N6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <f>N6/SUM($J6:$N6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>42</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1380,23 +1381,23 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f>J7/SUM($J7:$N7)</f>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="C7">
-        <f>K7/SUM($J7:$N7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D7">
-        <f>L7/SUM($J7:$N7)</f>
-        <v>0.1</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E7">
-        <f>M7/SUM($J7:$N7)</f>
-        <v>0.4</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="F7">
-        <f>N7/SUM($J7:$N7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G7" t="s">
@@ -1423,24 +1424,24 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f>J8/SUM($J8:$N8)</f>
-        <v>0.18181818181818182</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="C8">
-        <f>K8/SUM($J8:$N8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>L8/SUM($J8:$N8)</f>
-        <v>9.0909090909090912E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E8">
-        <f>M8/SUM($J8:$N8)</f>
-        <v>0.27272727272727271</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="F8">
-        <f>N8/SUM($J8:$N8)</f>
-        <v>0.45454545454545453</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -1466,23 +1467,23 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f>J9/SUM($J9:$N9)</f>
-        <v>0.45454545454545453</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="C9">
-        <f>K9/SUM($J9:$N9)</f>
-        <v>0.45454545454545453</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="D9">
-        <f>L9/SUM($J9:$N9)</f>
-        <v>9.0909090909090912E-2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E9">
-        <f>M9/SUM($J9:$N9)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>N9/SUM($J9:$N9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9" t="s">
@@ -1509,23 +1510,23 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f>J10/SUM($J10:$N10)</f>
-        <v>0.1</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="C10">
-        <f>K10/SUM($J10:$N10)</f>
-        <v>0.4</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="D10">
-        <f>L10/SUM($J10:$N10)</f>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="E10">
-        <f>M10/SUM($J10:$N10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>N10/SUM($J10:$N10)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G10" t="s">
@@ -1552,24 +1553,24 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f>J11/SUM($J11:$N11)</f>
-        <v>0.2</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="C11">
-        <f>K11/SUM($J11:$N11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f>L11/SUM($J11:$N11)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>M11/SUM($J11:$N11)</f>
-        <v>0.3</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="F11">
-        <f>N11/SUM($J11:$N11)</f>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
@@ -1600,7 +1601,8 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1690,104 +1692,104 @@
         <v>1</v>
       </c>
       <c r="B2" s="11">
-        <f>events!B2*users!$B$2+events!C2*users!$C$2+events!D2*users!$D$2+events!E2*users!$E$2+events!F2*users!$F$2</f>
-        <v>3.75</v>
+        <f>(events!$B$2-users!$B2)^2+(events!$C$2-users!$C2)^2+(events!$D$2-users!$D2)^2+(events!$E$2-users!$E2)^2+(events!$F$2-users!$F2)^2</f>
+        <v>45</v>
       </c>
       <c r="C2" s="11">
-        <f>events!B2*users!$B$3+events!C2*users!$C$3+events!D2*users!$D$3+events!E2*users!$E$3+events!F2*users!$F$3</f>
-        <v>4.125</v>
+        <f>(events!B2-users!B$3)^2+(events!C2-users!C$3)^2+(events!D2-users!$D$3)^2+(events!E2-users!$E$3)^2+(events!F2-users!$F$3)^2</f>
+        <v>46</v>
       </c>
       <c r="D2" s="11">
-        <f>events!B2*users!$B$4+events!C2*users!$C$4+events!D2*users!$D$4+events!E2*users!$E$4+events!F2*users!$F$4</f>
-        <v>3.75</v>
+        <f>(events!B2-users!B$4)^2+(events!C2-users!C$4)^2+(events!D2-users!$D$4)^2+(events!E2-users!$E$4)^2+(events!F2-users!$F$4)^2</f>
+        <v>52</v>
       </c>
       <c r="E2" s="11">
-        <f>events!$B$2*users!B$5+events!$C$2*users!C$5+events!$D$2*users!D$5+events!$E$2*users!E$5+events!$F$2*users!F$5</f>
-        <v>4.75</v>
+        <f>(events!B2-users!B$5)^2+(events!C2-users!C$5)^2+(events!D2-users!$D$5)^2+(events!E2-users!$E$5)^2+(events!F2-users!$F$5)^2</f>
+        <v>38</v>
       </c>
       <c r="F2" s="11">
-        <f>events!B2*users!$B$6+events!C2*users!$C$6+events!D2*users!D$6+events!E2*users!E$6+events!F2*users!F$6</f>
-        <v>4.125</v>
+        <f>(events!B2-users!B$6)^2+(events!C2-users!C$6)^2+(events!D2-users!$D$6)^2+(events!E2-users!$E$6)^2+(events!F2-users!$F$6)^2</f>
+        <v>53</v>
       </c>
       <c r="G2" s="11">
-        <f>events!B2*users!$B$7+events!C2*users!$C$7+events!D2*users!D$7+events!E2*users!E$7+events!F2*users!F$7</f>
-        <v>5</v>
+        <f>(events!B2-users!B$7)^2+(events!C2-users!C$7)^2+(events!D2-users!$D$7)^2+(events!E2-users!$E$7)^2+(events!F2-users!$F$7)^2</f>
+        <v>25</v>
       </c>
       <c r="H2" s="11">
-        <f>events!B2*users!$B$8+events!C2*users!$C$8+events!D2*users!D$8+events!E2*users!E$8+events!F2*users!F$8</f>
-        <v>2.5</v>
+        <f>(events!B2-users!B$8)^2+(events!C2-users!C$8)^2+(events!D2-users!$D$8)^2+(events!E2-users!$E$8)^2+(events!F2-users!$F$8)^2</f>
+        <v>43</v>
       </c>
       <c r="I2" s="11">
-        <f>events!B2*users!$B$9+events!C2*users!$C$9+events!D2*users!D$9+events!E2*users!E$9+events!F2*users!F$9</f>
-        <v>4.75</v>
+        <f>(events!B2-users!B$8)^2+(events!C2-users!C$8)^2+(events!D2-users!$D$8)^2+(events!E2-users!$E$8)^2+(events!F2-users!$F$8)^2</f>
+        <v>43</v>
       </c>
       <c r="J2" s="11">
-        <f>events!B2*users!$B$10+events!C2*users!$C$10+events!D2*users!D$10+events!E2*users!E$10+events!F2*users!F$10</f>
-        <v>2.75</v>
+        <f>(events!B2-users!B$9)^2+(events!C2-users!C$9)^2+(events!D2-users!$D$9)^2+(events!E2-users!$E$9)^2+(events!F2-users!$F$9)^2</f>
+        <v>25</v>
       </c>
       <c r="K2" s="11">
-        <f>events!B2*users!$B$11+events!C2*users!$C$11+events!D2*users!D$11+events!E2*users!E$11+events!F2*users!F$11</f>
-        <v>1.75</v>
+        <f>(events!B2-users!B$11)^2+(events!C2-users!C$11)^2+(events!D2-users!$D$11)^2+(events!E2-users!$E$11)^2+(events!F2-users!$F$11)^2</f>
+        <v>60</v>
       </c>
       <c r="L2" s="11">
-        <f>events!B2*users!$B$12+events!C2*users!$C$12+events!D2*users!D$12+events!E2*users!E$12+events!F2*users!F$12</f>
-        <v>1.875</v>
+        <f>(events!B2-users!B$12)^2+(events!C2-users!C$12)^2+(events!D2-users!$D$12)^2+(events!E2-users!$E$12)^2+(events!F2-users!$F$12)^2</f>
+        <v>43</v>
       </c>
       <c r="M2" s="11">
-        <f>events!B2*users!$B$13+events!C2*users!$C$13+events!D2*users!D$13+events!E2*users!E$13+events!F2*users!F$13</f>
-        <v>3.875</v>
+        <f>(events!B2-users!B$13)^2+(events!C2-users!C$13)^2+(events!D2-users!$D$13)^2+(events!E2-users!$E$13)^2+(events!F2-users!$F$13)^2</f>
+        <v>35</v>
       </c>
       <c r="N2" s="11">
-        <f>events!B2*users!$B$14+events!C2*users!$C$14+events!D2*users!D$14+events!E2*users!E$14+events!F2*users!F$14</f>
-        <v>4.125</v>
+        <f>(events!B2-users!B$14)^2+(events!C2-users!C$14)^2+(events!D2-users!$D$14)^2+(events!E2-users!$E$14)^2+(events!F2-users!$F$14)^2</f>
+        <v>19</v>
       </c>
       <c r="O2" s="11">
-        <f>events!B2*users!$B$15+events!C2*users!$C$15+events!D2*users!D$15+events!E2*users!E$15+events!F2*users!F$15</f>
-        <v>1.25</v>
+        <f>(events!B2-users!B$15)^2+(events!C2-users!C$15)^2+(events!D2-users!$D$15)^2+(events!E2-users!$E$15)^2+(events!F2-users!$F$15)^2</f>
+        <v>35</v>
       </c>
       <c r="P2" s="11">
-        <f>events!B2*users!$B$16+events!C2*users!$C$16+events!D2*users!D$16+events!E2*users!E$16+events!F2*users!F$16</f>
-        <v>1.25</v>
+        <f>(events!B2-users!B$16)^2+(events!C2-users!C$16)^2+(events!D2-users!$D$16)^2+(events!E2-users!$E$16)^2+(events!F2-users!$F$16)^2</f>
+        <v>35</v>
       </c>
       <c r="Q2" s="11">
-        <f>events!B2*users!$B$17+events!C2*users!$C$17+events!D2*users!D$17+events!E2*users!E$17+events!F2*users!F$17</f>
-        <v>0.625</v>
+        <f>(events!B2-users!B$17)^2+(events!C2-users!C$17)^2+(events!D2-users!$D$17)^2+(events!E2-users!$E$17)^2+(events!F2-users!$F$17)^2</f>
+        <v>70</v>
       </c>
       <c r="R2" s="11">
-        <f>events!B2*users!$B$18+events!C2*users!$C$18+events!D2*users!D$18+events!E2*users!E$18+events!F2*users!F$18</f>
-        <v>4.25</v>
+        <f>(events!B2-users!B$18)^2+(events!C2-users!C$18)^2+(events!D2-users!$D$18)^2+(events!E2-users!$E$18)^2+(events!F2-users!$F$18)^2</f>
+        <v>48</v>
       </c>
       <c r="S2" s="11">
-        <f>events!B2*users!$B$19+events!C2*users!$C$19+events!D2*users!D$19+events!E2*users!E$19+events!F2*users!F$19</f>
-        <v>4.25</v>
+        <f>(events!B2-users!B$19)^2+(events!C2-users!C$19)^2+(events!D2-users!$D$19)^2+(events!E2-users!$E$19)^2+(events!F2-users!$F$19)^2</f>
+        <v>32</v>
       </c>
       <c r="T2" s="11">
-        <f>events!B2*users!$B$20+events!C2*users!$C$20+events!D2*users!D$20+events!E2*users!E$20+events!F2*users!F$20</f>
-        <v>3.125</v>
+        <f>(events!B2-users!B$20)^2+(events!C2-users!C$20)^2+(events!D2-users!$D$20)^2+(events!E2-users!$E$20)^2+(events!F2-users!$F$20)^2</f>
+        <v>39</v>
       </c>
       <c r="U2" s="11">
-        <f>events!B2*users!$B$21+events!C2*users!$C$21+events!D2*users!D$21+events!E2*users!E$21+events!F2*users!F$21</f>
-        <v>4.5</v>
+        <f>(events!B2-users!B$21)^2+(events!C2-users!C$21)^2+(events!D2-users!$D$21)^2+(events!E2-users!$E$21)^2+(events!F2-users!$F$21)^2</f>
+        <v>14</v>
       </c>
       <c r="V2" s="11">
-        <f>events!B2*users!$B$22+events!C2*users!$C$22+events!D2*users!D$22+events!E2*users!E$22+events!F2*users!F$22</f>
-        <v>3.25</v>
+        <f>(events!B2-users!B$22)^2+(events!C2-users!C$22)^2+(events!D2-users!$D$22)^2+(events!E2-users!$E$22)^2+(events!F2-users!$F$22)^2</f>
+        <v>55</v>
       </c>
       <c r="W2" s="11">
-        <f>events!B2*users!$B$23+events!C2*users!$C$23+events!D2*users!D$23+events!E2*users!E$23+events!F2*users!F$23</f>
-        <v>3.75</v>
+        <f>(events!B2-users!B$23)^2+(events!C2-users!C$23)^2+(events!D2-users!$D$23)^2+(events!E2-users!$E$23)^2+(events!F2-users!$F$23)^2</f>
+        <v>36</v>
       </c>
       <c r="X2" s="11">
-        <f>events!B2*users!$B$24+events!C2*users!$C$24+events!D2*users!D$24+events!E2*users!E$24+events!F2*users!F$24</f>
-        <v>1.5</v>
+        <f>(events!B2-users!B$24)^2+(events!C2-users!C$24)^2+(events!D2-users!$D$24)^2+(events!E2-users!$E$24)^2+(events!F2-users!$F$24)^2</f>
+        <v>64</v>
       </c>
       <c r="Y2" s="11">
-        <f>events!B2*users!$B$25+events!C2*users!$C$25+events!D2*users!D$25+events!E2*users!E$25+events!F2*users!F$25</f>
-        <v>2.5</v>
+        <f>(events!B2-users!B$25)^2+(events!C2-users!C$25)^2+(events!D2-users!$D$25)^2+(events!E2-users!$E$25)^2+(events!F2-users!$F$25)^2</f>
+        <v>44</v>
       </c>
       <c r="Z2" s="11">
-        <f>events!B2*users!$B$26+events!C2*users!$C$26+events!D2*users!D$26+events!E2*users!E$26+events!F2*users!F$26</f>
-        <v>4</v>
+        <f>(events!B2-users!B$26)^2+(events!C2-users!C$26)^2+(events!D2-users!$D$26)^2+(events!E2-users!$E$26)^2+(events!F2-users!$F$26)^2</f>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -1795,104 +1797,104 @@
         <v>2</v>
       </c>
       <c r="B3" s="11">
-        <f>events!B3*users!$B$2+events!C3*users!$C$2+events!D3*users!$D$2+events!E3*users!$E$2+events!F3*users!$F$2</f>
-        <v>1.25</v>
+        <f>(events!B3-users!$B$2)^2+(events!C3-users!$C$2)^2+(events!D3-users!$D$2)^2+(events!E3-users!$E$2)^2+(events!F3-users!$F$2)^2</f>
+        <v>85</v>
       </c>
       <c r="C3" s="11">
-        <f>events!B3*users!$B$3+events!C3*users!$C$3+events!D3*users!$D$3+events!E3*users!$E$3+events!F3*users!$F$3</f>
-        <v>4.125</v>
+        <f>(events!B3-users!B$3)^2+(events!C3-users!C$3)^2+(events!D3-users!$D$3)^2+(events!E3-users!$E$3)^2+(events!F3-users!$F$3)^2</f>
+        <v>46</v>
       </c>
       <c r="D3" s="11">
-        <f>events!B3*users!$B$4+events!C3*users!$C$4+events!D3*users!$D$4+events!E3*users!$E$4+events!F3*users!$F$4</f>
-        <v>4.5</v>
+        <f>(events!B3-users!B$4)^2+(events!C3-users!C$4)^2+(events!D3-users!$D$4)^2+(events!E3-users!$E$4)^2+(events!F3-users!$F$4)^2</f>
+        <v>40</v>
       </c>
       <c r="E3" s="11">
-        <f>events!B3*users!$B$5+events!C3*users!$C$5+events!D3*users!$D$5+events!E3*users!$E$5+events!F3*users!$F$5</f>
-        <v>3.75</v>
+        <f>(events!B3-users!B$5)^2+(events!C3-users!C$5)^2+(events!D3-users!$D$5)^2+(events!E3-users!$E$5)^2+(events!F3-users!$F$5)^2</f>
+        <v>54</v>
       </c>
       <c r="F3" s="11">
-        <f>events!B3*users!$B$6+events!C3*users!$C$6+events!D3*users!D$6+events!E3*users!E$6+events!F3*users!F$6</f>
-        <v>4</v>
+        <f>(events!B3-users!B$6)^2+(events!C3-users!C$6)^2+(events!D3-users!$D$6)^2+(events!E3-users!$E$6)^2+(events!F3-users!$F$6)^2</f>
+        <v>55</v>
       </c>
       <c r="G3" s="11">
-        <f>events!B3*users!$B$7+events!C3*users!$C$7+events!D3*users!D$7+events!E3*users!E$7+events!F3*users!F$7</f>
-        <v>1.875</v>
+        <f>(events!B3-users!B$7)^2+(events!C3-users!C$7)^2+(events!D3-users!$D$7)^2+(events!E3-users!$E$7)^2+(events!F3-users!$F$7)^2</f>
+        <v>75</v>
       </c>
       <c r="H3" s="11">
-        <f>events!B3*users!$B$8+events!C3*users!$C$8+events!D3*users!D$8+events!E3*users!E$8+events!F3*users!F$8</f>
-        <v>1.5</v>
+        <f>(events!B3-users!B$8)^2+(events!C3-users!C$8)^2+(events!D3-users!$D$8)^2+(events!E3-users!$E$8)^2+(events!F3-users!$F$8)^2</f>
+        <v>59</v>
       </c>
       <c r="I3" s="11">
-        <f>events!B3*users!$B$9+events!C3*users!$C$9+events!D3*users!D$9+events!E3*users!E$9+events!F3*users!F$9</f>
-        <v>2.375</v>
+        <f>(events!B3-users!B$8)^2+(events!C3-users!C$8)^2+(events!D3-users!$D$8)^2+(events!E3-users!$E$8)^2+(events!F3-users!$F$8)^2</f>
+        <v>59</v>
       </c>
       <c r="J3" s="11">
-        <f>events!B3*users!$B$10+events!C3*users!$C$10+events!D3*users!D$10+events!E3*users!E$10+events!F3*users!F$10</f>
-        <v>3.5</v>
+        <f>(events!B3-users!B$9)^2+(events!C3-users!C$9)^2+(events!D3-users!$D$9)^2+(events!E3-users!$E$9)^2+(events!F3-users!$F$9)^2</f>
+        <v>63</v>
       </c>
       <c r="K3" s="11">
-        <f>events!B3*users!$B$11+events!C3*users!$C$11+events!D3*users!D$11+events!E3*users!E$11+events!F3*users!F$11</f>
-        <v>3.875</v>
+        <f>(events!B3-users!B$11)^2+(events!C3-users!C$11)^2+(events!D3-users!$D$11)^2+(events!E3-users!$E$11)^2+(events!F3-users!$F$11)^2</f>
+        <v>26</v>
       </c>
       <c r="L3" s="11">
-        <f>events!B3*users!$B$12+events!C3*users!$C$12+events!D3*users!D$12+events!E3*users!E$12+events!F3*users!F$12</f>
-        <v>3.75</v>
+        <f>(events!B3-users!B$12)^2+(events!C3-users!C$12)^2+(events!D3-users!$D$12)^2+(events!E3-users!$E$12)^2+(events!F3-users!$F$12)^2</f>
+        <v>13</v>
       </c>
       <c r="M3" s="11">
-        <f>events!B3*users!$B$13+events!C3*users!$C$13+events!D3*users!D$13+events!E3*users!E$13+events!F3*users!F$13</f>
-        <v>2.125</v>
+        <f>(events!B3-users!B$13)^2+(events!C3-users!C$13)^2+(events!D3-users!$D$13)^2+(events!E3-users!$E$13)^2+(events!F3-users!$F$13)^2</f>
+        <v>63</v>
       </c>
       <c r="N3" s="11">
-        <f>events!B3*users!$B$14+events!C3*users!$C$14+events!D3*users!D$14+events!E3*users!E$14+events!F3*users!F$14</f>
-        <v>2.125</v>
+        <f>(events!B3-users!B$14)^2+(events!C3-users!C$14)^2+(events!D3-users!$D$14)^2+(events!E3-users!$E$14)^2+(events!F3-users!$F$14)^2</f>
+        <v>51</v>
       </c>
       <c r="O3" s="11">
-        <f>events!B3*users!$B$15+events!C3*users!$C$15+events!D3*users!D$15+events!E3*users!E$15+events!F3*users!F$15</f>
-        <v>0.625</v>
+        <f>(events!B3-users!B$15)^2+(events!C3-users!C$15)^2+(events!D3-users!$D$15)^2+(events!E3-users!$E$15)^2+(events!F3-users!$F$15)^2</f>
+        <v>45</v>
       </c>
       <c r="P3" s="11">
-        <f>events!B3*users!$B$16+events!C3*users!$C$16+events!D3*users!D$16+events!E3*users!E$16+events!F3*users!F$16</f>
-        <v>0.625</v>
+        <f>(events!B3-users!B$16)^2+(events!C3-users!C$16)^2+(events!D3-users!$D$16)^2+(events!E3-users!$E$16)^2+(events!F3-users!$F$16)^2</f>
+        <v>45</v>
       </c>
       <c r="Q3" s="11">
-        <f>events!B3*users!$B$17+events!C3*users!$C$17+events!D3*users!D$17+events!E3*users!E$17+events!F3*users!F$17</f>
-        <v>3.125</v>
+        <f>(events!B3-users!B$17)^2+(events!C3-users!C$17)^2+(events!D3-users!$D$17)^2+(events!E3-users!$E$17)^2+(events!F3-users!$F$17)^2</f>
+        <v>30</v>
       </c>
       <c r="R3" s="11">
-        <f>events!B3*users!$B$18+events!C3*users!$C$18+events!D3*users!D$18+events!E3*users!E$18+events!F3*users!F$18</f>
-        <v>2.875</v>
+        <f>(events!B3-users!B$18)^2+(events!C3-users!C$18)^2+(events!D3-users!$D$18)^2+(events!E3-users!$E$18)^2+(events!F3-users!$F$18)^2</f>
+        <v>70</v>
       </c>
       <c r="S3" s="11">
-        <f>events!B3*users!$B$19+events!C3*users!$C$19+events!D3*users!D$19+events!E3*users!E$19+events!F3*users!F$19</f>
-        <v>4</v>
+        <f>(events!B3-users!B$19)^2+(events!C3-users!C$19)^2+(events!D3-users!$D$19)^2+(events!E3-users!$E$19)^2+(events!F3-users!$F$19)^2</f>
+        <v>36</v>
       </c>
       <c r="T3" s="11">
-        <f>events!B3*users!$B$20+events!C3*users!$C$20+events!D3*users!D$20+events!E3*users!E$20+events!F3*users!F$20</f>
-        <v>2.375</v>
+        <f>(events!B3-users!B$20)^2+(events!C3-users!C$20)^2+(events!D3-users!$D$20)^2+(events!E3-users!$E$20)^2+(events!F3-users!$F$20)^2</f>
+        <v>51</v>
       </c>
       <c r="U3" s="11">
-        <f>events!B3*users!$B$21+events!C3*users!$C$21+events!D3*users!D$21+events!E3*users!E$21+events!F3*users!F$21</f>
-        <v>3.125</v>
+        <f>(events!B3-users!B$21)^2+(events!C3-users!C$21)^2+(events!D3-users!$D$21)^2+(events!E3-users!$E$21)^2+(events!F3-users!$F$21)^2</f>
+        <v>36</v>
       </c>
       <c r="V3" s="11">
-        <f>events!B3*users!$B$22+events!C3*users!$C$22+events!D3*users!D$22+events!E3*users!E$22+events!F3*users!F$22</f>
-        <v>3</v>
+        <f>(events!B3-users!B$22)^2+(events!C3-users!C$22)^2+(events!D3-users!$D$22)^2+(events!E3-users!$E$22)^2+(events!F3-users!$F$22)^2</f>
+        <v>59</v>
       </c>
       <c r="W3" s="11">
-        <f>events!B3*users!$B$23+events!C3*users!$C$23+events!D3*users!D$23+events!E3*users!E$23+events!F3*users!F$23</f>
-        <v>3.25</v>
+        <f>(events!B3-users!B$23)^2+(events!C3-users!C$23)^2+(events!D3-users!$D$23)^2+(events!E3-users!$E$23)^2+(events!F3-users!$F$23)^2</f>
+        <v>44</v>
       </c>
       <c r="X3" s="11">
-        <f>events!B3*users!$B$24+events!C3*users!$C$24+events!D3*users!D$24+events!E3*users!E$24+events!F3*users!F$24</f>
-        <v>1.875</v>
+        <f>(events!B3-users!B$24)^2+(events!C3-users!C$24)^2+(events!D3-users!$D$24)^2+(events!E3-users!$E$24)^2+(events!F3-users!$F$24)^2</f>
+        <v>58</v>
       </c>
       <c r="Y3" s="11">
-        <f>events!B3*users!$B$25+events!C3*users!$C$25+events!D3*users!D$25+events!E3*users!E$25+events!F3*users!F$25</f>
-        <v>4.25</v>
+        <f>(events!B3-users!B$25)^2+(events!C3-users!C$25)^2+(events!D3-users!$D$25)^2+(events!E3-users!$E$25)^2+(events!F3-users!$F$25)^2</f>
+        <v>16</v>
       </c>
       <c r="Z3" s="11">
-        <f>events!B3*users!$B$26+events!C3*users!$C$26+events!D3*users!D$26+events!E3*users!E$26+events!F3*users!F$26</f>
-        <v>2</v>
+        <f>(events!B3-users!B$26)^2+(events!C3-users!C$26)^2+(events!D3-users!$D$26)^2+(events!E3-users!$E$26)^2+(events!F3-users!$F$26)^2</f>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -1900,104 +1902,104 @@
         <v>3</v>
       </c>
       <c r="B4" s="11">
-        <f>events!B4*users!$B$2+events!C4*users!$C$2+events!D4*users!$D$2+events!E4*users!$E$2+events!F4*users!$F$2</f>
-        <v>5</v>
+        <f>(events!B4-users!$B$2)^2+(events!C4-users!$C$2)^2+(events!D4-users!$D$2)^2+(events!E4-users!$E$2)^2+(events!F4-users!$F$2)^2</f>
+        <v>13</v>
       </c>
       <c r="C4" s="11">
-        <f>events!B4*users!$B$3+events!C4*users!$C$3+events!D4*users!$D$3+events!E4*users!$E$3+events!F4*users!$F$3</f>
-        <v>3.375</v>
+        <f>(events!B4-users!B$3)^2+(events!C4-users!C$3)^2+(events!D4-users!$D$3)^2+(events!E4-users!$E$3)^2+(events!F4-users!$F$3)^2</f>
+        <v>50</v>
       </c>
       <c r="D4" s="11">
-        <f>events!B4*users!$B$4+events!C4*users!$C$4+events!D4*users!$D$4+events!E4*users!$E$4+events!F4*users!$F$4</f>
-        <v>4</v>
+        <f>(events!B4-users!B$4)^2+(events!C4-users!C$4)^2+(events!D4-users!$D$4)^2+(events!E4-users!$E$4)^2+(events!F4-users!$F$4)^2</f>
+        <v>40</v>
       </c>
       <c r="E4" s="11">
-        <f>events!B4*users!$B$5+events!C4*users!$C$5+events!D4*users!$D$5+events!E4*users!$E$5+events!F4*users!$F$5</f>
-        <v>3.375</v>
+        <f>(events!B4-users!B$5)^2+(events!C4-users!C$5)^2+(events!D4-users!$D$5)^2+(events!E4-users!$E$5)^2+(events!F4-users!$F$5)^2</f>
+        <v>48</v>
       </c>
       <c r="F4" s="11">
-        <f>events!B4*users!$B$6+events!C4*users!$C$6+events!D4*users!D$6+events!E4*users!E$6+events!F4*users!F$6</f>
-        <v>4.625</v>
+        <f>(events!B4-users!B$6)^2+(events!C4-users!C$6)^2+(events!D4-users!$D$6)^2+(events!E4-users!$E$6)^2+(events!F4-users!$F$6)^2</f>
+        <v>37</v>
       </c>
       <c r="G4" s="11">
-        <f>events!B4*users!$B$7+events!C4*users!$C$7+events!D4*users!D$7+events!E4*users!E$7+events!F4*users!F$7</f>
-        <v>3.125</v>
+        <f>(events!B4-users!B$7)^2+(events!C4-users!C$7)^2+(events!D4-users!$D$7)^2+(events!E4-users!$E$7)^2+(events!F4-users!$F$7)^2</f>
+        <v>43</v>
       </c>
       <c r="H4" s="11">
-        <f>events!B4*users!$B$8+events!C4*users!$C$8+events!D4*users!D$8+events!E4*users!E$8+events!F4*users!F$8</f>
-        <v>3.5</v>
+        <f>(events!B4-users!B$8)^2+(events!C4-users!C$8)^2+(events!D4-users!$D$8)^2+(events!E4-users!$E$8)^2+(events!F4-users!$F$8)^2</f>
+        <v>31</v>
       </c>
       <c r="I4" s="11">
-        <f>events!B4*users!$B$9+events!C4*users!$C$9+events!D4*users!D$9+events!E4*users!E$9+events!F4*users!F$9</f>
-        <v>3.875</v>
+        <f>(events!B4-users!B$8)^2+(events!C4-users!C$8)^2+(events!D4-users!$D$8)^2+(events!E4-users!$E$8)^2+(events!F4-users!$F$8)^2</f>
+        <v>31</v>
       </c>
       <c r="J4" s="11">
-        <f>events!B4*users!$B$10+events!C4*users!$C$10+events!D4*users!D$10+events!E4*users!E$10+events!F4*users!F$10</f>
-        <v>3.75</v>
+        <f>(events!B4-users!B$9)^2+(events!C4-users!C$9)^2+(events!D4-users!$D$9)^2+(events!E4-users!$E$9)^2+(events!F4-users!$F$9)^2</f>
+        <v>27</v>
       </c>
       <c r="K4" s="11">
-        <f>events!B4*users!$B$11+events!C4*users!$C$11+events!D4*users!D$11+events!E4*users!E$11+events!F4*users!F$11</f>
-        <v>1.8749999999999998</v>
+        <f>(events!B4-users!B$11)^2+(events!C4-users!C$11)^2+(events!D4-users!$D$11)^2+(events!E4-users!$E$11)^2+(events!F4-users!$F$11)^2</f>
+        <v>58</v>
       </c>
       <c r="L4" s="11">
-        <f>events!B4*users!$B$12+events!C4*users!$C$12+events!D4*users!D$12+events!E4*users!E$12+events!F4*users!F$12</f>
-        <v>2.625</v>
+        <f>(events!B4-users!B$12)^2+(events!C4-users!C$12)^2+(events!D4-users!$D$12)^2+(events!E4-users!$E$12)^2+(events!F4-users!$F$12)^2</f>
+        <v>31</v>
       </c>
       <c r="M4" s="11">
-        <f>events!B4*users!$B$13+events!C4*users!$C$13+events!D4*users!D$13+events!E4*users!E$13+events!F4*users!F$13</f>
-        <v>3.75</v>
+        <f>(events!B4-users!B$13)^2+(events!C4-users!C$13)^2+(events!D4-users!$D$13)^2+(events!E4-users!$E$13)^2+(events!F4-users!$F$13)^2</f>
+        <v>29</v>
       </c>
       <c r="N4" s="11">
-        <f>events!B4*users!$B$14+events!C4*users!$C$14+events!D4*users!D$14+events!E4*users!E$14+events!F4*users!F$14</f>
-        <v>3.625</v>
+        <f>(events!B4-users!B$14)^2+(events!C4-users!C$14)^2+(events!D4-users!$D$14)^2+(events!E4-users!$E$14)^2+(events!F4-users!$F$14)^2</f>
+        <v>15</v>
       </c>
       <c r="O4" s="11">
-        <f>events!B4*users!$B$15+events!C4*users!$C$15+events!D4*users!D$15+events!E4*users!E$15+events!F4*users!F$15</f>
-        <v>0</v>
+        <f>(events!B4-users!B$15)^2+(events!C4-users!C$15)^2+(events!D4-users!$D$15)^2+(events!E4-users!$E$15)^2+(events!F4-users!$F$15)^2</f>
+        <v>63</v>
       </c>
       <c r="P4" s="11">
-        <f>events!B4*users!$B$16+events!C4*users!$C$16+events!D4*users!D$16+events!E4*users!E$16+events!F4*users!F$16</f>
-        <v>0</v>
+        <f>(events!B4-users!B$16)^2+(events!C4-users!C$16)^2+(events!D4-users!$D$16)^2+(events!E4-users!$E$16)^2+(events!F4-users!$F$16)^2</f>
+        <v>63</v>
       </c>
       <c r="Q4" s="11">
-        <f>events!B4*users!$B$17+events!C4*users!$C$17+events!D4*users!D$17+events!E4*users!E$17+events!F4*users!F$17</f>
-        <v>3.125</v>
+        <f>(events!B4-users!B$17)^2+(events!C4-users!C$17)^2+(events!D4-users!$D$17)^2+(events!E4-users!$E$17)^2+(events!F4-users!$F$17)^2</f>
+        <v>38</v>
       </c>
       <c r="R4" s="11">
-        <f>events!B4*users!$B$18+events!C4*users!$C$18+events!D4*users!D$18+events!E4*users!E$18+events!F4*users!F$18</f>
-        <v>4.375</v>
+        <f>(events!B4-users!B$18)^2+(events!C4-users!C$18)^2+(events!D4-users!$D$18)^2+(events!E4-users!$E$18)^2+(events!F4-users!$F$18)^2</f>
+        <v>38</v>
       </c>
       <c r="S4" s="11">
-        <f>events!B4*users!$B$19+events!C4*users!$C$19+events!D4*users!D$19+events!E4*users!E$19+events!F4*users!F$19</f>
-        <v>3.125</v>
+        <f>(events!B4-users!B$19)^2+(events!C4-users!C$19)^2+(events!D4-users!$D$19)^2+(events!E4-users!$E$19)^2+(events!F4-users!$F$19)^2</f>
+        <v>38</v>
       </c>
       <c r="T4" s="11">
-        <f>events!B4*users!$B$20+events!C4*users!$C$20+events!D4*users!D$20+events!E4*users!E$20+events!F4*users!F$20</f>
-        <v>3.5</v>
+        <f>(events!B4-users!B$20)^2+(events!C4-users!C$20)^2+(events!D4-users!$D$20)^2+(events!E4-users!$E$20)^2+(events!F4-users!$F$20)^2</f>
+        <v>33</v>
       </c>
       <c r="U4" s="11">
-        <f>events!B4*users!$B$21+events!C4*users!$C$21+events!D4*users!D$21+events!E4*users!E$21+events!F4*users!F$21</f>
-        <v>1</v>
+        <f>(events!B4-users!B$21)^2+(events!C4-users!C$21)^2+(events!D4-users!$D$21)^2+(events!E4-users!$E$21)^2+(events!F4-users!$F$21)^2</f>
+        <v>58</v>
       </c>
       <c r="V4" s="11">
-        <f>events!B4*users!$B$22+events!C4*users!$C$22+events!D4*users!D$22+events!E4*users!E$22+events!F4*users!F$22</f>
-        <v>5</v>
+        <f>(events!B4-users!B$22)^2+(events!C4-users!C$22)^2+(events!D4-users!$D$22)^2+(events!E4-users!$E$22)^2+(events!F4-users!$F$22)^2</f>
+        <v>23</v>
       </c>
       <c r="W4" s="11">
-        <f>events!B4*users!$B$23+events!C4*users!$C$23+events!D4*users!D$23+events!E4*users!E$23+events!F4*users!F$23</f>
-        <v>4</v>
+        <f>(events!B4-users!B$23)^2+(events!C4-users!C$23)^2+(events!D4-users!$D$23)^2+(events!E4-users!$E$23)^2+(events!F4-users!$F$23)^2</f>
+        <v>24</v>
       </c>
       <c r="X4" s="11">
-        <f>events!B4*users!$B$24+events!C4*users!$C$24+events!D4*users!D$24+events!E4*users!E$24+events!F4*users!F$24</f>
-        <v>3.125</v>
+        <f>(events!B4-users!B$24)^2+(events!C4-users!C$24)^2+(events!D4-users!$D$24)^2+(events!E4-users!$E$24)^2+(events!F4-users!$F$24)^2</f>
+        <v>46</v>
       </c>
       <c r="Y4" s="11">
-        <f>events!B4*users!$B$25+events!C4*users!$C$25+events!D4*users!D$25+events!E4*users!E$25+events!F4*users!F$25</f>
-        <v>0</v>
+        <f>(events!B4-users!B$25)^2+(events!C4-users!C$25)^2+(events!D4-users!$D$25)^2+(events!E4-users!$E$25)^2+(events!F4-users!$F$25)^2</f>
+        <v>84</v>
       </c>
       <c r="Z4" s="11">
-        <f>events!B4*users!$B$26+events!C4*users!$C$26+events!D4*users!D$26+events!E4*users!E$26+events!F4*users!F$26</f>
-        <v>3.875</v>
+        <f>(events!B4-users!B$26)^2+(events!C4-users!C$26)^2+(events!D4-users!$D$26)^2+(events!E4-users!$E$26)^2+(events!F4-users!$F$26)^2</f>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -2005,104 +2007,104 @@
         <v>4</v>
       </c>
       <c r="B5" s="11">
-        <f>events!B5*users!$B$2+events!C5*users!$C$2+events!D5*users!$D$2+events!E5*users!$E$2+events!F5*users!$F$2</f>
-        <v>0</v>
+        <f>(events!B5-users!$B$2)^2+(events!C5-users!$C$2)^2+(events!D5-users!$D$2)^2+(events!E5-users!$E$2)^2+(events!F5-users!$F$2)^2</f>
+        <v>79</v>
       </c>
       <c r="C5" s="11">
-        <f>events!B5*users!$B$3+events!C5*users!$C$3+events!D5*users!$D$3+events!E5*users!$E$3+events!F5*users!$F$3</f>
-        <v>5</v>
+        <f>(events!B5-users!B$3)^2+(events!C5-users!C$3)^2+(events!D5-users!$D$3)^2+(events!E5-users!$E$3)^2+(events!F5-users!$F$3)^2</f>
+        <v>42</v>
       </c>
       <c r="D5" s="11">
-        <f>events!B5*users!$B$4+events!C5*users!$C$4+events!D5*users!$D$4+events!E5*users!$E$4+events!F5*users!$F$4</f>
-        <v>3</v>
+        <f>(events!B5-users!B$4)^2+(events!C5-users!C$4)^2+(events!D5-users!$D$4)^2+(events!E5-users!$E$4)^2+(events!F5-users!$F$4)^2</f>
+        <v>62</v>
       </c>
       <c r="E5" s="11">
-        <f>events!B5*users!$B$5+events!C5*users!$C$5+events!D5*users!$D$5+events!E5*users!$E$5+events!F5*users!$F$5</f>
-        <v>5</v>
+        <f>(events!B5-users!B$5)^2+(events!C5-users!C$5)^2+(events!D5-users!$D$5)^2+(events!E5-users!$E$5)^2+(events!F5-users!$F$5)^2</f>
+        <v>38</v>
       </c>
       <c r="F5" s="11">
-        <f>events!B5*users!$B$6+events!C5*users!$C$6+events!D5*users!D$6+events!E5*users!E$6+events!F5*users!F$6</f>
-        <v>4</v>
+        <f>(events!B5-users!B$6)^2+(events!C5-users!C$6)^2+(events!D5-users!$D$6)^2+(events!E5-users!$E$6)^2+(events!F5-users!$F$6)^2</f>
+        <v>59</v>
       </c>
       <c r="G5" s="11">
-        <f>events!B5*users!$B$7+events!C5*users!$C$7+events!D5*users!D$7+events!E5*users!E$7+events!F5*users!F$7</f>
-        <v>5</v>
+        <f>(events!B5-users!B$7)^2+(events!C5-users!C$7)^2+(events!D5-users!$D$7)^2+(events!E5-users!$E$7)^2+(events!F5-users!$F$7)^2</f>
+        <v>29</v>
       </c>
       <c r="H5" s="11">
-        <f>events!B5*users!$B$8+events!C5*users!$C$8+events!D5*users!D$8+events!E5*users!E$8+events!F5*users!F$8</f>
-        <v>5</v>
+        <f>(events!B5-users!B$8)^2+(events!C5-users!C$8)^2+(events!D5-users!$D$8)^2+(events!E5-users!$E$8)^2+(events!F5-users!$F$8)^2</f>
+        <v>31</v>
       </c>
       <c r="I5" s="11">
-        <f>events!B5*users!$B$9+events!C5*users!$C$9+events!D5*users!D$9+events!E5*users!E$9+events!F5*users!F$9</f>
-        <v>4</v>
+        <f>(events!B5-users!B$8)^2+(events!C5-users!C$8)^2+(events!D5-users!$D$8)^2+(events!E5-users!$E$8)^2+(events!F5-users!$F$8)^2</f>
+        <v>31</v>
       </c>
       <c r="J5" s="11">
-        <f>events!B5*users!$B$10+events!C5*users!$C$10+events!D5*users!D$10+events!E5*users!E$10+events!F5*users!F$10</f>
-        <v>2</v>
+        <f>(events!B5-users!B$9)^2+(events!C5-users!C$9)^2+(events!D5-users!$D$9)^2+(events!E5-users!$E$9)^2+(events!F5-users!$F$9)^2</f>
+        <v>35</v>
       </c>
       <c r="K5" s="11">
-        <f>events!B5*users!$B$11+events!C5*users!$C$11+events!D5*users!D$11+events!E5*users!E$11+events!F5*users!F$11</f>
-        <v>2</v>
+        <f>(events!B5-users!B$11)^2+(events!C5-users!C$11)^2+(events!D5-users!$D$11)^2+(events!E5-users!$E$11)^2+(events!F5-users!$F$11)^2</f>
+        <v>60</v>
       </c>
       <c r="L5" s="11">
-        <f>events!B5*users!$B$12+events!C5*users!$C$12+events!D5*users!D$12+events!E5*users!E$12+events!F5*users!F$12</f>
-        <v>1</v>
+        <f>(events!B5-users!B$12)^2+(events!C5-users!C$12)^2+(events!D5-users!$D$12)^2+(events!E5-users!$E$12)^2+(events!F5-users!$F$12)^2</f>
+        <v>55</v>
       </c>
       <c r="M5" s="11">
-        <f>events!B5*users!$B$13+events!C5*users!$C$13+events!D5*users!D$13+events!E5*users!E$13+events!F5*users!F$13</f>
-        <v>4</v>
+        <f>(events!B5-users!B$13)^2+(events!C5-users!C$13)^2+(events!D5-users!$D$13)^2+(events!E5-users!$E$13)^2+(events!F5-users!$F$13)^2</f>
+        <v>37</v>
       </c>
       <c r="N5" s="11">
-        <f>events!B5*users!$B$14+events!C5*users!$C$14+events!D5*users!D$14+events!E5*users!E$14+events!F5*users!F$14</f>
-        <v>2</v>
+        <f>(events!B5-users!B$14)^2+(events!C5-users!C$14)^2+(events!D5-users!$D$14)^2+(events!E5-users!$E$14)^2+(events!F5-users!$F$14)^2</f>
+        <v>39</v>
       </c>
       <c r="O5" s="11">
-        <f>events!B5*users!$B$15+events!C5*users!$C$15+events!D5*users!D$15+events!E5*users!E$15+events!F5*users!F$15</f>
-        <v>5</v>
+        <f>(events!B5-users!B$15)^2+(events!C5-users!C$15)^2+(events!D5-users!$D$15)^2+(events!E5-users!$E$15)^2+(events!F5-users!$F$15)^2</f>
+        <v>9</v>
       </c>
       <c r="P5" s="11">
-        <f>events!B5*users!$B$16+events!C5*users!$C$16+events!D5*users!D$16+events!E5*users!E$16+events!F5*users!F$16</f>
-        <v>5</v>
+        <f>(events!B5-users!B$16)^2+(events!C5-users!C$16)^2+(events!D5-users!$D$16)^2+(events!E5-users!$E$16)^2+(events!F5-users!$F$16)^2</f>
+        <v>9</v>
       </c>
       <c r="Q5" s="11">
-        <f>events!B5*users!$B$17+events!C5*users!$C$17+events!D5*users!D$17+events!E5*users!E$17+events!F5*users!F$17</f>
-        <v>0</v>
+        <f>(events!B5-users!B$17)^2+(events!C5-users!C$17)^2+(events!D5-users!$D$17)^2+(events!E5-users!$E$17)^2+(events!F5-users!$F$17)^2</f>
+        <v>84</v>
       </c>
       <c r="R5" s="11">
-        <f>events!B5*users!$B$18+events!C5*users!$C$18+events!D5*users!D$18+events!E5*users!E$18+events!F5*users!F$18</f>
-        <v>5</v>
+        <f>(events!B5-users!B$18)^2+(events!C5-users!C$18)^2+(events!D5-users!$D$18)^2+(events!E5-users!$E$18)^2+(events!F5-users!$F$18)^2</f>
+        <v>46</v>
       </c>
       <c r="S5" s="11">
-        <f>events!B5*users!$B$19+events!C5*users!$C$19+events!D5*users!D$19+events!E5*users!E$19+events!F5*users!F$19</f>
-        <v>2</v>
+        <f>(events!B5-users!B$19)^2+(events!C5-users!C$19)^2+(events!D5-users!$D$19)^2+(events!E5-users!$E$19)^2+(events!F5-users!$F$19)^2</f>
+        <v>54</v>
       </c>
       <c r="T5" s="11">
-        <f>events!B5*users!$B$20+events!C5*users!$C$20+events!D5*users!D$20+events!E5*users!E$20+events!F5*users!F$20</f>
-        <v>5</v>
+        <f>(events!B5-users!B$20)^2+(events!C5-users!C$20)^2+(events!D5-users!$D$20)^2+(events!E5-users!$E$20)^2+(events!F5-users!$F$20)^2</f>
+        <v>31</v>
       </c>
       <c r="U5" s="11">
-        <f>events!B5*users!$B$21+events!C5*users!$C$21+events!D5*users!D$21+events!E5*users!E$21+events!F5*users!F$21</f>
-        <v>5</v>
+        <f>(events!B5-users!B$21)^2+(events!C5-users!C$21)^2+(events!D5-users!$D$21)^2+(events!E5-users!$E$21)^2+(events!F5-users!$F$21)^2</f>
+        <v>10</v>
       </c>
       <c r="V5" s="11">
-        <f>events!B5*users!$B$22+events!C5*users!$C$22+events!D5*users!D$22+events!E5*users!E$22+events!F5*users!F$22</f>
-        <v>3</v>
+        <f>(events!B5-users!B$22)^2+(events!C5-users!C$22)^2+(events!D5-users!$D$22)^2+(events!E5-users!$E$22)^2+(events!F5-users!$F$22)^2</f>
+        <v>63</v>
       </c>
       <c r="W5" s="11">
-        <f>events!B5*users!$B$23+events!C5*users!$C$23+events!D5*users!D$23+events!E5*users!E$23+events!F5*users!F$23</f>
-        <v>3</v>
+        <f>(events!B5-users!B$23)^2+(events!C5-users!C$23)^2+(events!D5-users!$D$23)^2+(events!E5-users!$E$23)^2+(events!F5-users!$F$23)^2</f>
+        <v>46</v>
       </c>
       <c r="X5" s="11">
-        <f>events!B5*users!$B$24+events!C5*users!$C$24+events!D5*users!D$24+events!E5*users!E$24+events!F5*users!F$24</f>
-        <v>5</v>
+        <f>(events!B5-users!B$24)^2+(events!C5-users!C$24)^2+(events!D5-users!$D$24)^2+(events!E5-users!$E$24)^2+(events!F5-users!$F$24)^2</f>
+        <v>42</v>
       </c>
       <c r="Y5" s="11">
-        <f>events!B5*users!$B$25+events!C5*users!$C$25+events!D5*users!D$25+events!E5*users!E$25+events!F5*users!F$25</f>
-        <v>5</v>
+        <f>(events!B5-users!B$25)^2+(events!C5-users!C$25)^2+(events!D5-users!$D$25)^2+(events!E5-users!$E$25)^2+(events!F5-users!$F$25)^2</f>
+        <v>26</v>
       </c>
       <c r="Z5" s="11">
-        <f>events!B5*users!$B$26+events!C5*users!$C$26+events!D5*users!D$26+events!E5*users!E$26+events!F5*users!F$26</f>
-        <v>1</v>
+        <f>(events!B5-users!B$26)^2+(events!C5-users!C$26)^2+(events!D5-users!$D$26)^2+(events!E5-users!$E$26)^2+(events!F5-users!$F$26)^2</f>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -2110,104 +2112,104 @@
         <v>5</v>
       </c>
       <c r="B6" s="11">
-        <f>events!B6*users!$B$2+events!C6*users!$C$2+events!D6*users!$D$2+events!E6*users!$E$2+events!F6*users!$F$2</f>
-        <v>5</v>
+        <f>(events!B6-users!$B$2)^2+(events!C6-users!$C$2)^2+(events!D6-users!$D$2)^2+(events!E6-users!$E$2)^2+(events!F6-users!$F$2)^2</f>
+        <v>25</v>
       </c>
       <c r="C6" s="11">
-        <f>events!B6*users!$B$3+events!C6*users!$C$3+events!D6*users!$D$3+events!E6*users!$E$3+events!F6*users!$F$3</f>
-        <v>3.166666666666667</v>
+        <f>(events!B6-users!B$3)^2+(events!C6-users!C$3)^2+(events!D6-users!$D$3)^2+(events!E6-users!$E$3)^2+(events!F6-users!$F$3)^2</f>
+        <v>58</v>
       </c>
       <c r="D6" s="11">
-        <f>events!B6*users!$B$4+events!C6*users!$C$4+events!D6*users!$D$4+events!E6*users!$E$4+events!F6*users!$F$4</f>
-        <v>4</v>
+        <f>(events!B6-users!B$4)^2+(events!C6-users!C$4)^2+(events!D6-users!$D$4)^2+(events!E6-users!$E$4)^2+(events!F6-users!$F$4)^2</f>
+        <v>48</v>
       </c>
       <c r="E6" s="11">
-        <f>events!B6*users!$B$5+events!C6*users!$C$5+events!D6*users!$D$5+events!E6*users!$E$5+events!F6*users!$F$5</f>
-        <v>3.166666666666667</v>
+        <f>(events!B6-users!B$5)^2+(events!C6-users!C$5)^2+(events!D6-users!$D$5)^2+(events!E6-users!$E$5)^2+(events!F6-users!$F$5)^2</f>
+        <v>56</v>
       </c>
       <c r="F6" s="11">
-        <f>events!B6*users!$B$6+events!C6*users!$C$6+events!D6*users!D$6+events!E6*users!E$6+events!F6*users!F$6</f>
-        <v>4.8333333333333339</v>
+        <f>(events!B6-users!B$6)^2+(events!C6-users!C$6)^2+(events!D6-users!$D$6)^2+(events!E6-users!$E$6)^2+(events!F6-users!$F$6)^2</f>
+        <v>45</v>
       </c>
       <c r="G6" s="11">
-        <f>events!B6*users!$B$7+events!C6*users!$C$7+events!D6*users!D$7+events!E6*users!E$7+events!F6*users!F$7</f>
-        <v>4.166666666666667</v>
+        <f>(events!B6-users!B$7)^2+(events!C6-users!C$7)^2+(events!D6-users!$D$7)^2+(events!E6-users!$E$7)^2+(events!F6-users!$F$7)^2</f>
+        <v>35</v>
       </c>
       <c r="H6" s="11">
-        <f>events!B6*users!$B$8+events!C6*users!$C$8+events!D6*users!D$8+events!E6*users!E$8+events!F6*users!F$8</f>
-        <v>4.3333333333333339</v>
+        <f>(events!B6-users!B$8)^2+(events!C6-users!C$8)^2+(events!D6-users!$D$8)^2+(events!E6-users!$E$8)^2+(events!F6-users!$F$8)^2</f>
+        <v>27</v>
       </c>
       <c r="I6" s="11">
-        <f>events!B6*users!$B$9+events!C6*users!$C$9+events!D6*users!D$9+events!E6*users!E$9+events!F6*users!F$9</f>
-        <v>4.5</v>
+        <f>(events!B6-users!B$8)^2+(events!C6-users!C$8)^2+(events!D6-users!$D$8)^2+(events!E6-users!$E$8)^2+(events!F6-users!$F$8)^2</f>
+        <v>27</v>
       </c>
       <c r="J6" s="11">
-        <f>events!B6*users!$B$10+events!C6*users!$C$10+events!D6*users!D$10+events!E6*users!E$10+events!F6*users!F$10</f>
-        <v>3.3333333333333335</v>
+        <f>(events!B6-users!B$9)^2+(events!C6-users!C$9)^2+(events!D6-users!$D$9)^2+(events!E6-users!$E$9)^2+(events!F6-users!$F$9)^2</f>
+        <v>27</v>
       </c>
       <c r="K6" s="11">
-        <f>events!B6*users!$B$11+events!C6*users!$C$11+events!D6*users!D$11+events!E6*users!E$11+events!F6*users!F$11</f>
-        <v>0.83333333333333348</v>
+        <f>(events!B6-users!B$11)^2+(events!C6-users!C$11)^2+(events!D6-users!$D$11)^2+(events!E6-users!$E$11)^2+(events!F6-users!$F$11)^2</f>
+        <v>70</v>
       </c>
       <c r="L6" s="11">
-        <f>events!B6*users!$B$12+events!C6*users!$C$12+events!D6*users!D$12+events!E6*users!E$12+events!F6*users!F$12</f>
-        <v>2.8333333333333335</v>
+        <f>(events!B6-users!B$12)^2+(events!C6-users!C$12)^2+(events!D6-users!$D$12)^2+(events!E6-users!$E$12)^2+(events!F6-users!$F$12)^2</f>
+        <v>31</v>
       </c>
       <c r="M6" s="11">
-        <f>events!B6*users!$B$13+events!C6*users!$C$13+events!D6*users!D$13+events!E6*users!E$13+events!F6*users!F$13</f>
-        <v>3.3333333333333335</v>
+        <f>(events!B6-users!B$13)^2+(events!C6-users!C$13)^2+(events!D6-users!$D$13)^2+(events!E6-users!$E$13)^2+(events!F6-users!$F$13)^2</f>
+        <v>41</v>
       </c>
       <c r="N6" s="11">
-        <f>events!B6*users!$B$14+events!C6*users!$C$14+events!D6*users!D$14+events!E6*users!E$14+events!F6*users!F$14</f>
-        <v>3.8333333333333335</v>
+        <f>(events!B6-users!B$14)^2+(events!C6-users!C$14)^2+(events!D6-users!$D$14)^2+(events!E6-users!$E$14)^2+(events!F6-users!$F$14)^2</f>
+        <v>19</v>
       </c>
       <c r="O6" s="11">
-        <f>events!B6*users!$B$15+events!C6*users!$C$15+events!D6*users!D$15+events!E6*users!E$15+events!F6*users!F$15</f>
-        <v>0</v>
+        <f>(events!B6-users!B$15)^2+(events!C6-users!C$15)^2+(events!D6-users!$D$15)^2+(events!E6-users!$E$15)^2+(events!F6-users!$F$15)^2</f>
+        <v>55</v>
       </c>
       <c r="P6" s="11">
-        <f>events!B6*users!$B$16+events!C6*users!$C$16+events!D6*users!D$16+events!E6*users!E$16+events!F6*users!F$16</f>
-        <v>0</v>
+        <f>(events!B6-users!B$16)^2+(events!C6-users!C$16)^2+(events!D6-users!$D$16)^2+(events!E6-users!$E$16)^2+(events!F6-users!$F$16)^2</f>
+        <v>55</v>
       </c>
       <c r="Q6" s="11">
-        <f>events!B6*users!$B$17+events!C6*users!$C$17+events!D6*users!D$17+events!E6*users!E$17+events!F6*users!F$17</f>
-        <v>4.166666666666667</v>
+        <f>(events!B6-users!B$17)^2+(events!C6-users!C$17)^2+(events!D6-users!$D$17)^2+(events!E6-users!$E$17)^2+(events!F6-users!$F$17)^2</f>
+        <v>30</v>
       </c>
       <c r="R6" s="11">
-        <f>events!B6*users!$B$18+events!C6*users!$C$18+events!D6*users!D$18+events!E6*users!E$18+events!F6*users!F$18</f>
-        <v>4.166666666666667</v>
+        <f>(events!B6-users!B$18)^2+(events!C6-users!C$18)^2+(events!D6-users!$D$18)^2+(events!E6-users!$E$18)^2+(events!F6-users!$F$18)^2</f>
+        <v>50</v>
       </c>
       <c r="S6" s="11">
-        <f>events!B6*users!$B$19+events!C6*users!$C$19+events!D6*users!D$19+events!E6*users!E$19+events!F6*users!F$19</f>
-        <v>4.166666666666667</v>
+        <f>(events!B6-users!B$19)^2+(events!C6-users!C$19)^2+(events!D6-users!$D$19)^2+(events!E6-users!$E$19)^2+(events!F6-users!$F$19)^2</f>
+        <v>30</v>
       </c>
       <c r="T6" s="11">
-        <f>events!B6*users!$B$20+events!C6*users!$C$20+events!D6*users!D$20+events!E6*users!E$20+events!F6*users!F$20</f>
-        <v>4.3333333333333339</v>
+        <f>(events!B6-users!B$20)^2+(events!C6-users!C$20)^2+(events!D6-users!$D$20)^2+(events!E6-users!$E$20)^2+(events!F6-users!$F$20)^2</f>
+        <v>29</v>
       </c>
       <c r="U6" s="11">
-        <f>events!B6*users!$B$21+events!C6*users!$C$21+events!D6*users!D$21+events!E6*users!E$21+events!F6*users!F$21</f>
-        <v>1</v>
+        <f>(events!B6-users!B$21)^2+(events!C6-users!C$21)^2+(events!D6-users!$D$21)^2+(events!E6-users!$E$21)^2+(events!F6-users!$F$21)^2</f>
+        <v>54</v>
       </c>
       <c r="V6" s="11">
-        <f>events!B6*users!$B$22+events!C6*users!$C$22+events!D6*users!D$22+events!E6*users!E$22+events!F6*users!F$22</f>
-        <v>5</v>
+        <f>(events!B6-users!B$22)^2+(events!C6-users!C$22)^2+(events!D6-users!$D$22)^2+(events!E6-users!$E$22)^2+(events!F6-users!$F$22)^2</f>
+        <v>35</v>
       </c>
       <c r="W6" s="11">
-        <f>events!B6*users!$B$23+events!C6*users!$C$23+events!D6*users!D$23+events!E6*users!E$23+events!F6*users!F$23</f>
-        <v>4</v>
+        <f>(events!B6-users!B$23)^2+(events!C6-users!C$23)^2+(events!D6-users!$D$23)^2+(events!E6-users!$E$23)^2+(events!F6-users!$F$23)^2</f>
+        <v>32</v>
       </c>
       <c r="X6" s="11">
-        <f>events!B6*users!$B$24+events!C6*users!$C$24+events!D6*users!D$24+events!E6*users!E$24+events!F6*users!F$24</f>
-        <v>2.5</v>
+        <f>(events!B6-users!B$24)^2+(events!C6-users!C$24)^2+(events!D6-users!$D$24)^2+(events!E6-users!$E$24)^2+(events!F6-users!$F$24)^2</f>
+        <v>58</v>
       </c>
       <c r="Y6" s="11">
-        <f>events!B6*users!$B$25+events!C6*users!$C$25+events!D6*users!D$25+events!E6*users!E$25+events!F6*users!F$25</f>
-        <v>0</v>
+        <f>(events!B6-users!B$25)^2+(events!C6-users!C$25)^2+(events!D6-users!$D$25)^2+(events!E6-users!$E$25)^2+(events!F6-users!$F$25)^2</f>
+        <v>76</v>
       </c>
       <c r="Z6" s="11">
-        <f>events!B6*users!$B$26+events!C6*users!$C$26+events!D6*users!D$26+events!E6*users!E$26+events!F6*users!F$26</f>
-        <v>4.5</v>
+        <f>(events!B6-users!B$26)^2+(events!C6-users!C$26)^2+(events!D6-users!$D$26)^2+(events!E6-users!$E$26)^2+(events!F6-users!$F$26)^2</f>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -2215,104 +2217,104 @@
         <v>6</v>
       </c>
       <c r="B7" s="11">
-        <f>events!B7*users!$B$2+events!C7*users!$C$2+events!D7*users!$D$2+events!E7*users!$E$2+events!F7*users!$F$2</f>
-        <v>3</v>
+        <f>(events!B7-users!$B$2)^2+(events!C7-users!$C$2)^2+(events!D7-users!$D$2)^2+(events!E7-users!$E$2)^2+(events!F7-users!$F$2)^2</f>
+        <v>57</v>
       </c>
       <c r="C7" s="11">
-        <f>events!B7*users!$B$3+events!C7*users!$C$3+events!D7*users!$D$3+events!E7*users!$E$3+events!F7*users!$F$3</f>
-        <v>4.4000000000000004</v>
+        <f>(events!B7-users!B$3)^2+(events!C7-users!C$3)^2+(events!D7-users!$D$3)^2+(events!E7-users!$E$3)^2+(events!F7-users!$F$3)^2</f>
+        <v>36</v>
       </c>
       <c r="D7" s="11">
-        <f>events!B7*users!$B$4+events!C7*users!$C$4+events!D7*users!$D$4+events!E7*users!$E$4+events!F7*users!$F$4</f>
-        <v>3.6</v>
+        <f>(events!B7-users!B$4)^2+(events!C7-users!C$4)^2+(events!D7-users!$D$4)^2+(events!E7-users!$E$4)^2+(events!F7-users!$F$4)^2</f>
+        <v>52</v>
       </c>
       <c r="E7" s="11">
-        <f>events!B7*users!$B$5+events!C7*users!$C$5+events!D7*users!$D$5+events!E7*users!$E$5+events!F7*users!$F$5</f>
-        <v>4.9000000000000004</v>
+        <f>(events!B7-users!B$5)^2+(events!C7-users!C$5)^2+(events!D7-users!$D$5)^2+(events!E7-users!$E$5)^2+(events!F7-users!$F$5)^2</f>
+        <v>28</v>
       </c>
       <c r="F7" s="11">
-        <f>events!B7*users!$B$6+events!C7*users!$C$6+events!D7*users!D$6+events!E7*users!E$6+events!F7*users!F$6</f>
-        <v>4</v>
+        <f>(events!B7-users!B$6)^2+(events!C7-users!C$6)^2+(events!D7-users!$D$6)^2+(events!E7-users!$E$6)^2+(events!F7-users!$F$6)^2</f>
+        <v>51</v>
       </c>
       <c r="G7" s="11">
-        <f>events!B7*users!$B$7+events!C7*users!$C$7+events!D7*users!D$7+events!E7*users!E$7+events!F7*users!F$7</f>
-        <v>4.5</v>
+        <f>(events!B7-users!B$7)^2+(events!C7-users!C$7)^2+(events!D7-users!$D$7)^2+(events!E7-users!$E$7)^2+(events!F7-users!$F$7)^2</f>
+        <v>27</v>
       </c>
       <c r="H7" s="11">
-        <f>events!B7*users!$B$8+events!C7*users!$C$8+events!D7*users!D$8+events!E7*users!E$8+events!F7*users!F$8</f>
-        <v>2.6</v>
+        <f>(events!B7-users!B$8)^2+(events!C7-users!C$8)^2+(events!D7-users!$D$8)^2+(events!E7-users!$E$8)^2+(events!F7-users!$F$8)^2</f>
+        <v>43</v>
       </c>
       <c r="I7" s="11">
-        <f>events!B7*users!$B$9+events!C7*users!$C$9+events!D7*users!D$9+events!E7*users!E$9+events!F7*users!F$9</f>
-        <v>4.3000000000000007</v>
+        <f>(events!B7-users!B$8)^2+(events!C7-users!C$8)^2+(events!D7-users!$D$8)^2+(events!E7-users!$E$8)^2+(events!F7-users!$F$8)^2</f>
+        <v>43</v>
       </c>
       <c r="J7" s="11">
-        <f>events!B7*users!$B$10+events!C7*users!$C$10+events!D7*users!D$10+events!E7*users!E$10+events!F7*users!F$10</f>
-        <v>2.8</v>
+        <f>(events!B7-users!B$9)^2+(events!C7-users!C$9)^2+(events!D7-users!$D$9)^2+(events!E7-users!$E$9)^2+(events!F7-users!$F$9)^2</f>
+        <v>27</v>
       </c>
       <c r="K7" s="11">
-        <f>events!B7*users!$B$11+events!C7*users!$C$11+events!D7*users!D$11+events!E7*users!E$11+events!F7*users!F$11</f>
-        <v>2.2999999999999998</v>
+        <f>(events!B7-users!B$11)^2+(events!C7-users!C$11)^2+(events!D7-users!$D$11)^2+(events!E7-users!$E$11)^2+(events!F7-users!$F$11)^2</f>
+        <v>54</v>
       </c>
       <c r="L7" s="11">
-        <f>events!B7*users!$B$12+events!C7*users!$C$12+events!D7*users!D$12+events!E7*users!E$12+events!F7*users!F$12</f>
-        <v>1.6</v>
+        <f>(events!B7-users!B$12)^2+(events!C7-users!C$12)^2+(events!D7-users!$D$12)^2+(events!E7-users!$E$12)^2+(events!F7-users!$F$12)^2</f>
+        <v>53</v>
       </c>
       <c r="M7" s="11">
-        <f>events!B7*users!$B$13+events!C7*users!$C$13+events!D7*users!D$13+events!E7*users!E$13+events!F7*users!F$13</f>
-        <v>4.0999999999999996</v>
+        <f>(events!B7-users!B$13)^2+(events!C7-users!C$13)^2+(events!D7-users!$D$13)^2+(events!E7-users!$E$13)^2+(events!F7-users!$F$13)^2</f>
+        <v>27</v>
       </c>
       <c r="N7" s="11">
-        <f>events!B7*users!$B$14+events!C7*users!$C$14+events!D7*users!D$14+events!E7*users!E$14+events!F7*users!F$14</f>
-        <v>3.5999999999999996</v>
+        <f>(events!B7-users!B$14)^2+(events!C7-users!C$14)^2+(events!D7-users!$D$14)^2+(events!E7-users!$E$14)^2+(events!F7-users!$F$14)^2</f>
+        <v>25</v>
       </c>
       <c r="O7" s="11">
-        <f>events!B7*users!$B$15+events!C7*users!$C$15+events!D7*users!D$15+events!E7*users!E$15+events!F7*users!F$15</f>
-        <v>2</v>
+        <f>(events!B7-users!B$15)^2+(events!C7-users!C$15)^2+(events!D7-users!$D$15)^2+(events!E7-users!$E$15)^2+(events!F7-users!$F$15)^2</f>
+        <v>27</v>
       </c>
       <c r="P7" s="11">
-        <f>events!B7*users!$B$16+events!C7*users!$C$16+events!D7*users!D$16+events!E7*users!E$16+events!F7*users!F$16</f>
-        <v>2</v>
+        <f>(events!B7-users!B$16)^2+(events!C7-users!C$16)^2+(events!D7-users!$D$16)^2+(events!E7-users!$E$16)^2+(events!F7-users!$F$16)^2</f>
+        <v>27</v>
       </c>
       <c r="Q7" s="11">
-        <f>events!B7*users!$B$17+events!C7*users!$C$17+events!D7*users!D$17+events!E7*users!E$17+events!F7*users!F$17</f>
-        <v>0</v>
+        <f>(events!B7-users!B$17)^2+(events!C7-users!C$17)^2+(events!D7-users!$D$17)^2+(events!E7-users!$E$17)^2+(events!F7-users!$F$17)^2</f>
+        <v>92</v>
       </c>
       <c r="R7" s="11">
-        <f>events!B7*users!$B$18+events!C7*users!$C$18+events!D7*users!D$18+events!E7*users!E$18+events!F7*users!F$18</f>
-        <v>4.5</v>
+        <f>(events!B7-users!B$18)^2+(events!C7-users!C$18)^2+(events!D7-users!$D$18)^2+(events!E7-users!$E$18)^2+(events!F7-users!$F$18)^2</f>
+        <v>38</v>
       </c>
       <c r="S7" s="11">
-        <f>events!B7*users!$B$19+events!C7*users!$C$19+events!D7*users!D$19+events!E7*users!E$19+events!F7*users!F$19</f>
-        <v>3.3</v>
+        <f>(events!B7-users!B$19)^2+(events!C7-users!C$19)^2+(events!D7-users!$D$19)^2+(events!E7-users!$E$19)^2+(events!F7-users!$F$19)^2</f>
+        <v>46</v>
       </c>
       <c r="T7" s="11">
-        <f>events!B7*users!$B$20+events!C7*users!$C$20+events!D7*users!D$20+events!E7*users!E$20+events!F7*users!F$20</f>
-        <v>3.1</v>
+        <f>(events!B7-users!B$20)^2+(events!C7-users!C$20)^2+(events!D7-users!$D$20)^2+(events!E7-users!$E$20)^2+(events!F7-users!$F$20)^2</f>
+        <v>39</v>
       </c>
       <c r="U7" s="11">
-        <f>events!B7*users!$B$21+events!C7*users!$C$21+events!D7*users!D$21+events!E7*users!E$21+events!F7*users!F$21</f>
-        <v>4.5999999999999996</v>
+        <f>(events!B7-users!B$21)^2+(events!C7-users!C$21)^2+(events!D7-users!$D$21)^2+(events!E7-users!$E$21)^2+(events!F7-users!$F$21)^2</f>
+        <v>6</v>
       </c>
       <c r="V7" s="11">
-        <f>events!B7*users!$B$22+events!C7*users!$C$22+events!D7*users!D$22+events!E7*users!E$22+events!F7*users!F$22</f>
-        <v>3.2</v>
+        <f>(events!B7-users!B$22)^2+(events!C7-users!C$22)^2+(events!D7-users!$D$22)^2+(events!E7-users!$E$22)^2+(events!F7-users!$F$22)^2</f>
+        <v>55</v>
       </c>
       <c r="W7" s="11">
-        <f>events!B7*users!$B$23+events!C7*users!$C$23+events!D7*users!D$23+events!E7*users!E$23+events!F7*users!F$23</f>
-        <v>3.6</v>
+        <f>(events!B7-users!B$23)^2+(events!C7-users!C$23)^2+(events!D7-users!$D$23)^2+(events!E7-users!$E$23)^2+(events!F7-users!$F$23)^2</f>
+        <v>36</v>
       </c>
       <c r="X7" s="11">
-        <f>events!B7*users!$B$24+events!C7*users!$C$24+events!D7*users!D$24+events!E7*users!E$24+events!F7*users!F$24</f>
-        <v>2.5</v>
+        <f>(events!B7-users!B$24)^2+(events!C7-users!C$24)^2+(events!D7-users!$D$24)^2+(events!E7-users!$E$24)^2+(events!F7-users!$F$24)^2</f>
+        <v>50</v>
       </c>
       <c r="Y7" s="11">
-        <f>events!B7*users!$B$25+events!C7*users!$C$25+events!D7*users!D$25+events!E7*users!E$25+events!F7*users!F$25</f>
-        <v>3</v>
+        <f>(events!B7-users!B$25)^2+(events!C7-users!C$25)^2+(events!D7-users!$D$25)^2+(events!E7-users!$E$25)^2+(events!F7-users!$F$25)^2</f>
+        <v>36</v>
       </c>
       <c r="Z7" s="11">
-        <f>events!B7*users!$B$26+events!C7*users!$C$26+events!D7*users!D$26+events!E7*users!E$26+events!F7*users!F$26</f>
-        <v>3.1</v>
+        <f>(events!B7-users!B$26)^2+(events!C7-users!C$26)^2+(events!D7-users!$D$26)^2+(events!E7-users!$E$26)^2+(events!F7-users!$F$26)^2</f>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -2320,104 +2322,104 @@
         <v>7</v>
       </c>
       <c r="B8" s="11">
-        <f>events!B8*users!$B$2+events!C8*users!$C$2+events!D8*users!$D$2+events!E8*users!$E$2+events!F8*users!$F$2</f>
-        <v>1.3636363636363638</v>
+        <f>(events!B8-users!$B$2)^2+(events!C8-users!$C$2)^2+(events!D8-users!$D$2)^2+(events!E8-users!$E$2)^2+(events!F8-users!$F$2)^2</f>
+        <v>84</v>
       </c>
       <c r="C8" s="11">
-        <f>events!B8*users!$B$3+events!C8*users!$C$3+events!D8*users!$D$3+events!E8*users!$E$3+events!F8*users!$F$3</f>
-        <v>4.2727272727272725</v>
+        <f>(events!B8-users!B$3)^2+(events!C8-users!C$3)^2+(events!D8-users!$D$3)^2+(events!E8-users!$E$3)^2+(events!F8-users!$F$3)^2</f>
+        <v>27</v>
       </c>
       <c r="D8" s="11">
-        <f>events!B8*users!$B$4+events!C8*users!$C$4+events!D8*users!$D$4+events!E8*users!$E$4+events!F8*users!$F$4</f>
-        <v>4.1818181818181817</v>
+        <f>(events!B8-users!B$4)^2+(events!C8-users!C$4)^2+(events!D8-users!$D$4)^2+(events!E8-users!$E$4)^2+(events!F8-users!$F$4)^2</f>
+        <v>29</v>
       </c>
       <c r="E8" s="11">
-        <f>events!B8*users!$B$5+events!C8*users!$C$5+events!D8*users!$D$5+events!E8*users!$E$5+events!F8*users!$F$5</f>
-        <v>4</v>
+        <f>(events!B8-users!B$5)^2+(events!C8-users!C$5)^2+(events!D8-users!$D$5)^2+(events!E8-users!$E$5)^2+(events!F8-users!$F$5)^2</f>
+        <v>35</v>
       </c>
       <c r="F8" s="11">
-        <f>events!B8*users!$B$6+events!C8*users!$C$6+events!D8*users!D$6+events!E8*users!E$6+events!F8*users!F$6</f>
-        <v>4</v>
+        <f>(events!B8-users!B$6)^2+(events!C8-users!C$6)^2+(events!D8-users!$D$6)^2+(events!E8-users!$E$6)^2+(events!F8-users!$F$6)^2</f>
+        <v>40</v>
       </c>
       <c r="G8" s="11">
-        <f>events!B8*users!$B$7+events!C8*users!$C$7+events!D8*users!D$7+events!E8*users!E$7+events!F8*users!F$7</f>
-        <v>2.2727272727272725</v>
+        <f>(events!B8-users!B$7)^2+(events!C8-users!C$7)^2+(events!D8-users!$D$7)^2+(events!E8-users!$E$7)^2+(events!F8-users!$F$7)^2</f>
+        <v>64</v>
       </c>
       <c r="H8" s="11">
-        <f>events!B8*users!$B$8+events!C8*users!$C$8+events!D8*users!D$8+events!E8*users!E$8+events!F8*users!F$8</f>
-        <v>2.0909090909090908</v>
+        <f>(events!B8-users!B$8)^2+(events!C8-users!C$8)^2+(events!D8-users!$D$8)^2+(events!E8-users!$E$8)^2+(events!F8-users!$F$8)^2</f>
+        <v>46</v>
       </c>
       <c r="I8" s="11">
-        <f>events!B8*users!$B$9+events!C8*users!$C$9+events!D8*users!D$9+events!E8*users!E$9+events!F8*users!F$9</f>
-        <v>2.6363636363636362</v>
+        <f>(events!B8-users!B$8)^2+(events!C8-users!C$8)^2+(events!D8-users!$D$8)^2+(events!E8-users!$E$8)^2+(events!F8-users!$F$8)^2</f>
+        <v>46</v>
       </c>
       <c r="J8" s="11">
-        <f>events!B8*users!$B$10+events!C8*users!$C$10+events!D8*users!D$10+events!E8*users!E$10+events!F8*users!F$10</f>
-        <v>3.3636363636363633</v>
+        <f>(events!B8-users!B$9)^2+(events!C8-users!C$9)^2+(events!D8-users!$D$9)^2+(events!E8-users!$E$9)^2+(events!F8-users!$F$9)^2</f>
+        <v>52</v>
       </c>
       <c r="K8" s="11">
-        <f>events!B8*users!$B$11+events!C8*users!$C$11+events!D8*users!D$11+events!E8*users!E$11+events!F8*users!F$11</f>
-        <v>3.6363636363636362</v>
+        <f>(events!B8-users!B$11)^2+(events!C8-users!C$11)^2+(events!D8-users!$D$11)^2+(events!E8-users!$E$11)^2+(events!F8-users!$F$11)^2</f>
+        <v>17</v>
       </c>
       <c r="L8" s="11">
-        <f>events!B8*users!$B$12+events!C8*users!$C$12+events!D8*users!D$12+events!E8*users!E$12+events!F8*users!F$12</f>
-        <v>3.0909090909090908</v>
+        <f>(events!B8-users!B$12)^2+(events!C8-users!C$12)^2+(events!D8-users!$D$12)^2+(events!E8-users!$E$12)^2+(events!F8-users!$F$12)^2</f>
+        <v>14</v>
       </c>
       <c r="M8" s="11">
-        <f>events!B8*users!$B$13+events!C8*users!$C$13+events!D8*users!D$13+events!E8*users!E$13+events!F8*users!F$13</f>
-        <v>2.7272727272727271</v>
+        <f>(events!B8-users!B$13)^2+(events!C8-users!C$13)^2+(events!D8-users!$D$13)^2+(events!E8-users!$E$13)^2+(events!F8-users!$F$13)^2</f>
+        <v>46</v>
       </c>
       <c r="N8" s="11">
-        <f>events!B8*users!$B$14+events!C8*users!$C$14+events!D8*users!D$14+events!E8*users!E$14+events!F8*users!F$14</f>
-        <v>2.1818181818181817</v>
+        <f>(events!B8-users!B$14)^2+(events!C8-users!C$14)^2+(events!D8-users!$D$14)^2+(events!E8-users!$E$14)^2+(events!F8-users!$F$14)^2</f>
+        <v>46</v>
       </c>
       <c r="O8" s="11">
-        <f>events!B8*users!$B$15+events!C8*users!$C$15+events!D8*users!D$15+events!E8*users!E$15+events!F8*users!F$15</f>
-        <v>1.3636363636363635</v>
+        <f>(events!B8-users!B$15)^2+(events!C8-users!C$15)^2+(events!D8-users!$D$15)^2+(events!E8-users!$E$15)^2+(events!F8-users!$F$15)^2</f>
+        <v>34</v>
       </c>
       <c r="P8" s="11">
-        <f>events!B8*users!$B$16+events!C8*users!$C$16+events!D8*users!D$16+events!E8*users!E$16+events!F8*users!F$16</f>
-        <v>1.3636363636363635</v>
+        <f>(events!B8-users!B$16)^2+(events!C8-users!C$16)^2+(events!D8-users!$D$16)^2+(events!E8-users!$E$16)^2+(events!F8-users!$F$16)^2</f>
+        <v>34</v>
       </c>
       <c r="Q8" s="11">
-        <f>events!B8*users!$B$17+events!C8*users!$C$17+events!D8*users!D$17+events!E8*users!E$17+events!F8*users!F$17</f>
-        <v>2.2727272727272725</v>
+        <f>(events!B8-users!B$17)^2+(events!C8-users!C$17)^2+(events!D8-users!$D$17)^2+(events!E8-users!$E$17)^2+(events!F8-users!$F$17)^2</f>
+        <v>39</v>
       </c>
       <c r="R8" s="11">
-        <f>events!B8*users!$B$18+events!C8*users!$C$18+events!D8*users!D$18+events!E8*users!E$18+events!F8*users!F$18</f>
-        <v>3.4545454545454546</v>
+        <f>(events!B8-users!B$18)^2+(events!C8-users!C$18)^2+(events!D8-users!$D$18)^2+(events!E8-users!$E$18)^2+(events!F8-users!$F$18)^2</f>
+        <v>49</v>
       </c>
       <c r="S8" s="11">
-        <f>events!B8*users!$B$19+events!C8*users!$C$19+events!D8*users!D$19+events!E8*users!E$19+events!F8*users!F$19</f>
-        <v>3.2727272727272725</v>
+        <f>(events!B8-users!B$19)^2+(events!C8-users!C$19)^2+(events!D8-users!$D$19)^2+(events!E8-users!$E$19)^2+(events!F8-users!$F$19)^2</f>
+        <v>37</v>
       </c>
       <c r="T8" s="11">
-        <f>events!B8*users!$B$20+events!C8*users!$C$20+events!D8*users!D$20+events!E8*users!E$20+events!F8*users!F$20</f>
-        <v>2.7272727272727271</v>
+        <f>(events!B8-users!B$20)^2+(events!C8-users!C$20)^2+(events!D8-users!$D$20)^2+(events!E8-users!$E$20)^2+(events!F8-users!$F$20)^2</f>
+        <v>38</v>
       </c>
       <c r="U8" s="11">
-        <f>events!B8*users!$B$21+events!C8*users!$C$21+events!D8*users!D$21+events!E8*users!E$21+events!F8*users!F$21</f>
-        <v>3.2727272727272725</v>
+        <f>(events!B8-users!B$21)^2+(events!C8-users!C$21)^2+(events!D8-users!$D$21)^2+(events!E8-users!$E$21)^2+(events!F8-users!$F$21)^2</f>
+        <v>23</v>
       </c>
       <c r="V8" s="11">
-        <f>events!B8*users!$B$22+events!C8*users!$C$22+events!D8*users!D$22+events!E8*users!E$22+events!F8*users!F$22</f>
-        <v>3.1818181818181817</v>
+        <f>(events!B8-users!B$22)^2+(events!C8-users!C$22)^2+(events!D8-users!$D$22)^2+(events!E8-users!$E$22)^2+(events!F8-users!$F$22)^2</f>
+        <v>46</v>
       </c>
       <c r="W8" s="11">
-        <f>events!B8*users!$B$23+events!C8*users!$C$23+events!D8*users!D$23+events!E8*users!E$23+events!F8*users!F$23</f>
-        <v>3.2727272727272725</v>
+        <f>(events!B8-users!B$23)^2+(events!C8-users!C$23)^2+(events!D8-users!$D$23)^2+(events!E8-users!$E$23)^2+(events!F8-users!$F$23)^2</f>
+        <v>33</v>
       </c>
       <c r="X8" s="11">
-        <f>events!B8*users!$B$24+events!C8*users!$C$24+events!D8*users!D$24+events!E8*users!E$24+events!F8*users!F$24</f>
-        <v>2.7272727272727271</v>
+        <f>(events!B8-users!B$24)^2+(events!C8-users!C$24)^2+(events!D8-users!$D$24)^2+(events!E8-users!$E$24)^2+(events!F8-users!$F$24)^2</f>
+        <v>37</v>
       </c>
       <c r="Y8" s="11">
-        <f>events!B8*users!$B$25+events!C8*users!$C$25+events!D8*users!D$25+events!E8*users!E$25+events!F8*users!F$25</f>
-        <v>3.9999999999999996</v>
+        <f>(events!B8-users!B$25)^2+(events!C8-users!C$25)^2+(events!D8-users!$D$25)^2+(events!E8-users!$E$25)^2+(events!F8-users!$F$25)^2</f>
+        <v>5</v>
       </c>
       <c r="Z8" s="11">
-        <f>events!B8*users!$B$26+events!C8*users!$C$26+events!D8*users!D$26+events!E8*users!E$26+events!F8*users!F$26</f>
-        <v>1.8181818181818183</v>
+        <f>(events!B8-users!B$26)^2+(events!C8-users!C$26)^2+(events!D8-users!$D$26)^2+(events!E8-users!$E$26)^2+(events!F8-users!$F$26)^2</f>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -2425,104 +2427,104 @@
         <v>8</v>
       </c>
       <c r="B9" s="11">
-        <f>events!B9*users!$B$2+events!C9*users!$C$2+events!D9*users!$D$2+events!E9*users!$E$2+events!F9*users!$F$2</f>
-        <v>5</v>
+        <f>(events!B9-users!$B$2)^2+(events!C9-users!$C$2)^2+(events!D9-users!$D$2)^2+(events!E9-users!$E$2)^2+(events!F9-users!$F$2)^2</f>
+        <v>16</v>
       </c>
       <c r="C9" s="11">
-        <f>events!B9*users!$B$3+events!C9*users!$C$3+events!D9*users!$D$3+events!E9*users!$E$3+events!F9*users!$F$3</f>
-        <v>3.5454545454545454</v>
+        <f>(events!B9-users!B$3)^2+(events!C9-users!C$3)^2+(events!D9-users!$D$3)^2+(events!E9-users!$E$3)^2+(events!F9-users!$F$3)^2</f>
+        <v>55</v>
       </c>
       <c r="D9" s="11">
-        <f>events!B9*users!$B$4+events!C9*users!$C$4+events!D9*users!$D$4+events!E9*users!$E$4+events!F9*users!$F$4</f>
-        <v>4</v>
+        <f>(events!B9-users!B$4)^2+(events!C9-users!C$4)^2+(events!D9-users!$D$4)^2+(events!E9-users!$E$4)^2+(events!F9-users!$F$4)^2</f>
+        <v>45</v>
       </c>
       <c r="E9" s="11">
-        <f>events!B9*users!$B$5+events!C9*users!$C$5+events!D9*users!$D$5+events!E9*users!$E$5+events!F9*users!$F$5</f>
-        <v>3.9999999999999996</v>
+        <f>(events!B9-users!B$5)^2+(events!C9-users!C$5)^2+(events!D9-users!$D$5)^2+(events!E9-users!$E$5)^2+(events!F9-users!$F$5)^2</f>
+        <v>47</v>
       </c>
       <c r="F9" s="11">
-        <f>events!B9*users!$B$6+events!C9*users!$C$6+events!D9*users!D$6+events!E9*users!E$6+events!F9*users!F$6</f>
-        <v>4.4545454545454541</v>
+        <f>(events!B9-users!B$6)^2+(events!C9-users!C$6)^2+(events!D9-users!$D$6)^2+(events!E9-users!$E$6)^2+(events!F9-users!$F$6)^2</f>
+        <v>42</v>
       </c>
       <c r="G9" s="11">
-        <f>events!B9*users!$B$7+events!C9*users!$C$7+events!D9*users!D$7+events!E9*users!E$7+events!F9*users!F$7</f>
-        <v>4.545454545454545</v>
+        <f>(events!B9-users!B$7)^2+(events!C9-users!C$7)^2+(events!D9-users!$D$7)^2+(events!E9-users!$E$7)^2+(events!F9-users!$F$7)^2</f>
+        <v>26</v>
       </c>
       <c r="H9" s="11">
-        <f>events!B9*users!$B$8+events!C9*users!$C$8+events!D9*users!D$8+events!E9*users!E$8+events!F9*users!F$8</f>
-        <v>2.8181818181818179</v>
+        <f>(events!B9-users!B$8)^2+(events!C9-users!C$8)^2+(events!D9-users!$D$8)^2+(events!E9-users!$E$8)^2+(events!F9-users!$F$8)^2</f>
+        <v>42</v>
       </c>
       <c r="I9" s="11">
-        <f>events!B9*users!$B$9+events!C9*users!$C$9+events!D9*users!D$9+events!E9*users!E$9+events!F9*users!F$9</f>
-        <v>4.7272727272727266</v>
+        <f>(events!B9-users!B$8)^2+(events!C9-users!C$8)^2+(events!D9-users!$D$8)^2+(events!E9-users!$E$8)^2+(events!F9-users!$F$8)^2</f>
+        <v>42</v>
       </c>
       <c r="J9" s="11">
-        <f>events!B9*users!$B$10+events!C9*users!$C$10+events!D9*users!D$10+events!E9*users!E$10+events!F9*users!F$10</f>
-        <v>3.1818181818181817</v>
+        <f>(events!B9-users!B$9)^2+(events!C9-users!C$9)^2+(events!D9-users!$D$9)^2+(events!E9-users!$E$9)^2+(events!F9-users!$F$9)^2</f>
+        <v>18</v>
       </c>
       <c r="K9" s="11">
-        <f>events!B9*users!$B$11+events!C9*users!$C$11+events!D9*users!D$11+events!E9*users!E$11+events!F9*users!F$11</f>
-        <v>1.3636363636363638</v>
+        <f>(events!B9-users!B$11)^2+(events!C9-users!C$11)^2+(events!D9-users!$D$11)^2+(events!E9-users!$E$11)^2+(events!F9-users!$F$11)^2</f>
+        <v>79</v>
       </c>
       <c r="L9" s="11">
-        <f>events!B9*users!$B$12+events!C9*users!$C$12+events!D9*users!D$12+events!E9*users!E$12+events!F9*users!F$12</f>
-        <v>2.4545454545454541</v>
+        <f>(events!B9-users!B$12)^2+(events!C9-users!C$12)^2+(events!D9-users!$D$12)^2+(events!E9-users!$E$12)^2+(events!F9-users!$F$12)^2</f>
+        <v>40</v>
       </c>
       <c r="M9" s="11">
-        <f>events!B9*users!$B$13+events!C9*users!$C$13+events!D9*users!D$13+events!E9*users!E$13+events!F9*users!F$13</f>
-        <v>3.6363636363636362</v>
+        <f>(events!B9-users!B$13)^2+(events!C9-users!C$13)^2+(events!D9-users!$D$13)^2+(events!E9-users!$E$13)^2+(events!F9-users!$F$13)^2</f>
+        <v>38</v>
       </c>
       <c r="N9" s="11">
-        <f>events!B9*users!$B$14+events!C9*users!$C$14+events!D9*users!D$14+events!E9*users!E$14+events!F9*users!F$14</f>
-        <v>4.3636363636363633</v>
+        <f>(events!B9-users!B$14)^2+(events!C9-users!C$14)^2+(events!D9-users!$D$14)^2+(events!E9-users!$E$14)^2+(events!F9-users!$F$14)^2</f>
+        <v>10</v>
       </c>
       <c r="O9" s="11">
-        <f>events!B9*users!$B$15+events!C9*users!$C$15+events!D9*users!D$15+events!E9*users!E$15+events!F9*users!F$15</f>
-        <v>0</v>
+        <f>(events!B9-users!B$15)^2+(events!C9-users!C$15)^2+(events!D9-users!$D$15)^2+(events!E9-users!$E$15)^2+(events!F9-users!$F$15)^2</f>
+        <v>76</v>
       </c>
       <c r="P9" s="11">
-        <f>events!B9*users!$B$16+events!C9*users!$C$16+events!D9*users!D$16+events!E9*users!E$16+events!F9*users!F$16</f>
-        <v>0</v>
+        <f>(events!B9-users!B$16)^2+(events!C9-users!C$16)^2+(events!D9-users!$D$16)^2+(events!E9-users!$E$16)^2+(events!F9-users!$F$16)^2</f>
+        <v>76</v>
       </c>
       <c r="Q9" s="11">
-        <f>events!B9*users!$B$17+events!C9*users!$C$17+events!D9*users!D$17+events!E9*users!E$17+events!F9*users!F$17</f>
-        <v>2.2727272727272725</v>
+        <f>(events!B9-users!B$17)^2+(events!C9-users!C$17)^2+(events!D9-users!$D$17)^2+(events!E9-users!$E$17)^2+(events!F9-users!$F$17)^2</f>
+        <v>51</v>
       </c>
       <c r="R9" s="11">
-        <f>events!B9*users!$B$18+events!C9*users!$C$18+events!D9*users!D$18+events!E9*users!E$18+events!F9*users!F$18</f>
-        <v>4.0909090909090908</v>
+        <f>(events!B9-users!B$18)^2+(events!C9-users!C$18)^2+(events!D9-users!$D$18)^2+(events!E9-users!$E$18)^2+(events!F9-users!$F$18)^2</f>
+        <v>47</v>
       </c>
       <c r="S9" s="11">
-        <f>events!B9*users!$B$19+events!C9*users!$C$19+events!D9*users!D$19+events!E9*users!E$19+events!F9*users!F$19</f>
-        <v>4.545454545454545</v>
+        <f>(events!B9-users!B$19)^2+(events!C9-users!C$19)^2+(events!D9-users!$D$19)^2+(events!E9-users!$E$19)^2+(events!F9-users!$F$19)^2</f>
+        <v>21</v>
       </c>
       <c r="T9" s="11">
-        <f>events!B9*users!$B$20+events!C9*users!$C$20+events!D9*users!D$20+events!E9*users!E$20+events!F9*users!F$20</f>
-        <v>3.2727272727272725</v>
+        <f>(events!B9-users!B$20)^2+(events!C9-users!C$20)^2+(events!D9-users!$D$20)^2+(events!E9-users!$E$20)^2+(events!F9-users!$F$20)^2</f>
+        <v>38</v>
       </c>
       <c r="U9" s="11">
-        <f>events!B9*users!$B$21+events!C9*users!$C$21+events!D9*users!D$21+events!E9*users!E$21+events!F9*users!F$21</f>
-        <v>2.8181818181818179</v>
+        <f>(events!B9-users!B$21)^2+(events!C9-users!C$21)^2+(events!D9-users!$D$21)^2+(events!E9-users!$E$21)^2+(events!F9-users!$F$21)^2</f>
+        <v>45</v>
       </c>
       <c r="V9" s="11">
-        <f>events!B9*users!$B$22+events!C9*users!$C$22+events!D9*users!D$22+events!E9*users!E$22+events!F9*users!F$22</f>
-        <v>4.0909090909090899</v>
+        <f>(events!B9-users!B$22)^2+(events!C9-users!C$22)^2+(events!D9-users!$D$22)^2+(events!E9-users!$E$22)^2+(events!F9-users!$F$22)^2</f>
+        <v>38</v>
       </c>
       <c r="W9" s="11">
-        <f>events!B9*users!$B$23+events!C9*users!$C$23+events!D9*users!D$23+events!E9*users!E$23+events!F9*users!F$23</f>
-        <v>4</v>
+        <f>(events!B9-users!B$23)^2+(events!C9-users!C$23)^2+(events!D9-users!$D$23)^2+(events!E9-users!$E$23)^2+(events!F9-users!$F$23)^2</f>
+        <v>29</v>
       </c>
       <c r="X9" s="11">
-        <f>events!B9*users!$B$24+events!C9*users!$C$24+events!D9*users!D$24+events!E9*users!E$24+events!F9*users!F$24</f>
-        <v>1.3636363636363638</v>
+        <f>(events!B9-users!B$24)^2+(events!C9-users!C$24)^2+(events!D9-users!$D$24)^2+(events!E9-users!$E$24)^2+(events!F9-users!$F$24)^2</f>
+        <v>79</v>
       </c>
       <c r="Y9" s="11">
-        <f>events!B9*users!$B$25+events!C9*users!$C$25+events!D9*users!D$25+events!E9*users!E$25+events!F9*users!F$25</f>
-        <v>0.90909090909090906</v>
+        <f>(events!B9-users!B$25)^2+(events!C9-users!C$25)^2+(events!D9-users!$D$25)^2+(events!E9-users!$E$25)^2+(events!F9-users!$F$25)^2</f>
+        <v>85</v>
       </c>
       <c r="Z9" s="11">
-        <f>events!B9*users!$B$26+events!C9*users!$C$26+events!D9*users!D$26+events!E9*users!E$26+events!F9*users!F$26</f>
-        <v>4.7272727272727266</v>
+        <f>(events!B9-users!B$26)^2+(events!C9-users!C$26)^2+(events!D9-users!$D$26)^2+(events!E9-users!$E$26)^2+(events!F9-users!$F$26)^2</f>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -2530,104 +2532,104 @@
         <v>9</v>
       </c>
       <c r="B10" s="11">
-        <f>events!B10*users!$B$2+events!C10*users!$C$2+events!D10*users!$D$2+events!E10*users!$E$2+events!F10*users!$F$2</f>
-        <v>5</v>
+        <f>(events!B10-users!$B$2)^2+(events!C10-users!$C$2)^2+(events!D10-users!$D$2)^2+(events!E10-users!$E$2)^2+(events!F10-users!$F$2)^2</f>
+        <v>17</v>
       </c>
       <c r="C10" s="11">
-        <f>events!B10*users!$B$3+events!C10*users!$C$3+events!D10*users!$D$3+events!E10*users!$E$3+events!F10*users!$F$3</f>
-        <v>3.6</v>
+        <f>(events!B10-users!B$3)^2+(events!C10-users!C$3)^2+(events!D10-users!$D$3)^2+(events!E10-users!$E$3)^2+(events!F10-users!$F$3)^2</f>
+        <v>52</v>
       </c>
       <c r="D10" s="11">
-        <f>events!B10*users!$B$4+events!C10*users!$C$4+events!D10*users!$D$4+events!E10*users!$E$4+events!F10*users!$F$4</f>
-        <v>4</v>
+        <f>(events!B10-users!B$4)^2+(events!C10-users!C$4)^2+(events!D10-users!$D$4)^2+(events!E10-users!$E$4)^2+(events!F10-users!$F$4)^2</f>
+        <v>44</v>
       </c>
       <c r="E10" s="11">
-        <f>events!B10*users!$B$5+events!C10*users!$C$5+events!D10*users!$D$5+events!E10*users!$E$5+events!F10*users!$F$5</f>
-        <v>3.7</v>
+        <f>(events!B10-users!B$5)^2+(events!C10-users!C$5)^2+(events!D10-users!$D$5)^2+(events!E10-users!$E$5)^2+(events!F10-users!$F$5)^2</f>
+        <v>52</v>
       </c>
       <c r="F10" s="11">
-        <f>events!B10*users!$B$6+events!C10*users!$C$6+events!D10*users!D$6+events!E10*users!E$6+events!F10*users!F$6</f>
-        <v>4.4000000000000004</v>
+        <f>(events!B10-users!B$6)^2+(events!C10-users!C$6)^2+(events!D10-users!$D$6)^2+(events!E10-users!$E$6)^2+(events!F10-users!$F$6)^2</f>
+        <v>43</v>
       </c>
       <c r="G10" s="11">
-        <f>events!B10*users!$B$7+events!C10*users!$C$7+events!D10*users!D$7+events!E10*users!E$7+events!F10*users!F$7</f>
-        <v>2.5</v>
+        <f>(events!B10-users!B$7)^2+(events!C10-users!C$7)^2+(events!D10-users!$D$7)^2+(events!E10-users!$E$7)^2+(events!F10-users!$F$7)^2</f>
+        <v>67</v>
       </c>
       <c r="H10" s="11">
-        <f>events!B10*users!$B$8+events!C10*users!$C$8+events!D10*users!D$8+events!E10*users!E$8+events!F10*users!F$8</f>
-        <v>2.6</v>
+        <f>(events!B10-users!B$8)^2+(events!C10-users!C$8)^2+(events!D10-users!$D$8)^2+(events!E10-users!$E$8)^2+(events!F10-users!$F$8)^2</f>
+        <v>43</v>
       </c>
       <c r="I10" s="11">
-        <f>events!B10*users!$B$9+events!C10*users!$C$9+events!D10*users!D$9+events!E10*users!E$9+events!F10*users!F$9</f>
-        <v>3.5</v>
+        <f>(events!B10-users!B$8)^2+(events!C10-users!C$8)^2+(events!D10-users!$D$8)^2+(events!E10-users!$E$8)^2+(events!F10-users!$F$8)^2</f>
+        <v>43</v>
       </c>
       <c r="J10" s="11">
-        <f>events!B10*users!$B$10+events!C10*users!$C$10+events!D10*users!D$10+events!E10*users!E$10+events!F10*users!F$10</f>
-        <v>4</v>
+        <f>(events!B10-users!B$9)^2+(events!C10-users!C$9)^2+(events!D10-users!$D$9)^2+(events!E10-users!$E$9)^2+(events!F10-users!$F$9)^2</f>
+        <v>43</v>
       </c>
       <c r="K10" s="11">
-        <f>events!B10*users!$B$11+events!C10*users!$C$11+events!D10*users!D$11+events!E10*users!E$11+events!F10*users!F$11</f>
-        <v>2.7</v>
+        <f>(events!B10-users!B$11)^2+(events!C10-users!C$11)^2+(events!D10-users!$D$11)^2+(events!E10-users!$E$11)^2+(events!F10-users!$F$11)^2</f>
+        <v>46</v>
       </c>
       <c r="L10" s="11">
-        <f>events!B10*users!$B$12+events!C10*users!$C$12+events!D10*users!D$12+events!E10*users!E$12+events!F10*users!F$12</f>
-        <v>2.4000000000000004</v>
+        <f>(events!B10-users!B$12)^2+(events!C10-users!C$12)^2+(events!D10-users!$D$12)^2+(events!E10-users!$E$12)^2+(events!F10-users!$F$12)^2</f>
+        <v>37</v>
       </c>
       <c r="M10" s="11">
-        <f>events!B10*users!$B$13+events!C10*users!$C$13+events!D10*users!D$13+events!E10*users!E$13+events!F10*users!F$13</f>
-        <v>4.0999999999999996</v>
+        <f>(events!B10-users!B$13)^2+(events!C10-users!C$13)^2+(events!D10-users!$D$13)^2+(events!E10-users!$E$13)^2+(events!F10-users!$F$13)^2</f>
+        <v>27</v>
       </c>
       <c r="N10" s="11">
-        <f>events!B10*users!$B$14+events!C10*users!$C$14+events!D10*users!D$14+events!E10*users!E$14+events!F10*users!F$14</f>
-        <v>3.6</v>
+        <f>(events!B10-users!B$14)^2+(events!C10-users!C$14)^2+(events!D10-users!$D$14)^2+(events!E10-users!$E$14)^2+(events!F10-users!$F$14)^2</f>
+        <v>25</v>
       </c>
       <c r="O10" s="11">
-        <f>events!B10*users!$B$15+events!C10*users!$C$15+events!D10*users!D$15+events!E10*users!E$15+events!F10*users!F$15</f>
-        <v>0</v>
+        <f>(events!B10-users!B$15)^2+(events!C10-users!C$15)^2+(events!D10-users!$D$15)^2+(events!E10-users!$E$15)^2+(events!F10-users!$F$15)^2</f>
+        <v>67</v>
       </c>
       <c r="P10" s="11">
-        <f>events!B10*users!$B$16+events!C10*users!$C$16+events!D10*users!D$16+events!E10*users!E$16+events!F10*users!F$16</f>
-        <v>0</v>
+        <f>(events!B10-users!B$16)^2+(events!C10-users!C$16)^2+(events!D10-users!$D$16)^2+(events!E10-users!$E$16)^2+(events!F10-users!$F$16)^2</f>
+        <v>67</v>
       </c>
       <c r="Q10" s="11">
-        <f>events!B10*users!$B$17+events!C10*users!$C$17+events!D10*users!D$17+events!E10*users!E$17+events!F10*users!F$17</f>
-        <v>2</v>
+        <f>(events!B10-users!B$17)^2+(events!C10-users!C$17)^2+(events!D10-users!$D$17)^2+(events!E10-users!$E$17)^2+(events!F10-users!$F$17)^2</f>
+        <v>52</v>
       </c>
       <c r="R10" s="11">
-        <f>events!B10*users!$B$18+events!C10*users!$C$18+events!D10*users!D$18+events!E10*users!E$18+events!F10*users!F$18</f>
-        <v>4.5</v>
+        <f>(events!B10-users!B$18)^2+(events!C10-users!C$18)^2+(events!D10-users!$D$18)^2+(events!E10-users!$E$18)^2+(events!F10-users!$F$18)^2</f>
+        <v>38</v>
       </c>
       <c r="S10" s="11">
-        <f>events!B10*users!$B$19+events!C10*users!$C$19+events!D10*users!D$19+events!E10*users!E$19+events!F10*users!F$19</f>
-        <v>2.5</v>
+        <f>(events!B10-users!B$19)^2+(events!C10-users!C$19)^2+(events!D10-users!$D$19)^2+(events!E10-users!$E$19)^2+(events!F10-users!$F$19)^2</f>
+        <v>62</v>
       </c>
       <c r="T10" s="11">
-        <f>events!B10*users!$B$20+events!C10*users!$C$20+events!D10*users!D$20+events!E10*users!E$20+events!F10*users!F$20</f>
-        <v>2.7</v>
+        <f>(events!B10-users!B$20)^2+(events!C10-users!C$20)^2+(events!D10-users!$D$20)^2+(events!E10-users!$E$20)^2+(events!F10-users!$F$20)^2</f>
+        <v>47</v>
       </c>
       <c r="U10" s="11">
-        <f>events!B10*users!$B$21+events!C10*users!$C$21+events!D10*users!D$21+events!E10*users!E$21+events!F10*users!F$21</f>
-        <v>1.4</v>
+        <f>(events!B10-users!B$21)^2+(events!C10-users!C$21)^2+(events!D10-users!$D$21)^2+(events!E10-users!$E$21)^2+(events!F10-users!$F$21)^2</f>
+        <v>70</v>
       </c>
       <c r="V10" s="11">
-        <f>events!B10*users!$B$22+events!C10*users!$C$22+events!D10*users!D$22+events!E10*users!E$22+events!F10*users!F$22</f>
-        <v>4.8</v>
+        <f>(events!B10-users!B$22)^2+(events!C10-users!C$22)^2+(events!D10-users!$D$22)^2+(events!E10-users!$E$22)^2+(events!F10-users!$F$22)^2</f>
+        <v>23</v>
       </c>
       <c r="W10" s="11">
-        <f>events!B10*users!$B$23+events!C10*users!$C$23+events!D10*users!D$23+events!E10*users!E$23+events!F10*users!F$23</f>
-        <v>4</v>
+        <f>(events!B10-users!B$23)^2+(events!C10-users!C$23)^2+(events!D10-users!$D$23)^2+(events!E10-users!$E$23)^2+(events!F10-users!$F$23)^2</f>
+        <v>28</v>
       </c>
       <c r="X10" s="11">
-        <f>events!B10*users!$B$24+events!C10*users!$C$24+events!D10*users!D$24+events!E10*users!E$24+events!F10*users!F$24</f>
-        <v>3.3</v>
+        <f>(events!B10-users!B$24)^2+(events!C10-users!C$24)^2+(events!D10-users!$D$24)^2+(events!E10-users!$E$24)^2+(events!F10-users!$F$24)^2</f>
+        <v>34</v>
       </c>
       <c r="Y10" s="11">
-        <f>events!B10*users!$B$25+events!C10*users!$C$25+events!D10*users!D$25+events!E10*users!E$25+events!F10*users!F$25</f>
-        <v>0.2</v>
+        <f>(events!B10-users!B$25)^2+(events!C10-users!C$25)^2+(events!D10-users!$D$25)^2+(events!E10-users!$E$25)^2+(events!F10-users!$F$25)^2</f>
+        <v>92</v>
       </c>
       <c r="Z10" s="11">
-        <f>events!B10*users!$B$26+events!C10*users!$C$26+events!D10*users!D$26+events!E10*users!E$26+events!F10*users!F$26</f>
-        <v>3.5</v>
+        <f>(events!B10-users!B$26)^2+(events!C10-users!C$26)^2+(events!D10-users!$D$26)^2+(events!E10-users!$E$26)^2+(events!F10-users!$F$26)^2</f>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -2635,104 +2637,104 @@
         <v>10</v>
       </c>
       <c r="B11" s="11">
-        <f>events!B11*users!$B$2+events!C11*users!$C$2+events!D11*users!$D$2+events!E11*users!$E$2+events!F11*users!$F$2</f>
-        <v>1</v>
+        <f>(events!B11-users!$B$2)^2+(events!C11-users!$C$2)^2+(events!D11-users!$D$2)^2+(events!E11-users!$E$2)^2+(events!F11-users!$F$2)^2</f>
+        <v>93</v>
       </c>
       <c r="C11" s="11">
-        <f>events!B11*users!$B$3+events!C11*users!$C$3+events!D11*users!$D$3+events!E11*users!$E$3+events!F11*users!$F$3</f>
-        <v>4.3</v>
+        <f>(events!B11-users!B$3)^2+(events!C11-users!C$3)^2+(events!D11-users!$D$3)^2+(events!E11-users!$E$3)^2+(events!F11-users!$F$3)^2</f>
+        <v>34</v>
       </c>
       <c r="D11" s="11">
-        <f>events!B11*users!$B$4+events!C11*users!$C$4+events!D11*users!$D$4+events!E11*users!$E$4+events!F11*users!$F$4</f>
-        <v>4.2</v>
+        <f>(events!B11-users!B$4)^2+(events!C11-users!C$4)^2+(events!D11-users!$D$4)^2+(events!E11-users!$E$4)^2+(events!F11-users!$F$4)^2</f>
+        <v>36</v>
       </c>
       <c r="E11" s="11">
-        <f>events!B11*users!$B$5+events!C11*users!$C$5+events!D11*users!$D$5+events!E11*users!$E$5+events!F11*users!$F$5</f>
-        <v>4</v>
+        <f>(events!B11-users!B$5)^2+(events!C11-users!C$5)^2+(events!D11-users!$D$5)^2+(events!E11-users!$E$5)^2+(events!F11-users!$F$5)^2</f>
+        <v>42</v>
       </c>
       <c r="F11" s="11">
-        <f>events!B11*users!$B$6+events!C11*users!$C$6+events!D11*users!D$6+events!E11*users!E$6+events!F11*users!F$6</f>
-        <v>4</v>
+        <f>(events!B11-users!B$6)^2+(events!C11-users!C$6)^2+(events!D11-users!$D$6)^2+(events!E11-users!$E$6)^2+(events!F11-users!$F$6)^2</f>
+        <v>47</v>
       </c>
       <c r="G11" s="11">
-        <f>events!B11*users!$B$7+events!C11*users!$C$7+events!D11*users!D$7+events!E11*users!E$7+events!F11*users!F$7</f>
-        <v>2.5</v>
+        <f>(events!B11-users!B$7)^2+(events!C11-users!C$7)^2+(events!D11-users!$D$7)^2+(events!E11-users!$E$7)^2+(events!F11-users!$F$7)^2</f>
+        <v>63</v>
       </c>
       <c r="H11" s="11">
-        <f>events!B11*users!$B$8+events!C11*users!$C$8+events!D11*users!D$8+events!E11*users!E$8+events!F11*users!F$8</f>
-        <v>2.2000000000000002</v>
+        <f>(events!B11-users!B$8)^2+(events!C11-users!C$8)^2+(events!D11-users!$D$8)^2+(events!E11-users!$E$8)^2+(events!F11-users!$F$8)^2</f>
+        <v>47</v>
       </c>
       <c r="I11" s="11">
-        <f>events!B11*users!$B$9+events!C11*users!$C$9+events!D11*users!D$9+events!E11*users!E$9+events!F11*users!F$9</f>
-        <v>2.7</v>
+        <f>(events!B11-users!B$8)^2+(events!C11-users!C$8)^2+(events!D11-users!$D$8)^2+(events!E11-users!$E$8)^2+(events!F11-users!$F$8)^2</f>
+        <v>47</v>
       </c>
       <c r="J11" s="11">
-        <f>events!B11*users!$B$10+events!C11*users!$C$10+events!D11*users!D$10+events!E11*users!E$10+events!F11*users!F$10</f>
-        <v>3.2</v>
+        <f>(events!B11-users!B$9)^2+(events!C11-users!C$9)^2+(events!D11-users!$D$9)^2+(events!E11-users!$E$9)^2+(events!F11-users!$F$9)^2</f>
+        <v>55</v>
       </c>
       <c r="K11" s="11">
-        <f>events!B11*users!$B$11+events!C11*users!$C$11+events!D11*users!D$11+events!E11*users!E$11+events!F11*users!F$11</f>
-        <v>3.5</v>
+        <f>(events!B11-users!B$11)^2+(events!C11-users!C$11)^2+(events!D11-users!$D$11)^2+(events!E11-users!$E$11)^2+(events!F11-users!$F$11)^2</f>
+        <v>26</v>
       </c>
       <c r="L11" s="11">
-        <f>events!B11*users!$B$12+events!C11*users!$C$12+events!D11*users!D$12+events!E11*users!E$12+events!F11*users!F$12</f>
-        <v>3.2</v>
+        <f>(events!B11-users!B$12)^2+(events!C11-users!C$12)^2+(events!D11-users!$D$12)^2+(events!E11-users!$E$12)^2+(events!F11-users!$F$12)^2</f>
+        <v>17</v>
       </c>
       <c r="M11" s="11">
-        <f>events!B11*users!$B$13+events!C11*users!$C$13+events!D11*users!D$13+events!E11*users!E$13+events!F11*users!F$13</f>
-        <v>2.5</v>
+        <f>(events!B11-users!B$13)^2+(events!C11-users!C$13)^2+(events!D11-users!$D$13)^2+(events!E11-users!$E$13)^2+(events!F11-users!$F$13)^2</f>
+        <v>55</v>
       </c>
       <c r="N11" s="11">
-        <f>events!B11*users!$B$14+events!C11*users!$C$14+events!D11*users!D$14+events!E11*users!E$14+events!F11*users!F$14</f>
-        <v>2.1</v>
+        <f>(events!B11-users!B$14)^2+(events!C11-users!C$14)^2+(events!D11-users!$D$14)^2+(events!E11-users!$E$14)^2+(events!F11-users!$F$14)^2</f>
+        <v>51</v>
       </c>
       <c r="O11" s="11">
-        <f>events!B11*users!$B$15+events!C11*users!$C$15+events!D11*users!D$15+events!E11*users!E$15+events!F11*users!F$15</f>
-        <v>1.5</v>
+        <f>(events!B11-users!B$15)^2+(events!C11-users!C$15)^2+(events!D11-users!$D$15)^2+(events!E11-users!$E$15)^2+(events!F11-users!$F$15)^2</f>
+        <v>33</v>
       </c>
       <c r="P11" s="11">
-        <f>events!B11*users!$B$16+events!C11*users!$C$16+events!D11*users!D$16+events!E11*users!E$16+events!F11*users!F$16</f>
-        <v>1.5</v>
+        <f>(events!B11-users!B$16)^2+(events!C11-users!C$16)^2+(events!D11-users!$D$16)^2+(events!E11-users!$E$16)^2+(events!F11-users!$F$16)^2</f>
+        <v>33</v>
       </c>
       <c r="Q11" s="11">
-        <f>events!B11*users!$B$17+events!C11*users!$C$17+events!D11*users!D$17+events!E11*users!E$17+events!F11*users!F$17</f>
-        <v>2.5</v>
+        <f>(events!B11-users!B$17)^2+(events!C11-users!C$17)^2+(events!D11-users!$D$17)^2+(events!E11-users!$E$17)^2+(events!F11-users!$F$17)^2</f>
+        <v>38</v>
       </c>
       <c r="R11" s="11">
-        <f>events!B11*users!$B$18+events!C11*users!$C$18+events!D11*users!D$18+events!E11*users!E$18+events!F11*users!F$18</f>
-        <v>3.3</v>
+        <f>(events!B11-users!B$18)^2+(events!C11-users!C$18)^2+(events!D11-users!$D$18)^2+(events!E11-users!$E$18)^2+(events!F11-users!$F$18)^2</f>
+        <v>58</v>
       </c>
       <c r="S11" s="11">
-        <f>events!B11*users!$B$19+events!C11*users!$C$19+events!D11*users!D$19+events!E11*users!E$19+events!F11*users!F$19</f>
-        <v>3.6</v>
+        <f>(events!B11-users!B$19)^2+(events!C11-users!C$19)^2+(events!D11-users!$D$19)^2+(events!E11-users!$E$19)^2+(events!F11-users!$F$19)^2</f>
+        <v>36</v>
       </c>
       <c r="T11" s="11">
-        <f>events!B11*users!$B$20+events!C11*users!$C$20+events!D11*users!D$20+events!E11*users!E$20+events!F11*users!F$20</f>
-        <v>2.9</v>
+        <f>(events!B11-users!B$20)^2+(events!C11-users!C$20)^2+(events!D11-users!$D$20)^2+(events!E11-users!$E$20)^2+(events!F11-users!$F$20)^2</f>
+        <v>39</v>
       </c>
       <c r="U11" s="11">
-        <f>events!B11*users!$B$21+events!C11*users!$C$21+events!D11*users!D$21+events!E11*users!E$21+events!F11*users!F$21</f>
-        <v>3.5</v>
+        <f>(events!B11-users!B$21)^2+(events!C11-users!C$21)^2+(events!D11-users!$D$21)^2+(events!E11-users!$E$21)^2+(events!F11-users!$F$21)^2</f>
+        <v>24</v>
       </c>
       <c r="V11" s="11">
-        <f>events!B11*users!$B$22+events!C11*users!$C$22+events!D11*users!D$22+events!E11*users!E$22+events!F11*users!F$22</f>
-        <v>3</v>
+        <f>(events!B11-users!B$22)^2+(events!C11-users!C$22)^2+(events!D11-users!$D$22)^2+(events!E11-users!$E$22)^2+(events!F11-users!$F$22)^2</f>
+        <v>55</v>
       </c>
       <c r="W11" s="11">
-        <f>events!B11*users!$B$23+events!C11*users!$C$23+events!D11*users!D$23+events!E11*users!E$23+events!F11*users!F$23</f>
-        <v>3.2</v>
+        <f>(events!B11-users!B$23)^2+(events!C11-users!C$23)^2+(events!D11-users!$D$23)^2+(events!E11-users!$E$23)^2+(events!F11-users!$F$23)^2</f>
+        <v>40</v>
       </c>
       <c r="X11" s="11">
-        <f>events!B11*users!$B$24+events!C11*users!$C$24+events!D11*users!D$24+events!E11*users!E$24+events!F11*users!F$24</f>
-        <v>2.5</v>
+        <f>(events!B11-users!B$24)^2+(events!C11-users!C$24)^2+(events!D11-users!$D$24)^2+(events!E11-users!$E$24)^2+(events!F11-users!$F$24)^2</f>
+        <v>46</v>
       </c>
       <c r="Y11" s="11">
-        <f>events!B11*users!$B$25+events!C11*users!$C$25+events!D11*users!D$25+events!E11*users!E$25+events!F11*users!F$25</f>
-        <v>4.4000000000000004</v>
+        <f>(events!B11-users!B$25)^2+(events!C11-users!C$25)^2+(events!D11-users!$D$25)^2+(events!E11-users!$E$25)^2+(events!F11-users!$F$25)^2</f>
+        <v>4</v>
       </c>
       <c r="Z11" s="11">
-        <f>events!B11*users!$B$26+events!C11*users!$C$26+events!D11*users!D$26+events!E11*users!E$26+events!F11*users!F$26</f>
-        <v>1.8</v>
+        <f>(events!B11-users!B$26)^2+(events!C11-users!C$26)^2+(events!D11-users!$D$26)^2+(events!E11-users!$E$26)^2+(events!F11-users!$F$26)^2</f>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2745,7 +2747,8 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2835,104 +2838,104 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <f>4*(raw!B2-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1</f>
-        <v>4</v>
+        <f>5-(4*(raw!B2-MIN(raw!B$2:B$11))/(MAX(raw!B$2:B$11)-MIN(raw!B$2:B$11))+1)</f>
+        <v>2.4</v>
       </c>
       <c r="C2" s="3">
-        <f>4*(raw!C2-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1</f>
-        <v>3.0909090909090904</v>
+        <f>5-(4*(raw!C2-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1)</f>
+        <v>1.5483870967741935</v>
       </c>
       <c r="D2" s="3">
-        <f>4*(raw!D2-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1</f>
-        <v>3</v>
+        <f>5-(4*(raw!D2-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1)</f>
+        <v>1.2121212121212119</v>
       </c>
       <c r="E2" s="3">
-        <f>4*(raw!E2-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1</f>
-        <v>4.454545454545455</v>
+        <f>5-(4*(raw!E2-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1)</f>
+        <v>2.5714285714285712</v>
       </c>
       <c r="F2" s="3">
-        <f>4*(raw!F2-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1</f>
-        <v>1.5999999999999996</v>
+        <f>5-(4*(raw!F2-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1)</f>
+        <v>1.0909090909090908</v>
       </c>
       <c r="G2" s="3">
-        <f>4*(raw!G2-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!G2-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="H2" s="3">
-        <f>4*(raw!H2-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1</f>
-        <v>2.1428571428571428</v>
+        <f>5-(4*(raw!H2-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1)</f>
+        <v>2</v>
       </c>
       <c r="I2" s="3">
-        <f>4*(raw!I2-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!I2-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1)</f>
+        <v>2</v>
       </c>
       <c r="J2" s="3">
-        <f>4*(raw!J2-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1</f>
-        <v>2.5</v>
+        <f>5-(4*(raw!J2-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1)</f>
+        <v>3.3777777777777778</v>
       </c>
       <c r="K2" s="3">
-        <f>4*(raw!K2-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1</f>
-        <v>2.2054794520547945</v>
+        <f>5-(4*(raw!K2-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1)</f>
+        <v>1.225806451612903</v>
       </c>
       <c r="L2" s="3">
-        <f>4*(raw!L2-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1</f>
-        <v>2.2727272727272725</v>
+        <f>5-(4*(raw!L2-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1)</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="M2" s="3">
-        <f>4*(raw!M2-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1</f>
-        <v>4.5443037974683556</v>
+        <f>5-(4*(raw!M2-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1)</f>
+        <v>3.1111111111111112</v>
       </c>
       <c r="N2" s="3">
-        <f>4*(raw!N2-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1</f>
-        <v>4.5961538461538467</v>
+        <f>5-(4*(raw!N2-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1)</f>
+        <v>3.1219512195121952</v>
       </c>
       <c r="O2" s="3">
-        <f>4*(raw!O2-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1</f>
-        <v>2</v>
+        <f>5-(4*(raw!O2-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1)</f>
+        <v>2.4477611940298507</v>
       </c>
       <c r="P2" s="3">
-        <f>4*(raw!P2-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1</f>
-        <v>2</v>
+        <f>5-(4*(raw!P2-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1)</f>
+        <v>2.4477611940298507</v>
       </c>
       <c r="Q2" s="3">
-        <f>4*(raw!Q2-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1</f>
-        <v>1.6</v>
+        <f>5-(4*(raw!Q2-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1)</f>
+        <v>1.4193548387096775</v>
       </c>
       <c r="R2" s="3">
-        <f>4*(raw!R2-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1</f>
-        <v>3.5882352941176472</v>
+        <f>5-(4*(raw!R2-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1)</f>
+        <v>2.75</v>
       </c>
       <c r="S2" s="3">
-        <f>4*(raw!S2-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1</f>
-        <v>4.5357142857142865</v>
+        <f>5-(4*(raw!S2-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1)</f>
+        <v>2.9268292682926829</v>
       </c>
       <c r="T2" s="3">
-        <f>4*(raw!T2-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1</f>
-        <v>2.1428571428571428</v>
+        <f>5-(4*(raw!T2-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1)</f>
+        <v>2.1818181818181817</v>
       </c>
       <c r="U2" s="3">
-        <f>4*(raw!U2-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1</f>
-        <v>4.5</v>
+        <f>5-(4*(raw!U2-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1)</f>
+        <v>3.5</v>
       </c>
       <c r="V2" s="3">
-        <f>4*(raw!V2-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1</f>
-        <v>1.5</v>
+        <f>5-(4*(raw!V2-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1)</f>
+        <v>0.79999999999999982</v>
       </c>
       <c r="W2" s="3">
-        <f>4*(raw!W2-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1</f>
-        <v>4</v>
+        <f>5-(4*(raw!W2-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1)</f>
+        <v>1.8181818181818183</v>
       </c>
       <c r="X2" s="3">
-        <f>4*(raw!X2-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1</f>
-        <v>1.1499999999999999</v>
+        <f>5-(4*(raw!X2-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1)</f>
+        <v>1.3333333333333335</v>
       </c>
       <c r="Y2" s="3">
-        <f>4*(raw!Y2-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1</f>
-        <v>3</v>
+        <f>5-(4*(raw!Y2-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1)</f>
+        <v>2.1818181818181817</v>
       </c>
       <c r="Z2" s="3">
-        <f>4*(raw!Z2-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1</f>
-        <v>4.2195121951219523</v>
+        <f>5-(4*(raw!Z2-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1)</f>
+        <v>2.6181818181818182</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -2940,104 +2943,104 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <f>4*(raw!B3-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1</f>
-        <v>2</v>
+        <f>5-(4*(raw!B3-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1)</f>
+        <v>0.40000000000000036</v>
       </c>
       <c r="C3" s="3">
-        <f>4*(raw!C3-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1</f>
-        <v>3.0909090909090904</v>
+        <f>5-(4*(raw!C3-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1)</f>
+        <v>1.5483870967741935</v>
       </c>
       <c r="D3" s="3">
-        <f>4*(raw!D3-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!D3-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1)</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="E3" s="3">
-        <f>4*(raw!E3-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1</f>
-        <v>2.2727272727272725</v>
+        <f>5-(4*(raw!E3-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1)</f>
+        <v>0.28571428571428559</v>
       </c>
       <c r="F3" s="3">
-        <f>4*(raw!F3-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!F3-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1)</f>
+        <v>0.72727272727272663</v>
       </c>
       <c r="G3" s="3">
-        <f>4*(raw!G3-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!G3-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
-        <f>4*(raw!H3-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!H3-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="I3" s="3">
-        <f>4*(raw!I3-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!I3-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
-        <f>4*(raw!J3-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1</f>
-        <v>4</v>
+        <f>5-(4*(raw!J3-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="K3" s="3">
-        <f>4*(raw!K3-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!K3-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1)</f>
+        <v>3.4193548387096775</v>
       </c>
       <c r="L3" s="3">
-        <f>4*(raw!L3-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!L3-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="M3" s="3">
-        <f>4*(raw!M3-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!M3-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="N3" s="3">
-        <f>4*(raw!N3-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1</f>
-        <v>1.2115384615384617</v>
+        <f>5-(4*(raw!N3-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="O3" s="3">
-        <f>4*(raw!O3-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1</f>
-        <v>1.5</v>
+        <f>5-(4*(raw!O3-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1)</f>
+        <v>1.8507462686567164</v>
       </c>
       <c r="P3" s="3">
-        <f>4*(raw!P3-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1</f>
-        <v>1.5</v>
+        <f>5-(4*(raw!P3-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1)</f>
+        <v>1.8507462686567164</v>
       </c>
       <c r="Q3" s="3">
-        <f>4*(raw!Q3-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1</f>
+        <f>5-(4*(raw!Q3-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1)</f>
         <v>4</v>
       </c>
       <c r="R3" s="3">
-        <f>4*(raw!R3-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!R3-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="S3" s="3">
-        <f>4*(raw!S3-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1</f>
-        <v>4.1428571428571432</v>
+        <f>5-(4*(raw!S3-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1)</f>
+        <v>2.5365853658536586</v>
       </c>
       <c r="T3" s="3">
-        <f>4*(raw!T3-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!T3-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="U3" s="3">
-        <f>4*(raw!U3-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1</f>
-        <v>3.125</v>
+        <f>5-(4*(raw!U3-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1)</f>
+        <v>2.125</v>
       </c>
       <c r="V3" s="3">
-        <f>4*(raw!V3-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!V3-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1)</f>
+        <v>0.40000000000000036</v>
       </c>
       <c r="W3" s="3">
-        <f>4*(raw!W3-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1</f>
-        <v>2</v>
+        <f>5-(4*(raw!W3-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1)</f>
+        <v>0.36363636363636331</v>
       </c>
       <c r="X3" s="3">
-        <f>4*(raw!X3-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1</f>
-        <v>1.5625</v>
+        <f>5-(4*(raw!X3-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1)</f>
+        <v>1.8666666666666667</v>
       </c>
       <c r="Y3" s="3">
-        <f>4*(raw!Y3-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1</f>
-        <v>4.4000000000000004</v>
+        <f>5-(4*(raw!Y3-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1)</f>
+        <v>3.4545454545454546</v>
       </c>
       <c r="Z3" s="3">
-        <f>4*(raw!Z3-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1</f>
-        <v>2.0731707317073171</v>
+        <f>5-(4*(raw!Z3-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1)</f>
+        <v>0.29090909090909101</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -3045,104 +3048,104 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <f>4*(raw!B4-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!B4-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="C4" s="3">
-        <f>4*(raw!C4-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1</f>
-        <v>1.4545454545454539</v>
+        <f>5-(4*(raw!C4-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1)</f>
+        <v>1.032258064516129</v>
       </c>
       <c r="D4" s="3">
-        <f>4*(raw!D4-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1</f>
-        <v>3.6666666666666665</v>
+        <f>5-(4*(raw!D4-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1)</f>
+        <v>2.666666666666667</v>
       </c>
       <c r="E4" s="3">
-        <f>4*(raw!E4-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1</f>
-        <v>1.4545454545454539</v>
+        <f>5-(4*(raw!E4-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1)</f>
+        <v>1.1428571428571428</v>
       </c>
       <c r="F4" s="3">
-        <f>4*(raw!F4-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1</f>
-        <v>3.9999999999999978</v>
+        <f>5-(4*(raw!F4-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="G4" s="3">
-        <f>4*(raw!G4-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1</f>
-        <v>2.6</v>
+        <f>5-(4*(raw!G4-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1)</f>
+        <v>2.56</v>
       </c>
       <c r="H4" s="3">
-        <f>4*(raw!H4-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1</f>
-        <v>3.2857142857142856</v>
+        <f>5-(4*(raw!H4-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1)</f>
+        <v>3.5</v>
       </c>
       <c r="I4" s="3">
-        <f>4*(raw!I4-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1</f>
-        <v>3.5263157894736841</v>
+        <f>5-(4*(raw!I4-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1)</f>
+        <v>3.5</v>
       </c>
       <c r="J4" s="3">
-        <f>4*(raw!J4-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1</f>
-        <v>4.5</v>
+        <f>5-(4*(raw!J4-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1)</f>
+        <v>3.2</v>
       </c>
       <c r="K4" s="3">
-        <f>4*(raw!K4-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1</f>
-        <v>2.3698630136986294</v>
+        <f>5-(4*(raw!K4-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1)</f>
+        <v>1.3548387096774195</v>
       </c>
       <c r="L4" s="3">
-        <f>4*(raw!L4-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1</f>
-        <v>3.3636363636363638</v>
+        <f>5-(4*(raw!L4-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1)</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="M4" s="3">
-        <f>4*(raw!M4-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1</f>
-        <v>4.2911392405063298</v>
+        <f>5-(4*(raw!M4-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1)</f>
+        <v>3.7777777777777777</v>
       </c>
       <c r="N4" s="3">
-        <f>4*(raw!N4-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1</f>
-        <v>3.7500000000000004</v>
+        <f>5-(4*(raw!N4-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1)</f>
+        <v>3.5121951219512195</v>
       </c>
       <c r="O4" s="3">
-        <f>4*(raw!O4-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!O4-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1)</f>
+        <v>0.7761194029850742</v>
       </c>
       <c r="P4" s="3">
-        <f>4*(raw!P4-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!P4-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1)</f>
+        <v>0.7761194029850742</v>
       </c>
       <c r="Q4" s="3">
-        <f>4*(raw!Q4-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1</f>
-        <v>4</v>
+        <f>5-(4*(raw!Q4-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1)</f>
+        <v>3.4838709677419355</v>
       </c>
       <c r="R4" s="3">
-        <f>4*(raw!R4-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1</f>
-        <v>3.8235294117647061</v>
+        <f>5-(4*(raw!R4-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="S4" s="3">
-        <f>4*(raw!S4-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1</f>
-        <v>2.7678571428571432</v>
+        <f>5-(4*(raw!S4-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1)</f>
+        <v>2.3414634146341466</v>
       </c>
       <c r="T4" s="3">
-        <f>4*(raw!T4-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1</f>
-        <v>2.7142857142857144</v>
+        <f>5-(4*(raw!T4-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1)</f>
+        <v>3.2727272727272725</v>
       </c>
       <c r="U4" s="3">
-        <f>4*(raw!U4-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!U4-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1)</f>
+        <v>0.75</v>
       </c>
       <c r="V4" s="3">
-        <f>4*(raw!V4-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!V4-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="W4" s="3">
-        <f>4*(raw!W4-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!W4-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="X4" s="3">
-        <f>4*(raw!X4-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1</f>
-        <v>2.9375</v>
+        <f>5-(4*(raw!X4-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1)</f>
+        <v>2.9333333333333336</v>
       </c>
       <c r="Y4" s="3">
-        <f>4*(raw!Y4-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!Y4-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1)</f>
+        <v>0.36363636363636331</v>
       </c>
       <c r="Z4" s="3">
-        <f>4*(raw!Z4-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1</f>
-        <v>4.0853658536585371</v>
+        <f>5-(4*(raw!Z4-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1)</f>
+        <v>3.3454545454545457</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -3150,104 +3153,104 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <f>4*(raw!B5-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!B5-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1)</f>
+        <v>0.70000000000000018</v>
       </c>
       <c r="C5" s="3">
-        <f>4*(raw!C5-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!C5-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1)</f>
+        <v>2.064516129032258</v>
       </c>
       <c r="D5" s="3">
-        <f>4*(raw!D5-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!D5-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
-        <f>4*(raw!E5-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!E5-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1)</f>
+        <v>2.5714285714285712</v>
       </c>
       <c r="F5" s="3">
-        <f>4*(raw!F5-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!F5-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
-        <f>4*(raw!G5-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!G5-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1)</f>
+        <v>3.6799999999999997</v>
       </c>
       <c r="H5" s="3">
-        <f>4*(raw!H5-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!H5-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1)</f>
+        <v>3.5</v>
       </c>
       <c r="I5" s="3">
-        <f>4*(raw!I5-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1</f>
-        <v>3.736842105263158</v>
+        <f>5-(4*(raw!I5-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1)</f>
+        <v>3.5</v>
       </c>
       <c r="J5" s="3">
-        <f>4*(raw!J5-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!J5-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1)</f>
+        <v>2.4888888888888889</v>
       </c>
       <c r="K5" s="3">
-        <f>4*(raw!K5-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1</f>
-        <v>2.5342465753424657</v>
+        <f>5-(4*(raw!K5-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1)</f>
+        <v>1.225806451612903</v>
       </c>
       <c r="L5" s="3">
-        <f>4*(raw!L5-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!L5-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="M5" s="3">
-        <f>4*(raw!M5-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1</f>
-        <v>4.7974683544303804</v>
+        <f>5-(4*(raw!M5-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1)</f>
+        <v>2.8888888888888888</v>
       </c>
       <c r="N5" s="3">
-        <f>4*(raw!N5-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!N5-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1)</f>
+        <v>1.1707317073170733</v>
       </c>
       <c r="O5" s="3">
-        <f>4*(raw!O5-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!O5-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="P5" s="3">
-        <f>4*(raw!P5-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!P5-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="Q5" s="3">
-        <f>4*(raw!Q5-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!Q5-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1)</f>
+        <v>0.51612903225806406</v>
       </c>
       <c r="R5" s="3">
-        <f>4*(raw!R5-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!R5-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1)</f>
+        <v>3</v>
       </c>
       <c r="S5" s="3">
-        <f>4*(raw!S5-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!S5-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1)</f>
+        <v>0.78048780487804859</v>
       </c>
       <c r="T5" s="3">
-        <f>4*(raw!T5-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!T5-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1)</f>
+        <v>3.6363636363636362</v>
       </c>
       <c r="U5" s="3">
-        <f>4*(raw!U5-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!U5-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1)</f>
+        <v>3.75</v>
       </c>
       <c r="V5" s="3">
-        <f>4*(raw!V5-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!V5-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="W5" s="3">
-        <f>4*(raw!W5-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!W5-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="X5" s="3">
-        <f>4*(raw!X5-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!X5-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1)</f>
+        <v>3.2888888888888888</v>
       </c>
       <c r="Y5" s="3">
-        <f>4*(raw!Y5-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!Y5-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1)</f>
+        <v>3</v>
       </c>
       <c r="Z5" s="3">
-        <f>4*(raw!Z5-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!Z5-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1)</f>
+        <v>0.58181818181818201</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -3255,104 +3258,104 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <f>4*(raw!B6-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!B6-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1)</f>
+        <v>3.4</v>
       </c>
       <c r="C6" s="3">
-        <f>4*(raw!C6-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!C6-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <f>4*(raw!D6-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1</f>
-        <v>3.6666666666666665</v>
+        <f>5-(4*(raw!D6-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1)</f>
+        <v>1.6969696969696968</v>
       </c>
       <c r="E6" s="3">
-        <f>4*(raw!E6-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!E6-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
-        <f>4*(raw!F6-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!F6-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1)</f>
+        <v>2.5454545454545454</v>
       </c>
       <c r="G6" s="3">
-        <f>4*(raw!G6-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1</f>
-        <v>3.9333333333333336</v>
+        <f>5-(4*(raw!G6-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1)</f>
+        <v>3.2</v>
       </c>
       <c r="H6" s="3">
-        <f>4*(raw!H6-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1</f>
-        <v>4.238095238095239</v>
+        <f>5-(4*(raw!H6-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="I6" s="3">
-        <f>4*(raw!I6-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1</f>
-        <v>4.5789473684210531</v>
+        <f>5-(4*(raw!I6-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="J6" s="3">
-        <f>4*(raw!J6-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1</f>
-        <v>3.666666666666667</v>
+        <f>5-(4*(raw!J6-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1)</f>
+        <v>3.2</v>
       </c>
       <c r="K6" s="3">
-        <f>4*(raw!K6-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!K6-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1)</f>
+        <v>0.58064516129032206</v>
       </c>
       <c r="L6" s="3">
-        <f>4*(raw!L6-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1</f>
-        <v>3.666666666666667</v>
+        <f>5-(4*(raw!L6-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1)</f>
+        <v>2.2857142857142856</v>
       </c>
       <c r="M6" s="3">
-        <f>4*(raw!M6-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1</f>
-        <v>3.4472573839662455</v>
+        <f>5-(4*(raw!M6-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1)</f>
+        <v>2.4444444444444446</v>
       </c>
       <c r="N6" s="3">
-        <f>4*(raw!N6-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1</f>
-        <v>4.1025641025641031</v>
+        <f>5-(4*(raw!N6-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1)</f>
+        <v>3.1219512195121952</v>
       </c>
       <c r="O6" s="3">
-        <f>4*(raw!O6-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!O6-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1)</f>
+        <v>1.2537313432835822</v>
       </c>
       <c r="P6" s="3">
-        <f>4*(raw!P6-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!P6-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1)</f>
+        <v>1.2537313432835822</v>
       </c>
       <c r="Q6" s="3">
-        <f>4*(raw!Q6-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!Q6-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="R6" s="3">
-        <f>4*(raw!R6-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1</f>
-        <v>3.4313725490196085</v>
+        <f>5-(4*(raw!R6-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1)</f>
+        <v>2.5</v>
       </c>
       <c r="S6" s="3">
-        <f>4*(raw!S6-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1</f>
-        <v>4.404761904761906</v>
+        <f>5-(4*(raw!S6-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1)</f>
+        <v>3.1219512195121952</v>
       </c>
       <c r="T6" s="3">
-        <f>4*(raw!T6-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1</f>
-        <v>3.9841269841269851</v>
+        <f>5-(4*(raw!T6-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="U6" s="3">
-        <f>4*(raw!U6-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1</f>
+        <f>5-(4*(raw!U6-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1)</f>
         <v>1</v>
       </c>
       <c r="V6" s="3">
-        <f>4*(raw!V6-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!V6-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1)</f>
+        <v>2.8</v>
       </c>
       <c r="W6" s="3">
-        <f>4*(raw!W6-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!W6-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1)</f>
+        <v>2.5454545454545454</v>
       </c>
       <c r="X6" s="3">
-        <f>4*(raw!X6-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1</f>
-        <v>2.25</v>
+        <f>5-(4*(raw!X6-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1)</f>
+        <v>1.8666666666666667</v>
       </c>
       <c r="Y6" s="3">
-        <f>4*(raw!Y6-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!Y6-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1)</f>
+        <v>0.72727272727272663</v>
       </c>
       <c r="Z6" s="3">
-        <f>4*(raw!Z6-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1</f>
-        <v>4.7560975609756104</v>
+        <f>5-(4*(raw!Z6-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1)</f>
+        <v>3.3454545454545457</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -3360,104 +3363,104 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <f>4*(raw!B7-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1</f>
-        <v>3.4</v>
+        <f>5-(4*(raw!B7-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1)</f>
+        <v>1.7999999999999998</v>
       </c>
       <c r="C7" s="3">
-        <f>4*(raw!C7-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1</f>
-        <v>3.6909090909090914</v>
+        <f>5-(4*(raw!C7-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1)</f>
+        <v>2.838709677419355</v>
       </c>
       <c r="D7" s="3">
-        <f>4*(raw!D7-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1</f>
-        <v>2.6000000000000005</v>
+        <f>5-(4*(raw!D7-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1)</f>
+        <v>1.2121212121212119</v>
       </c>
       <c r="E7" s="3">
-        <f>4*(raw!E7-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1</f>
-        <v>4.7818181818181831</v>
+        <f>5-(4*(raw!E7-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="F7" s="3">
-        <f>4*(raw!F7-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!F7-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1)</f>
+        <v>1.4545454545454546</v>
       </c>
       <c r="G7" s="3">
-        <f>4*(raw!G7-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1</f>
-        <v>4.3599999999999994</v>
+        <f>5-(4*(raw!G7-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1)</f>
+        <v>3.84</v>
       </c>
       <c r="H7" s="3">
-        <f>4*(raw!H7-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1</f>
-        <v>2.2571428571428571</v>
+        <f>5-(4*(raw!H7-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1)</f>
+        <v>2</v>
       </c>
       <c r="I7" s="3">
-        <f>4*(raw!I7-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1</f>
-        <v>4.2421052631578959</v>
+        <f>5-(4*(raw!I7-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1)</f>
+        <v>2</v>
       </c>
       <c r="J7" s="3">
-        <f>4*(raw!J7-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1</f>
-        <v>2.5999999999999996</v>
+        <f>5-(4*(raw!J7-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1)</f>
+        <v>3.2</v>
       </c>
       <c r="K7" s="3">
-        <f>4*(raw!K7-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1</f>
-        <v>2.9287671232876709</v>
+        <f>5-(4*(raw!K7-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1)</f>
+        <v>1.6129032258064515</v>
       </c>
       <c r="L7" s="3">
-        <f>4*(raw!L7-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1</f>
-        <v>1.872727272727273</v>
+        <f>5-(4*(raw!L7-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1)</f>
+        <v>0.19047619047619069</v>
       </c>
       <c r="M7" s="3">
-        <f>4*(raw!M7-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!M7-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="N7" s="3">
-        <f>4*(raw!N7-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1</f>
-        <v>3.7076923076923074</v>
+        <f>5-(4*(raw!N7-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1)</f>
+        <v>2.5365853658536586</v>
       </c>
       <c r="O7" s="3">
-        <f>4*(raw!O7-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1</f>
-        <v>2.6</v>
+        <f>5-(4*(raw!O7-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1)</f>
+        <v>2.9253731343283582</v>
       </c>
       <c r="P7" s="3">
-        <f>4*(raw!P7-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1</f>
-        <v>2.6</v>
+        <f>5-(4*(raw!P7-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1)</f>
+        <v>2.9253731343283582</v>
       </c>
       <c r="Q7" s="3">
-        <f>4*(raw!Q7-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!Q7-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="R7" s="3">
-        <f>4*(raw!R7-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1</f>
-        <v>4.0588235294117645</v>
+        <f>5-(4*(raw!R7-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="S7" s="3">
-        <f>4*(raw!S7-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1</f>
-        <v>3.0428571428571431</v>
+        <f>5-(4*(raw!S7-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1)</f>
+        <v>1.5609756097560976</v>
       </c>
       <c r="T7" s="3">
-        <f>4*(raw!T7-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1</f>
-        <v>2.1047619047619048</v>
+        <f>5-(4*(raw!T7-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1)</f>
+        <v>2.1818181818181817</v>
       </c>
       <c r="U7" s="3">
-        <f>4*(raw!U7-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1</f>
-        <v>4.5999999999999996</v>
+        <f>5-(4*(raw!U7-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="V7" s="3">
-        <f>4*(raw!V7-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1</f>
-        <v>1.4000000000000004</v>
+        <f>5-(4*(raw!V7-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1)</f>
+        <v>0.79999999999999982</v>
       </c>
       <c r="W7" s="3">
-        <f>4*(raw!W7-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1</f>
-        <v>3.4000000000000004</v>
+        <f>5-(4*(raw!W7-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1)</f>
+        <v>1.8181818181818183</v>
       </c>
       <c r="X7" s="3">
-        <f>4*(raw!X7-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1</f>
-        <v>2.25</v>
+        <f>5-(4*(raw!X7-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1)</f>
+        <v>2.5777777777777775</v>
       </c>
       <c r="Y7" s="3">
-        <f>4*(raw!Y7-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1</f>
-        <v>3.4</v>
+        <f>5-(4*(raw!Y7-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1)</f>
+        <v>2.5454545454545454</v>
       </c>
       <c r="Z7" s="3">
-        <f>4*(raw!Z7-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1</f>
-        <v>3.2536585365853665</v>
+        <f>5-(4*(raw!Z7-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1)</f>
+        <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -3465,104 +3468,104 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <f>4*(raw!B8-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1</f>
-        <v>2.0909090909090908</v>
+        <f>5-(4*(raw!B8-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1)</f>
+        <v>0.45000000000000018</v>
       </c>
       <c r="C8" s="3">
-        <f>4*(raw!C8-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1</f>
-        <v>3.4132231404958668</v>
+        <f>5-(4*(raw!C8-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="D8" s="3">
-        <f>4*(raw!D8-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1</f>
-        <v>4.1515151515151505</v>
+        <f>5-(4*(raw!D8-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="E8" s="3">
-        <f>4*(raw!E8-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1</f>
-        <v>2.8181818181818179</v>
+        <f>5-(4*(raw!E8-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1)</f>
+        <v>3</v>
       </c>
       <c r="F8" s="3">
-        <f>4*(raw!F8-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!F8-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1)</f>
+        <v>3.4545454545454546</v>
       </c>
       <c r="G8" s="3">
-        <f>4*(raw!G8-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1</f>
-        <v>1.5090909090909088</v>
+        <f>5-(4*(raw!G8-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1)</f>
+        <v>0.87999999999999989</v>
       </c>
       <c r="H8" s="3">
-        <f>4*(raw!H8-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1</f>
-        <v>1.6753246753246751</v>
+        <f>5-(4*(raw!H8-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1)</f>
+        <v>1.625</v>
       </c>
       <c r="I8" s="3">
-        <f>4*(raw!I8-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1</f>
-        <v>1.4401913875598085</v>
+        <f>5-(4*(raw!I8-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1)</f>
+        <v>1.625</v>
       </c>
       <c r="J8" s="3">
-        <f>4*(raw!J8-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1</f>
-        <v>3.7272727272727266</v>
+        <f>5-(4*(raw!J8-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1)</f>
+        <v>0.97777777777777786</v>
       </c>
       <c r="K8" s="3">
-        <f>4*(raw!K8-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1</f>
-        <v>4.686176836861768</v>
+        <f>5-(4*(raw!K8-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="L8" s="3">
-        <f>4*(raw!L8-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1</f>
-        <v>4.0413223140495873</v>
+        <f>5-(4*(raw!L8-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1)</f>
+        <v>3.9047619047619047</v>
       </c>
       <c r="M8" s="3">
-        <f>4*(raw!M8-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1</f>
-        <v>2.2197928653624857</v>
+        <f>5-(4*(raw!M8-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1)</f>
+        <v>1.8888888888888888</v>
       </c>
       <c r="N8" s="3">
-        <f>4*(raw!N8-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1</f>
-        <v>1.3076923076923075</v>
+        <f>5-(4*(raw!N8-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1)</f>
+        <v>0.48780487804878092</v>
       </c>
       <c r="O8" s="3">
-        <f>4*(raw!O8-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1</f>
-        <v>2.0909090909090908</v>
+        <f>5-(4*(raw!O8-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1)</f>
+        <v>2.5074626865671643</v>
       </c>
       <c r="P8" s="3">
-        <f>4*(raw!P8-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1</f>
-        <v>2.0909090909090908</v>
+        <f>5-(4*(raw!P8-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1)</f>
+        <v>2.5074626865671643</v>
       </c>
       <c r="Q8" s="3">
-        <f>4*(raw!Q8-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1</f>
-        <v>3.1818181818181812</v>
+        <f>5-(4*(raw!Q8-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1)</f>
+        <v>3.4193548387096775</v>
       </c>
       <c r="R8" s="3">
-        <f>4*(raw!R8-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1</f>
-        <v>2.0909090909090908</v>
+        <f>5-(4*(raw!R8-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1)</f>
+        <v>2.625</v>
       </c>
       <c r="S8" s="3">
-        <f>4*(raw!S8-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1</f>
-        <v>3</v>
+        <f>5-(4*(raw!S8-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1)</f>
+        <v>2.4390243902439024</v>
       </c>
       <c r="T8" s="3">
-        <f>4*(raw!T8-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1</f>
-        <v>1.5367965367965364</v>
+        <f>5-(4*(raw!T8-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1)</f>
+        <v>2.3636363636363633</v>
       </c>
       <c r="U8" s="3">
-        <f>4*(raw!U8-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1</f>
-        <v>3.2727272727272725</v>
+        <f>5-(4*(raw!U8-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1)</f>
+        <v>2.9375</v>
       </c>
       <c r="V8" s="3">
-        <f>4*(raw!V8-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1</f>
-        <v>1.3636363636363633</v>
+        <f>5-(4*(raw!V8-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1)</f>
+        <v>1.7000000000000002</v>
       </c>
       <c r="W8" s="3">
-        <f>4*(raw!W8-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1</f>
-        <v>2.0909090909090899</v>
+        <f>5-(4*(raw!W8-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1)</f>
+        <v>2.3636363636363633</v>
       </c>
       <c r="X8" s="3">
-        <f>4*(raw!X8-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1</f>
-        <v>2.5</v>
+        <f>5-(4*(raw!X8-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1)</f>
+        <v>3.7333333333333334</v>
       </c>
       <c r="Y8" s="3">
-        <f>4*(raw!Y8-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1</f>
-        <v>4.1999999999999993</v>
+        <f>5-(4*(raw!Y8-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1)</f>
+        <v>3.9545454545454546</v>
       </c>
       <c r="Z8" s="3">
-        <f>4*(raw!Z8-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1</f>
-        <v>1.8780487804878052</v>
+        <f>5-(4*(raw!Z8-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1)</f>
+        <v>0.2181818181818187</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -3570,104 +3573,104 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <f>4*(raw!B9-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!B9-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1)</f>
+        <v>3.85</v>
       </c>
       <c r="C9" s="3">
-        <f>4*(raw!C9-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1</f>
-        <v>1.826446280991735</v>
+        <f>5-(4*(raw!C9-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1)</f>
+        <v>0.38709677419354804</v>
       </c>
       <c r="D9" s="3">
-        <f>4*(raw!D9-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1</f>
-        <v>3.6666666666666665</v>
+        <f>5-(4*(raw!D9-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1)</f>
+        <v>2.0606060606060606</v>
       </c>
       <c r="E9" s="3">
-        <f>4*(raw!E9-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1</f>
-        <v>2.8181818181818166</v>
+        <f>5-(4*(raw!E9-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1)</f>
+        <v>1.2857142857142856</v>
       </c>
       <c r="F9" s="3">
-        <f>4*(raw!F9-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1</f>
-        <v>3.1818181818181785</v>
+        <f>5-(4*(raw!F9-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1)</f>
+        <v>3.0909090909090908</v>
       </c>
       <c r="G9" s="3">
-        <f>4*(raw!G9-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1</f>
-        <v>4.418181818181818</v>
+        <f>5-(4*(raw!G9-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1)</f>
+        <v>3.92</v>
       </c>
       <c r="H9" s="3">
-        <f>4*(raw!H9-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1</f>
-        <v>2.5064935064935061</v>
+        <f>5-(4*(raw!H9-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1)</f>
+        <v>2.125</v>
       </c>
       <c r="I9" s="3">
-        <f>4*(raw!I9-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1</f>
-        <v>4.9617224880382764</v>
+        <f>5-(4*(raw!I9-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1)</f>
+        <v>2.125</v>
       </c>
       <c r="J9" s="3">
-        <f>4*(raw!J9-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1</f>
-        <v>3.3636363636363633</v>
+        <f>5-(4*(raw!J9-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="K9" s="3">
-        <f>4*(raw!K9-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1</f>
-        <v>1.6973848069738482</v>
+        <f>5-(4*(raw!K9-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
-        <f>4*(raw!L9-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1</f>
-        <v>3.1157024793388426</v>
+        <f>5-(4*(raw!L9-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1)</f>
+        <v>1.4285714285714284</v>
       </c>
       <c r="M9" s="3">
-        <f>4*(raw!M9-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1</f>
-        <v>4.0609896432681243</v>
+        <f>5-(4*(raw!M9-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1)</f>
+        <v>2.7777777777777777</v>
       </c>
       <c r="N9" s="3">
-        <f>4*(raw!N9-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!N9-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="O9" s="3">
-        <f>4*(raw!O9-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!O9-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <f>4*(raw!P9-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!P9-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <f>4*(raw!Q9-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1</f>
-        <v>3.1818181818181812</v>
+        <f>5-(4*(raw!Q9-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1)</f>
+        <v>2.645161290322581</v>
       </c>
       <c r="R9" s="3">
-        <f>4*(raw!R9-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1</f>
-        <v>3.2887700534759357</v>
+        <f>5-(4*(raw!R9-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1)</f>
+        <v>2.875</v>
       </c>
       <c r="S9" s="3">
-        <f>4*(raw!S9-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!S9-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="T9" s="3">
-        <f>4*(raw!T9-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1</f>
-        <v>2.3679653679653674</v>
+        <f>5-(4*(raw!T9-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1)</f>
+        <v>2.3636363636363633</v>
       </c>
       <c r="U9" s="3">
-        <f>4*(raw!U9-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1</f>
-        <v>2.8181818181818179</v>
+        <f>5-(4*(raw!U9-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1)</f>
+        <v>1.5625</v>
       </c>
       <c r="V9" s="3">
-        <f>4*(raw!V9-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1</f>
-        <v>3.1818181818181799</v>
+        <f>5-(4*(raw!V9-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1)</f>
+        <v>2.5</v>
       </c>
       <c r="W9" s="3">
-        <f>4*(raw!W9-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!W9-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1)</f>
+        <v>3.0909090909090908</v>
       </c>
       <c r="X9" s="3">
-        <f>4*(raw!X9-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!X9-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
-        <f>4*(raw!Y9-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1</f>
-        <v>1.7272727272727273</v>
+        <f>5-(4*(raw!Y9-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1)</f>
+        <v>0.31818181818181834</v>
       </c>
       <c r="Z9" s="3">
-        <f>4*(raw!Z9-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!Z9-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -3675,104 +3678,104 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <f>4*(raw!B10-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!B10-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1)</f>
+        <v>3.8</v>
       </c>
       <c r="C10" s="3">
-        <f>4*(raw!C10-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1</f>
-        <v>1.9454545454545451</v>
+        <f>5-(4*(raw!C10-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1)</f>
+        <v>0.77419354838709697</v>
       </c>
       <c r="D10" s="3">
-        <f>4*(raw!D10-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1</f>
-        <v>3.6666666666666665</v>
+        <f>5-(4*(raw!D10-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1)</f>
+        <v>2.1818181818181817</v>
       </c>
       <c r="E10" s="3">
-        <f>4*(raw!E10-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1</f>
-        <v>2.1636363636363636</v>
+        <f>5-(4*(raw!E10-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1)</f>
+        <v>0.57142857142857117</v>
       </c>
       <c r="F10" s="3">
-        <f>4*(raw!F10-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1</f>
-        <v>2.9200000000000004</v>
+        <f>5-(4*(raw!F10-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1)</f>
+        <v>2.9090909090909092</v>
       </c>
       <c r="G10" s="3">
-        <f>4*(raw!G10-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1</f>
-        <v>1.8</v>
+        <f>5-(4*(raw!G10-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1)</f>
+        <v>0.64000000000000057</v>
       </c>
       <c r="H10" s="3">
-        <f>4*(raw!H10-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1</f>
-        <v>2.2571428571428571</v>
+        <f>5-(4*(raw!H10-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1)</f>
+        <v>2</v>
       </c>
       <c r="I10" s="3">
-        <f>4*(raw!I10-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1</f>
-        <v>2.8947368421052628</v>
+        <f>5-(4*(raw!I10-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1)</f>
+        <v>2</v>
       </c>
       <c r="J10" s="3">
-        <f>4*(raw!J10-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!J10-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1)</f>
+        <v>1.7777777777777777</v>
       </c>
       <c r="K10" s="3">
-        <f>4*(raw!K10-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1</f>
-        <v>3.4547945205479453</v>
+        <f>5-(4*(raw!K10-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1)</f>
+        <v>2.129032258064516</v>
       </c>
       <c r="L10" s="3">
-        <f>4*(raw!L10-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1</f>
-        <v>3.036363636363637</v>
+        <f>5-(4*(raw!L10-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1)</f>
+        <v>1.7142857142857144</v>
       </c>
       <c r="M10" s="3">
-        <f>4*(raw!M10-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!M10-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="N10" s="3">
-        <f>4*(raw!N10-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1</f>
-        <v>3.7076923076923083</v>
+        <f>5-(4*(raw!N10-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1)</f>
+        <v>2.5365853658536586</v>
       </c>
       <c r="O10" s="3">
-        <f>4*(raw!O10-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!O10-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1)</f>
+        <v>0.53731343283582156</v>
       </c>
       <c r="P10" s="3">
-        <f>4*(raw!P10-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!P10-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1)</f>
+        <v>0.53731343283582156</v>
       </c>
       <c r="Q10" s="3">
-        <f>4*(raw!Q10-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1</f>
-        <v>2.92</v>
+        <f>5-(4*(raw!Q10-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1)</f>
+        <v>2.5806451612903225</v>
       </c>
       <c r="R10" s="3">
-        <f>4*(raw!R10-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1</f>
-        <v>4.0588235294117645</v>
+        <f>5-(4*(raw!R10-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="S10" s="3">
-        <f>4*(raw!S10-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1</f>
-        <v>1.7857142857142858</v>
+        <f>5-(4*(raw!S10-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
-        <f>4*(raw!T10-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1</f>
-        <v>1.4952380952380955</v>
+        <f>5-(4*(raw!T10-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1)</f>
+        <v>0.72727272727272663</v>
       </c>
       <c r="U10" s="3">
-        <f>4*(raw!U10-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1</f>
-        <v>1.4</v>
+        <f>5-(4*(raw!U10-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
-        <f>4*(raw!V10-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1</f>
-        <v>4.5999999999999996</v>
+        <f>5-(4*(raw!V10-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="W10" s="3">
-        <f>4*(raw!W10-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1</f>
-        <v>5</v>
+        <f>5-(4*(raw!W10-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1)</f>
+        <v>3.2727272727272725</v>
       </c>
       <c r="X10" s="3">
-        <f>4*(raw!X10-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1</f>
-        <v>3.13</v>
+        <f>5-(4*(raw!X10-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="Y10" s="3">
-        <f>4*(raw!Y10-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1</f>
-        <v>1.1599999999999999</v>
+        <f>5-(4*(raw!Y10-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="Z10" s="3">
-        <f>4*(raw!Z10-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1</f>
-        <v>3.6829268292682933</v>
+        <f>5-(4*(raw!Z10-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1)</f>
+        <v>2.1818181818181817</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
@@ -3780,104 +3783,104 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <f>4*(raw!B11-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1</f>
-        <v>1.8</v>
+        <f>5-(4*(raw!B11-MIN(raw!$B$2:$B$11))/(MAX(raw!$B$2:$B$11)-MIN(raw!$B$2:$B$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="C11" s="3">
-        <f>4*(raw!C11-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1</f>
-        <v>3.4727272727272722</v>
+        <f>5-(4*(raw!C11-MIN(raw!C$2:C$11))/(MAX(raw!C$2:C$11)-MIN(raw!C$2:C$11))+1)</f>
+        <v>3.096774193548387</v>
       </c>
       <c r="D11" s="3">
-        <f>4*(raw!D11-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1</f>
-        <v>4.2000000000000011</v>
+        <f>5-(4*(raw!D11-MIN(raw!D$2:D$11))/(MAX(raw!D$2:D$11)-MIN(raw!D$2:D$11))+1)</f>
+        <v>3.1515151515151514</v>
       </c>
       <c r="E11" s="3">
-        <f>4*(raw!E11-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1</f>
-        <v>2.8181818181818179</v>
+        <f>5-(4*(raw!E11-MIN(raw!E$2:E$11))/(MAX(raw!E$2:E$11)-MIN(raw!E$2:E$11))+1)</f>
+        <v>2</v>
       </c>
       <c r="F11" s="3">
-        <f>4*(raw!F11-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!F11-MIN(raw!F$2:F$11))/(MAX(raw!F$2:F$11)-MIN(raw!F$2:F$11))+1)</f>
+        <v>2.1818181818181817</v>
       </c>
       <c r="G11" s="3">
-        <f>4*(raw!G11-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1</f>
-        <v>1.8</v>
+        <f>5-(4*(raw!G11-MIN(raw!G$2:G$11))/(MAX(raw!G$2:G$11)-MIN(raw!G$2:G$11))+1)</f>
+        <v>0.96</v>
       </c>
       <c r="H11" s="3">
-        <f>4*(raw!H11-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1</f>
-        <v>1.8000000000000003</v>
+        <f>5-(4*(raw!H11-MIN(raw!H$2:H$11))/(MAX(raw!H$2:H$11)-MIN(raw!H$2:H$11))+1)</f>
+        <v>1.5</v>
       </c>
       <c r="I11" s="3">
-        <f>4*(raw!I11-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1</f>
-        <v>1.5473684210526319</v>
+        <f>5-(4*(raw!I11-MIN(raw!I$2:I$11))/(MAX(raw!I$2:I$11)-MIN(raw!I$2:I$11))+1)</f>
+        <v>1.5</v>
       </c>
       <c r="J11" s="3">
-        <f>4*(raw!J11-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1</f>
-        <v>3.4000000000000004</v>
+        <f>5-(4*(raw!J11-MIN(raw!J$2:J$11))/(MAX(raw!J$2:J$11)-MIN(raw!J$2:J$11))+1)</f>
+        <v>0.71111111111111125</v>
       </c>
       <c r="K11" s="3">
-        <f>4*(raw!K11-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1</f>
-        <v>4.506849315068493</v>
+        <f>5-(4*(raw!K11-MIN(raw!K$2:K$11))/(MAX(raw!K$2:K$11)-MIN(raw!K$2:K$11))+1)</f>
+        <v>3.4193548387096775</v>
       </c>
       <c r="L11" s="3">
-        <f>4*(raw!L11-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1</f>
-        <v>4.2</v>
+        <f>5-(4*(raw!L11-MIN(raw!L$2:L$11))/(MAX(raw!L$2:L$11)-MIN(raw!L$2:L$11))+1)</f>
+        <v>3.6190476190476191</v>
       </c>
       <c r="M11" s="3">
-        <f>4*(raw!M11-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1</f>
-        <v>1.759493670886076</v>
+        <f>5-(4*(raw!M11-MIN(raw!M$2:M$11))/(MAX(raw!M$2:M$11)-MIN(raw!M$2:M$11))+1)</f>
+        <v>0.88888888888888928</v>
       </c>
       <c r="N11" s="3">
-        <f>4*(raw!N11-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1</f>
-        <v>1.1692307692307695</v>
+        <f>5-(4*(raw!N11-MIN(raw!N$2:N$11))/(MAX(raw!N$2:N$11)-MIN(raw!N$2:N$11))+1)</f>
+        <v>0</v>
       </c>
       <c r="O11" s="3">
-        <f>4*(raw!O11-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1</f>
-        <v>2.2000000000000002</v>
+        <f>5-(4*(raw!O11-MIN(raw!O$2:O$11))/(MAX(raw!O$2:O$11)-MIN(raw!O$2:O$11))+1)</f>
+        <v>2.5671641791044779</v>
       </c>
       <c r="P11" s="3">
-        <f>4*(raw!P11-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1</f>
-        <v>2.2000000000000002</v>
+        <f>5-(4*(raw!P11-MIN(raw!P$2:P$11))/(MAX(raw!P$2:P$11)-MIN(raw!P$2:P$11))+1)</f>
+        <v>2.5671641791044779</v>
       </c>
       <c r="Q11" s="3">
-        <f>4*(raw!Q11-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1</f>
-        <v>3.4</v>
+        <f>5-(4*(raw!Q11-MIN(raw!Q$2:Q$11))/(MAX(raw!Q$2:Q$11)-MIN(raw!Q$2:Q$11))+1)</f>
+        <v>3.4838709677419355</v>
       </c>
       <c r="R11" s="3">
-        <f>4*(raw!R11-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1</f>
-        <v>1.7999999999999998</v>
+        <f>5-(4*(raw!R11-MIN(raw!R$2:R$11))/(MAX(raw!R$2:R$11)-MIN(raw!R$2:R$11))+1)</f>
+        <v>1.5</v>
       </c>
       <c r="S11" s="3">
-        <f>4*(raw!S11-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1</f>
-        <v>3.5142857142857151</v>
+        <f>5-(4*(raw!S11-MIN(raw!S$2:S$11))/(MAX(raw!S$2:S$11)-MIN(raw!S$2:S$11))+1)</f>
+        <v>2.5365853658536586</v>
       </c>
       <c r="T11" s="3">
-        <f>4*(raw!T11-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1</f>
-        <v>1.7999999999999998</v>
+        <f>5-(4*(raw!T11-MIN(raw!T$2:T$11))/(MAX(raw!T$2:T$11)-MIN(raw!T$2:T$11))+1)</f>
+        <v>2.1818181818181817</v>
       </c>
       <c r="U11" s="3">
-        <f>4*(raw!U11-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1</f>
-        <v>3.5</v>
+        <f>5-(4*(raw!U11-MIN(raw!U$2:U$11))/(MAX(raw!U$2:U$11)-MIN(raw!U$2:U$11))+1)</f>
+        <v>2.875</v>
       </c>
       <c r="V11" s="3">
-        <f>4*(raw!V11-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1</f>
-        <v>1</v>
+        <f>5-(4*(raw!V11-MIN(raw!V$2:V$11))/(MAX(raw!V$2:V$11)-MIN(raw!V$2:V$11))+1)</f>
+        <v>0.79999999999999982</v>
       </c>
       <c r="W11" s="3">
-        <f>4*(raw!W11-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1</f>
-        <v>1.8000000000000007</v>
+        <f>5-(4*(raw!W11-MIN(raw!W$2:W$11))/(MAX(raw!W$2:W$11)-MIN(raw!W$2:W$11))+1)</f>
+        <v>1.0909090909090908</v>
       </c>
       <c r="X11" s="3">
-        <f>4*(raw!X11-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1</f>
-        <v>2.25</v>
+        <f>5-(4*(raw!X11-MIN(raw!X$2:X$11))/(MAX(raw!X$2:X$11)-MIN(raw!X$2:X$11))+1)</f>
+        <v>2.9333333333333336</v>
       </c>
       <c r="Y11" s="3">
-        <f>4*(raw!Y11-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1</f>
-        <v>4.5200000000000005</v>
+        <f>5-(4*(raw!Y11-MIN(raw!Y$2:Y$11))/(MAX(raw!Y$2:Y$11)-MIN(raw!Y$2:Y$11))+1)</f>
+        <v>4</v>
       </c>
       <c r="Z11" s="3">
-        <f>4*(raw!Z11-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1</f>
-        <v>1.858536585365854</v>
+        <f>5-(4*(raw!Z11-MIN(raw!Z$2:Z$11))/(MAX(raw!Z$2:Z$11)-MIN(raw!Z$2:Z$11))+1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -3919,8 +3922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522E427F-8E15-9D41-B6D9-4C81FCFB91C5}">
   <dimension ref="A1:C261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3945,7 +3948,7 @@
       </c>
       <c r="C2" s="4">
         <f>normalized!B2</f>
-        <v>4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3957,7 +3960,7 @@
       </c>
       <c r="C3" s="4">
         <f>normalized!B3</f>
-        <v>2</v>
+        <v>0.40000000000000036</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3969,7 +3972,7 @@
       </c>
       <c r="C4" s="4">
         <f>normalized!B4</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3981,7 +3984,7 @@
       </c>
       <c r="C5" s="4">
         <f>normalized!B5</f>
-        <v>1</v>
+        <v>0.70000000000000018</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3993,7 +3996,7 @@
       </c>
       <c r="C6" s="4">
         <f>normalized!B6</f>
-        <v>5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4005,7 +4008,7 @@
       </c>
       <c r="C7" s="4">
         <f>normalized!B7</f>
-        <v>3.4</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4017,7 +4020,7 @@
       </c>
       <c r="C8" s="4">
         <f>normalized!B8</f>
-        <v>2.0909090909090908</v>
+        <v>0.45000000000000018</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4029,7 +4032,7 @@
       </c>
       <c r="C9" s="4">
         <f>normalized!B9</f>
-        <v>5</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4041,7 +4044,7 @@
       </c>
       <c r="C10" s="4">
         <f>normalized!B10</f>
-        <v>5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4053,7 +4056,7 @@
       </c>
       <c r="C11" s="6">
         <f>normalized!B11</f>
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4065,7 +4068,7 @@
       </c>
       <c r="C12" s="4">
         <f>normalized!C2</f>
-        <v>3.0909090909090904</v>
+        <v>1.5483870967741935</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -4077,7 +4080,7 @@
       </c>
       <c r="C13" s="4">
         <f>normalized!C3</f>
-        <v>3.0909090909090904</v>
+        <v>1.5483870967741935</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4089,7 +4092,7 @@
       </c>
       <c r="C14" s="4">
         <f>normalized!C4</f>
-        <v>1.4545454545454539</v>
+        <v>1.032258064516129</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4101,7 +4104,7 @@
       </c>
       <c r="C15" s="4">
         <f>normalized!C5</f>
-        <v>5</v>
+        <v>2.064516129032258</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -4113,7 +4116,7 @@
       </c>
       <c r="C16" s="4">
         <f>normalized!C6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4125,7 +4128,7 @@
       </c>
       <c r="C17" s="4">
         <f>normalized!C7</f>
-        <v>3.6909090909090914</v>
+        <v>2.838709677419355</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -4137,7 +4140,7 @@
       </c>
       <c r="C18" s="4">
         <f>normalized!C8</f>
-        <v>3.4132231404958668</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -4149,7 +4152,7 @@
       </c>
       <c r="C19" s="4">
         <f>normalized!C9</f>
-        <v>1.826446280991735</v>
+        <v>0.38709677419354804</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4161,7 +4164,7 @@
       </c>
       <c r="C20" s="4">
         <f>normalized!C10</f>
-        <v>1.9454545454545451</v>
+        <v>0.77419354838709697</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4173,7 +4176,7 @@
       </c>
       <c r="C21" s="6">
         <f>normalized!C11</f>
-        <v>3.4727272727272722</v>
+        <v>3.096774193548387</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4185,7 +4188,7 @@
       </c>
       <c r="C22" s="4">
         <f>normalized!D2</f>
-        <v>3</v>
+        <v>1.2121212121212119</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4197,7 +4200,7 @@
       </c>
       <c r="C23" s="4">
         <f>normalized!D3</f>
-        <v>5</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4209,7 +4212,7 @@
       </c>
       <c r="C24" s="4">
         <f>normalized!D4</f>
-        <v>3.6666666666666665</v>
+        <v>2.666666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4221,7 +4224,7 @@
       </c>
       <c r="C25" s="4">
         <f>normalized!D5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4233,7 +4236,7 @@
       </c>
       <c r="C26" s="4">
         <f>normalized!D6</f>
-        <v>3.6666666666666665</v>
+        <v>1.6969696969696968</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4245,7 +4248,7 @@
       </c>
       <c r="C27" s="4">
         <f>normalized!D7</f>
-        <v>2.6000000000000005</v>
+        <v>1.2121212121212119</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -4257,7 +4260,7 @@
       </c>
       <c r="C28" s="4">
         <f>normalized!D8</f>
-        <v>4.1515151515151505</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4269,7 +4272,7 @@
       </c>
       <c r="C29" s="4">
         <f>normalized!D9</f>
-        <v>3.6666666666666665</v>
+        <v>2.0606060606060606</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4281,7 +4284,7 @@
       </c>
       <c r="C30" s="4">
         <f>normalized!D10</f>
-        <v>3.6666666666666665</v>
+        <v>2.1818181818181817</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -4293,7 +4296,7 @@
       </c>
       <c r="C31" s="4">
         <f>normalized!D11</f>
-        <v>4.2000000000000011</v>
+        <v>3.1515151515151514</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4305,7 +4308,7 @@
       </c>
       <c r="C32" s="4">
         <f>normalized!E2</f>
-        <v>4.454545454545455</v>
+        <v>2.5714285714285712</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -4317,7 +4320,7 @@
       </c>
       <c r="C33" s="4">
         <f>normalized!E3</f>
-        <v>2.2727272727272725</v>
+        <v>0.28571428571428559</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -4329,7 +4332,7 @@
       </c>
       <c r="C34" s="4">
         <f>normalized!E4</f>
-        <v>1.4545454545454539</v>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -4341,7 +4344,7 @@
       </c>
       <c r="C35" s="4">
         <f>normalized!E5</f>
-        <v>5</v>
+        <v>2.5714285714285712</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -4353,7 +4356,7 @@
       </c>
       <c r="C36" s="4">
         <f>normalized!E6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -4365,7 +4368,7 @@
       </c>
       <c r="C37" s="4">
         <f>normalized!E7</f>
-        <v>4.7818181818181831</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -4377,7 +4380,7 @@
       </c>
       <c r="C38" s="4">
         <f>normalized!E8</f>
-        <v>2.8181818181818179</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -4389,7 +4392,7 @@
       </c>
       <c r="C39" s="4">
         <f>normalized!E9</f>
-        <v>2.8181818181818166</v>
+        <v>1.2857142857142856</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -4401,7 +4404,7 @@
       </c>
       <c r="C40" s="4">
         <f>normalized!E10</f>
-        <v>2.1636363636363636</v>
+        <v>0.57142857142857117</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -4413,7 +4416,7 @@
       </c>
       <c r="C41" s="4">
         <f>normalized!E11</f>
-        <v>2.8181818181818179</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -4425,7 +4428,7 @@
       </c>
       <c r="C42" s="4">
         <f>normalized!F2</f>
-        <v>1.5999999999999996</v>
+        <v>1.0909090909090908</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -4437,7 +4440,7 @@
       </c>
       <c r="C43" s="4">
         <f>normalized!F3</f>
-        <v>1</v>
+        <v>0.72727272727272663</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -4449,7 +4452,7 @@
       </c>
       <c r="C44" s="4">
         <f>normalized!F4</f>
-        <v>3.9999999999999978</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -4461,7 +4464,7 @@
       </c>
       <c r="C45" s="4">
         <f>normalized!F5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -4473,7 +4476,7 @@
       </c>
       <c r="C46" s="4">
         <f>normalized!F6</f>
-        <v>5</v>
+        <v>2.5454545454545454</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -4485,7 +4488,7 @@
       </c>
       <c r="C47" s="4">
         <f>normalized!F7</f>
-        <v>1</v>
+        <v>1.4545454545454546</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -4497,7 +4500,7 @@
       </c>
       <c r="C48" s="4">
         <f>normalized!F8</f>
-        <v>1</v>
+        <v>3.4545454545454546</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -4509,7 +4512,7 @@
       </c>
       <c r="C49" s="4">
         <f>normalized!F9</f>
-        <v>3.1818181818181785</v>
+        <v>3.0909090909090908</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -4521,7 +4524,7 @@
       </c>
       <c r="C50" s="4">
         <f>normalized!F10</f>
-        <v>2.9200000000000004</v>
+        <v>2.9090909090909092</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -4533,7 +4536,7 @@
       </c>
       <c r="C51" s="4">
         <f>normalized!F11</f>
-        <v>1</v>
+        <v>2.1818181818181817</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -4545,7 +4548,7 @@
       </c>
       <c r="C52" s="9">
         <f>normalized!G2</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -4557,7 +4560,7 @@
       </c>
       <c r="C53" s="9">
         <f>normalized!G3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -4569,7 +4572,7 @@
       </c>
       <c r="C54" s="9">
         <f>normalized!G4</f>
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -4581,7 +4584,7 @@
       </c>
       <c r="C55" s="9">
         <f>normalized!G5</f>
-        <v>5</v>
+        <v>3.6799999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -4593,7 +4596,7 @@
       </c>
       <c r="C56" s="9">
         <f>normalized!G6</f>
-        <v>3.9333333333333336</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -4605,7 +4608,7 @@
       </c>
       <c r="C57" s="9">
         <f>normalized!G7</f>
-        <v>4.3599999999999994</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -4617,7 +4620,7 @@
       </c>
       <c r="C58" s="9">
         <f>normalized!G8</f>
-        <v>1.5090909090909088</v>
+        <v>0.87999999999999989</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -4629,7 +4632,7 @@
       </c>
       <c r="C59" s="9">
         <f>normalized!G9</f>
-        <v>4.418181818181818</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -4641,7 +4644,7 @@
       </c>
       <c r="C60" s="9">
         <f>normalized!G10</f>
-        <v>1.8</v>
+        <v>0.64000000000000057</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -4653,7 +4656,7 @@
       </c>
       <c r="C61" s="9">
         <f>normalized!G11</f>
-        <v>1.8</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -4665,7 +4668,7 @@
       </c>
       <c r="C62" s="9">
         <f>normalized!H2</f>
-        <v>2.1428571428571428</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -4677,7 +4680,7 @@
       </c>
       <c r="C63" s="9">
         <f>normalized!H3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -4689,7 +4692,7 @@
       </c>
       <c r="C64" s="9">
         <f>normalized!H4</f>
-        <v>3.2857142857142856</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -4701,7 +4704,7 @@
       </c>
       <c r="C65" s="9">
         <f>normalized!H5</f>
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -4713,7 +4716,7 @@
       </c>
       <c r="C66" s="9">
         <f>normalized!H6</f>
-        <v>4.238095238095239</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -4725,7 +4728,7 @@
       </c>
       <c r="C67" s="9">
         <f>normalized!H7</f>
-        <v>2.2571428571428571</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -4737,7 +4740,7 @@
       </c>
       <c r="C68" s="9">
         <f>normalized!H8</f>
-        <v>1.6753246753246751</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -4749,7 +4752,7 @@
       </c>
       <c r="C69" s="9">
         <f>normalized!H9</f>
-        <v>2.5064935064935061</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -4761,7 +4764,7 @@
       </c>
       <c r="C70" s="9">
         <f>normalized!H10</f>
-        <v>2.2571428571428571</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -4773,7 +4776,7 @@
       </c>
       <c r="C71" s="9">
         <f>normalized!H11</f>
-        <v>1.8000000000000003</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -4785,7 +4788,7 @@
       </c>
       <c r="C72" s="9">
         <f>normalized!I2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -4797,7 +4800,7 @@
       </c>
       <c r="C73" s="9">
         <f>normalized!I3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -4809,7 +4812,7 @@
       </c>
       <c r="C74" s="9">
         <f>normalized!I4</f>
-        <v>3.5263157894736841</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -4821,7 +4824,7 @@
       </c>
       <c r="C75" s="9">
         <f>normalized!I5</f>
-        <v>3.736842105263158</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -4833,7 +4836,7 @@
       </c>
       <c r="C76" s="9">
         <f>normalized!I6</f>
-        <v>4.5789473684210531</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -4845,7 +4848,7 @@
       </c>
       <c r="C77" s="9">
         <f>normalized!I7</f>
-        <v>4.2421052631578959</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -4857,7 +4860,7 @@
       </c>
       <c r="C78" s="9">
         <f>normalized!I8</f>
-        <v>1.4401913875598085</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -4869,7 +4872,7 @@
       </c>
       <c r="C79" s="9">
         <f>normalized!I9</f>
-        <v>4.9617224880382764</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -4881,7 +4884,7 @@
       </c>
       <c r="C80" s="9">
         <f>normalized!I10</f>
-        <v>2.8947368421052628</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -4893,7 +4896,7 @@
       </c>
       <c r="C81" s="9">
         <f>normalized!I11</f>
-        <v>1.5473684210526319</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -4905,7 +4908,7 @@
       </c>
       <c r="C82" s="9">
         <f>normalized!J2</f>
-        <v>2.5</v>
+        <v>3.3777777777777778</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -4917,7 +4920,7 @@
       </c>
       <c r="C83" s="9">
         <f>normalized!J3</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -4929,7 +4932,7 @@
       </c>
       <c r="C84" s="9">
         <f>normalized!J4</f>
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -4941,7 +4944,7 @@
       </c>
       <c r="C85" s="9">
         <f>normalized!J5</f>
-        <v>1</v>
+        <v>2.4888888888888889</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -4953,7 +4956,7 @@
       </c>
       <c r="C86" s="9">
         <f>normalized!J6</f>
-        <v>3.666666666666667</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -4965,7 +4968,7 @@
       </c>
       <c r="C87" s="9">
         <f>normalized!J7</f>
-        <v>2.5999999999999996</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -4977,7 +4980,7 @@
       </c>
       <c r="C88" s="9">
         <f>normalized!J8</f>
-        <v>3.7272727272727266</v>
+        <v>0.97777777777777786</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -4989,7 +4992,7 @@
       </c>
       <c r="C89" s="9">
         <f>normalized!J9</f>
-        <v>3.3636363636363633</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -5001,7 +5004,7 @@
       </c>
       <c r="C90" s="9">
         <f>normalized!J10</f>
-        <v>5</v>
+        <v>1.7777777777777777</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -5013,7 +5016,7 @@
       </c>
       <c r="C91" s="9">
         <f>normalized!J11</f>
-        <v>3.4000000000000004</v>
+        <v>0.71111111111111125</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -5025,7 +5028,7 @@
       </c>
       <c r="C92" s="9">
         <f>normalized!K2</f>
-        <v>2.2054794520547945</v>
+        <v>1.225806451612903</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -5037,7 +5040,7 @@
       </c>
       <c r="C93" s="9">
         <f>normalized!K3</f>
-        <v>5</v>
+        <v>3.4193548387096775</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -5049,7 +5052,7 @@
       </c>
       <c r="C94" s="9">
         <f>normalized!K4</f>
-        <v>2.3698630136986294</v>
+        <v>1.3548387096774195</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -5061,7 +5064,7 @@
       </c>
       <c r="C95" s="9">
         <f>normalized!K5</f>
-        <v>2.5342465753424657</v>
+        <v>1.225806451612903</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -5073,7 +5076,7 @@
       </c>
       <c r="C96" s="9">
         <f>normalized!K6</f>
-        <v>1</v>
+        <v>0.58064516129032206</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -5085,7 +5088,7 @@
       </c>
       <c r="C97" s="9">
         <f>normalized!K7</f>
-        <v>2.9287671232876709</v>
+        <v>1.6129032258064515</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -5097,7 +5100,7 @@
       </c>
       <c r="C98" s="9">
         <f>normalized!K8</f>
-        <v>4.686176836861768</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -5109,7 +5112,7 @@
       </c>
       <c r="C99" s="9">
         <f>normalized!K9</f>
-        <v>1.6973848069738482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -5121,7 +5124,7 @@
       </c>
       <c r="C100" s="9">
         <f>normalized!K10</f>
-        <v>3.4547945205479453</v>
+        <v>2.129032258064516</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -5133,7 +5136,7 @@
       </c>
       <c r="C101" s="9">
         <f>normalized!K11</f>
-        <v>4.506849315068493</v>
+        <v>3.4193548387096775</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -5145,7 +5148,7 @@
       </c>
       <c r="C102" s="9">
         <f>normalized!L2</f>
-        <v>2.2727272727272725</v>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -5157,7 +5160,7 @@
       </c>
       <c r="C103" s="9">
         <f>normalized!L3</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -5169,7 +5172,7 @@
       </c>
       <c r="C104" s="9">
         <f>normalized!L4</f>
-        <v>3.3636363636363638</v>
+        <v>2.2857142857142856</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -5181,7 +5184,7 @@
       </c>
       <c r="C105" s="9">
         <f>normalized!L5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -5193,7 +5196,7 @@
       </c>
       <c r="C106" s="9">
         <f>normalized!L6</f>
-        <v>3.666666666666667</v>
+        <v>2.2857142857142856</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -5205,7 +5208,7 @@
       </c>
       <c r="C107" s="9">
         <f>normalized!L7</f>
-        <v>1.872727272727273</v>
+        <v>0.19047619047619069</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -5217,7 +5220,7 @@
       </c>
       <c r="C108" s="9">
         <f>normalized!L8</f>
-        <v>4.0413223140495873</v>
+        <v>3.9047619047619047</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -5229,7 +5232,7 @@
       </c>
       <c r="C109" s="9">
         <f>normalized!L9</f>
-        <v>3.1157024793388426</v>
+        <v>1.4285714285714284</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -5241,7 +5244,7 @@
       </c>
       <c r="C110" s="9">
         <f>normalized!L10</f>
-        <v>3.036363636363637</v>
+        <v>1.7142857142857144</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -5253,7 +5256,7 @@
       </c>
       <c r="C111" s="9">
         <f>normalized!L11</f>
-        <v>4.2</v>
+        <v>3.6190476190476191</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -5265,7 +5268,7 @@
       </c>
       <c r="C112" s="9">
         <f>normalized!M2</f>
-        <v>4.5443037974683556</v>
+        <v>3.1111111111111112</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -5277,7 +5280,7 @@
       </c>
       <c r="C113" s="9">
         <f>normalized!M3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -5289,7 +5292,7 @@
       </c>
       <c r="C114" s="9">
         <f>normalized!M4</f>
-        <v>4.2911392405063298</v>
+        <v>3.7777777777777777</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -5301,7 +5304,7 @@
       </c>
       <c r="C115" s="9">
         <f>normalized!M5</f>
-        <v>4.7974683544303804</v>
+        <v>2.8888888888888888</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -5313,7 +5316,7 @@
       </c>
       <c r="C116" s="9">
         <f>normalized!M6</f>
-        <v>3.4472573839662455</v>
+        <v>2.4444444444444446</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -5325,7 +5328,7 @@
       </c>
       <c r="C117" s="9">
         <f>normalized!M7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -5337,7 +5340,7 @@
       </c>
       <c r="C118" s="9">
         <f>normalized!M8</f>
-        <v>2.2197928653624857</v>
+        <v>1.8888888888888888</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -5349,7 +5352,7 @@
       </c>
       <c r="C119" s="9">
         <f>normalized!M9</f>
-        <v>4.0609896432681243</v>
+        <v>2.7777777777777777</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -5361,7 +5364,7 @@
       </c>
       <c r="C120" s="9">
         <f>normalized!M10</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -5373,7 +5376,7 @@
       </c>
       <c r="C121" s="9">
         <f>normalized!M11</f>
-        <v>1.759493670886076</v>
+        <v>0.88888888888888928</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -5385,7 +5388,7 @@
       </c>
       <c r="C122" s="9">
         <f>normalized!N2</f>
-        <v>4.5961538461538467</v>
+        <v>3.1219512195121952</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -5397,7 +5400,7 @@
       </c>
       <c r="C123" s="9">
         <f>normalized!N3</f>
-        <v>1.2115384615384617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -5409,7 +5412,7 @@
       </c>
       <c r="C124" s="9">
         <f>normalized!N4</f>
-        <v>3.7500000000000004</v>
+        <v>3.5121951219512195</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -5421,7 +5424,7 @@
       </c>
       <c r="C125" s="9">
         <f>normalized!N5</f>
-        <v>1</v>
+        <v>1.1707317073170733</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -5433,7 +5436,7 @@
       </c>
       <c r="C126" s="9">
         <f>normalized!N6</f>
-        <v>4.1025641025641031</v>
+        <v>3.1219512195121952</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -5445,7 +5448,7 @@
       </c>
       <c r="C127" s="9">
         <f>normalized!N7</f>
-        <v>3.7076923076923074</v>
+        <v>2.5365853658536586</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -5457,7 +5460,7 @@
       </c>
       <c r="C128" s="9">
         <f>normalized!N8</f>
-        <v>1.3076923076923075</v>
+        <v>0.48780487804878092</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -5469,7 +5472,7 @@
       </c>
       <c r="C129" s="9">
         <f>normalized!N9</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -5481,7 +5484,7 @@
       </c>
       <c r="C130" s="9">
         <f>normalized!N10</f>
-        <v>3.7076923076923083</v>
+        <v>2.5365853658536586</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -5493,7 +5496,7 @@
       </c>
       <c r="C131" s="9">
         <f>normalized!N11</f>
-        <v>1.1692307692307695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -5505,7 +5508,7 @@
       </c>
       <c r="C132" s="9">
         <f>normalized!O2</f>
-        <v>2</v>
+        <v>2.4477611940298507</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -5517,7 +5520,7 @@
       </c>
       <c r="C133" s="9">
         <f>normalized!O3</f>
-        <v>1.5</v>
+        <v>1.8507462686567164</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -5529,7 +5532,7 @@
       </c>
       <c r="C134" s="9">
         <f>normalized!O4</f>
-        <v>1</v>
+        <v>0.7761194029850742</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -5541,7 +5544,7 @@
       </c>
       <c r="C135" s="9">
         <f>normalized!O5</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -5553,7 +5556,7 @@
       </c>
       <c r="C136" s="9">
         <f>normalized!O6</f>
-        <v>1</v>
+        <v>1.2537313432835822</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -5565,7 +5568,7 @@
       </c>
       <c r="C137" s="9">
         <f>normalized!O7</f>
-        <v>2.6</v>
+        <v>2.9253731343283582</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -5577,7 +5580,7 @@
       </c>
       <c r="C138" s="9">
         <f>normalized!O8</f>
-        <v>2.0909090909090908</v>
+        <v>2.5074626865671643</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -5589,7 +5592,7 @@
       </c>
       <c r="C139" s="9">
         <f>normalized!O9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -5601,7 +5604,7 @@
       </c>
       <c r="C140" s="9">
         <f>normalized!O10</f>
-        <v>1</v>
+        <v>0.53731343283582156</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -5613,7 +5616,7 @@
       </c>
       <c r="C141" s="9">
         <f>normalized!O11</f>
-        <v>2.2000000000000002</v>
+        <v>2.5671641791044779</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -5625,7 +5628,7 @@
       </c>
       <c r="C142" s="9">
         <f>normalized!P2</f>
-        <v>2</v>
+        <v>2.4477611940298507</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -5637,7 +5640,7 @@
       </c>
       <c r="C143" s="9">
         <f>normalized!P3</f>
-        <v>1.5</v>
+        <v>1.8507462686567164</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -5649,7 +5652,7 @@
       </c>
       <c r="C144" s="9">
         <f>normalized!P4</f>
-        <v>1</v>
+        <v>0.7761194029850742</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -5661,7 +5664,7 @@
       </c>
       <c r="C145" s="9">
         <f>normalized!P5</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -5673,7 +5676,7 @@
       </c>
       <c r="C146" s="9">
         <f>normalized!P6</f>
-        <v>1</v>
+        <v>1.2537313432835822</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -5685,7 +5688,7 @@
       </c>
       <c r="C147" s="9">
         <f>normalized!P7</f>
-        <v>2.6</v>
+        <v>2.9253731343283582</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -5697,7 +5700,7 @@
       </c>
       <c r="C148" s="9">
         <f>normalized!P8</f>
-        <v>2.0909090909090908</v>
+        <v>2.5074626865671643</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -5709,7 +5712,7 @@
       </c>
       <c r="C149" s="9">
         <f>normalized!P9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -5721,7 +5724,7 @@
       </c>
       <c r="C150" s="9">
         <f>normalized!P10</f>
-        <v>1</v>
+        <v>0.53731343283582156</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -5733,7 +5736,7 @@
       </c>
       <c r="C151" s="9">
         <f>normalized!P11</f>
-        <v>2.2000000000000002</v>
+        <v>2.5671641791044779</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -5745,7 +5748,7 @@
       </c>
       <c r="C152" s="9">
         <f>normalized!Q2</f>
-        <v>1.6</v>
+        <v>1.4193548387096775</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -5769,7 +5772,7 @@
       </c>
       <c r="C154" s="9">
         <f>normalized!Q4</f>
-        <v>4</v>
+        <v>3.4838709677419355</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -5781,7 +5784,7 @@
       </c>
       <c r="C155" s="9">
         <f>normalized!Q5</f>
-        <v>1</v>
+        <v>0.51612903225806406</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -5793,7 +5796,7 @@
       </c>
       <c r="C156" s="9">
         <f>normalized!Q6</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -5805,7 +5808,7 @@
       </c>
       <c r="C157" s="9">
         <f>normalized!Q7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -5817,7 +5820,7 @@
       </c>
       <c r="C158" s="9">
         <f>normalized!Q8</f>
-        <v>3.1818181818181812</v>
+        <v>3.4193548387096775</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -5829,7 +5832,7 @@
       </c>
       <c r="C159" s="9">
         <f>normalized!Q9</f>
-        <v>3.1818181818181812</v>
+        <v>2.645161290322581</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -5841,7 +5844,7 @@
       </c>
       <c r="C160" s="9">
         <f>normalized!Q10</f>
-        <v>2.92</v>
+        <v>2.5806451612903225</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -5853,7 +5856,7 @@
       </c>
       <c r="C161" s="9">
         <f>normalized!Q11</f>
-        <v>3.4</v>
+        <v>3.4838709677419355</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -5865,7 +5868,7 @@
       </c>
       <c r="C162" s="9">
         <f>normalized!R2</f>
-        <v>3.5882352941176472</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -5877,7 +5880,7 @@
       </c>
       <c r="C163" s="9">
         <f>normalized!R3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -5889,7 +5892,7 @@
       </c>
       <c r="C164" s="9">
         <f>normalized!R4</f>
-        <v>3.8235294117647061</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -5901,7 +5904,7 @@
       </c>
       <c r="C165" s="9">
         <f>normalized!R5</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -5913,7 +5916,7 @@
       </c>
       <c r="C166" s="9">
         <f>normalized!R6</f>
-        <v>3.4313725490196085</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -5925,7 +5928,7 @@
       </c>
       <c r="C167" s="9">
         <f>normalized!R7</f>
-        <v>4.0588235294117645</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -5937,7 +5940,7 @@
       </c>
       <c r="C168" s="9">
         <f>normalized!R8</f>
-        <v>2.0909090909090908</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -5949,7 +5952,7 @@
       </c>
       <c r="C169" s="9">
         <f>normalized!R9</f>
-        <v>3.2887700534759357</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -5961,7 +5964,7 @@
       </c>
       <c r="C170" s="9">
         <f>normalized!R10</f>
-        <v>4.0588235294117645</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -5973,7 +5976,7 @@
       </c>
       <c r="C171" s="9">
         <f>normalized!R11</f>
-        <v>1.7999999999999998</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -5985,7 +5988,7 @@
       </c>
       <c r="C172" s="9">
         <f>normalized!S2</f>
-        <v>4.5357142857142865</v>
+        <v>2.9268292682926829</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -5997,7 +6000,7 @@
       </c>
       <c r="C173" s="9">
         <f>normalized!S3</f>
-        <v>4.1428571428571432</v>
+        <v>2.5365853658536586</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -6009,7 +6012,7 @@
       </c>
       <c r="C174" s="9">
         <f>normalized!S4</f>
-        <v>2.7678571428571432</v>
+        <v>2.3414634146341466</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -6021,7 +6024,7 @@
       </c>
       <c r="C175" s="9">
         <f>normalized!S5</f>
-        <v>1</v>
+        <v>0.78048780487804859</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -6033,7 +6036,7 @@
       </c>
       <c r="C176" s="9">
         <f>normalized!S6</f>
-        <v>4.404761904761906</v>
+        <v>3.1219512195121952</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -6045,7 +6048,7 @@
       </c>
       <c r="C177" s="9">
         <f>normalized!S7</f>
-        <v>3.0428571428571431</v>
+        <v>1.5609756097560976</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -6057,7 +6060,7 @@
       </c>
       <c r="C178" s="9">
         <f>normalized!S8</f>
-        <v>3</v>
+        <v>2.4390243902439024</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -6069,7 +6072,7 @@
       </c>
       <c r="C179" s="9">
         <f>normalized!S9</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -6081,7 +6084,7 @@
       </c>
       <c r="C180" s="9">
         <f>normalized!S10</f>
-        <v>1.7857142857142858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -6093,7 +6096,7 @@
       </c>
       <c r="C181" s="9">
         <f>normalized!S11</f>
-        <v>3.5142857142857151</v>
+        <v>2.5365853658536586</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -6105,7 +6108,7 @@
       </c>
       <c r="C182" s="9">
         <f>normalized!T2</f>
-        <v>2.1428571428571428</v>
+        <v>2.1818181818181817</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -6117,7 +6120,7 @@
       </c>
       <c r="C183" s="9">
         <f>normalized!T3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -6129,7 +6132,7 @@
       </c>
       <c r="C184" s="9">
         <f>normalized!T4</f>
-        <v>2.7142857142857144</v>
+        <v>3.2727272727272725</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -6141,7 +6144,7 @@
       </c>
       <c r="C185" s="9">
         <f>normalized!T5</f>
-        <v>5</v>
+        <v>3.6363636363636362</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -6153,7 +6156,7 @@
       </c>
       <c r="C186" s="9">
         <f>normalized!T6</f>
-        <v>3.9841269841269851</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -6165,7 +6168,7 @@
       </c>
       <c r="C187" s="9">
         <f>normalized!T7</f>
-        <v>2.1047619047619048</v>
+        <v>2.1818181818181817</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -6177,7 +6180,7 @@
       </c>
       <c r="C188" s="9">
         <f>normalized!T8</f>
-        <v>1.5367965367965364</v>
+        <v>2.3636363636363633</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -6189,7 +6192,7 @@
       </c>
       <c r="C189" s="9">
         <f>normalized!T9</f>
-        <v>2.3679653679653674</v>
+        <v>2.3636363636363633</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -6201,7 +6204,7 @@
       </c>
       <c r="C190" s="9">
         <f>normalized!T10</f>
-        <v>1.4952380952380955</v>
+        <v>0.72727272727272663</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -6213,7 +6216,7 @@
       </c>
       <c r="C191" s="9">
         <f>normalized!T11</f>
-        <v>1.7999999999999998</v>
+        <v>2.1818181818181817</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -6225,7 +6228,7 @@
       </c>
       <c r="C192" s="9">
         <f>normalized!U2</f>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -6237,7 +6240,7 @@
       </c>
       <c r="C193" s="9">
         <f>normalized!U3</f>
-        <v>3.125</v>
+        <v>2.125</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -6249,7 +6252,7 @@
       </c>
       <c r="C194" s="9">
         <f>normalized!U4</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -6261,7 +6264,7 @@
       </c>
       <c r="C195" s="9">
         <f>normalized!U5</f>
-        <v>5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -6285,7 +6288,7 @@
       </c>
       <c r="C197" s="9">
         <f>normalized!U7</f>
-        <v>4.5999999999999996</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -6297,7 +6300,7 @@
       </c>
       <c r="C198" s="9">
         <f>normalized!U8</f>
-        <v>3.2727272727272725</v>
+        <v>2.9375</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -6309,7 +6312,7 @@
       </c>
       <c r="C199" s="9">
         <f>normalized!U9</f>
-        <v>2.8181818181818179</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -6321,7 +6324,7 @@
       </c>
       <c r="C200" s="9">
         <f>normalized!U10</f>
-        <v>1.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -6333,7 +6336,7 @@
       </c>
       <c r="C201" s="9">
         <f>normalized!U11</f>
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -6345,7 +6348,7 @@
       </c>
       <c r="C202" s="9">
         <f>normalized!V2</f>
-        <v>1.5</v>
+        <v>0.79999999999999982</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -6357,7 +6360,7 @@
       </c>
       <c r="C203" s="9">
         <f>normalized!V3</f>
-        <v>1</v>
+        <v>0.40000000000000036</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -6369,7 +6372,7 @@
       </c>
       <c r="C204" s="9">
         <f>normalized!V4</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -6381,7 +6384,7 @@
       </c>
       <c r="C205" s="9">
         <f>normalized!V5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -6393,7 +6396,7 @@
       </c>
       <c r="C206" s="9">
         <f>normalized!V6</f>
-        <v>5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -6405,7 +6408,7 @@
       </c>
       <c r="C207" s="9">
         <f>normalized!V7</f>
-        <v>1.4000000000000004</v>
+        <v>0.79999999999999982</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -6417,7 +6420,7 @@
       </c>
       <c r="C208" s="9">
         <f>normalized!V8</f>
-        <v>1.3636363636363633</v>
+        <v>1.7000000000000002</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -6429,7 +6432,7 @@
       </c>
       <c r="C209" s="9">
         <f>normalized!V9</f>
-        <v>3.1818181818181799</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -6441,7 +6444,7 @@
       </c>
       <c r="C210" s="9">
         <f>normalized!V10</f>
-        <v>4.5999999999999996</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -6453,7 +6456,7 @@
       </c>
       <c r="C211" s="9">
         <f>normalized!V11</f>
-        <v>1</v>
+        <v>0.79999999999999982</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -6465,7 +6468,7 @@
       </c>
       <c r="C212" s="9">
         <f>normalized!W2</f>
-        <v>4</v>
+        <v>1.8181818181818183</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -6477,7 +6480,7 @@
       </c>
       <c r="C213" s="9">
         <f>normalized!W3</f>
-        <v>2</v>
+        <v>0.36363636363636331</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -6489,7 +6492,7 @@
       </c>
       <c r="C214" s="9">
         <f>normalized!W4</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -6501,7 +6504,7 @@
       </c>
       <c r="C215" s="9">
         <f>normalized!W5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -6513,7 +6516,7 @@
       </c>
       <c r="C216" s="9">
         <f>normalized!W6</f>
-        <v>5</v>
+        <v>2.5454545454545454</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -6525,7 +6528,7 @@
       </c>
       <c r="C217" s="9">
         <f>normalized!W7</f>
-        <v>3.4000000000000004</v>
+        <v>1.8181818181818183</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -6537,7 +6540,7 @@
       </c>
       <c r="C218" s="9">
         <f>normalized!W8</f>
-        <v>2.0909090909090899</v>
+        <v>2.3636363636363633</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -6549,7 +6552,7 @@
       </c>
       <c r="C219" s="9">
         <f>normalized!W9</f>
-        <v>5</v>
+        <v>3.0909090909090908</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -6561,7 +6564,7 @@
       </c>
       <c r="C220" s="9">
         <f>normalized!W10</f>
-        <v>5</v>
+        <v>3.2727272727272725</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -6573,7 +6576,7 @@
       </c>
       <c r="C221" s="9">
         <f>normalized!W11</f>
-        <v>1.8000000000000007</v>
+        <v>1.0909090909090908</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -6585,7 +6588,7 @@
       </c>
       <c r="C222" s="9">
         <f>normalized!X2</f>
-        <v>1.1499999999999999</v>
+        <v>1.3333333333333335</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -6597,7 +6600,7 @@
       </c>
       <c r="C223" s="9">
         <f>normalized!X3</f>
-        <v>1.5625</v>
+        <v>1.8666666666666667</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -6609,7 +6612,7 @@
       </c>
       <c r="C224" s="9">
         <f>normalized!X4</f>
-        <v>2.9375</v>
+        <v>2.9333333333333336</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -6621,7 +6624,7 @@
       </c>
       <c r="C225" s="9">
         <f>normalized!X5</f>
-        <v>5</v>
+        <v>3.2888888888888888</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -6633,7 +6636,7 @@
       </c>
       <c r="C226" s="9">
         <f>normalized!X6</f>
-        <v>2.25</v>
+        <v>1.8666666666666667</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -6645,7 +6648,7 @@
       </c>
       <c r="C227" s="9">
         <f>normalized!X7</f>
-        <v>2.25</v>
+        <v>2.5777777777777775</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -6657,7 +6660,7 @@
       </c>
       <c r="C228" s="9">
         <f>normalized!X8</f>
-        <v>2.5</v>
+        <v>3.7333333333333334</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -6669,7 +6672,7 @@
       </c>
       <c r="C229" s="9">
         <f>normalized!X9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -6681,7 +6684,7 @@
       </c>
       <c r="C230" s="9">
         <f>normalized!X10</f>
-        <v>3.13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -6693,7 +6696,7 @@
       </c>
       <c r="C231" s="9">
         <f>normalized!X11</f>
-        <v>2.25</v>
+        <v>2.9333333333333336</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -6705,7 +6708,7 @@
       </c>
       <c r="C232" s="9">
         <f>normalized!Y2</f>
-        <v>3</v>
+        <v>2.1818181818181817</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -6717,7 +6720,7 @@
       </c>
       <c r="C233" s="9">
         <f>normalized!Y3</f>
-        <v>4.4000000000000004</v>
+        <v>3.4545454545454546</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -6729,7 +6732,7 @@
       </c>
       <c r="C234" s="9">
         <f>normalized!Y4</f>
-        <v>1</v>
+        <v>0.36363636363636331</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -6741,7 +6744,7 @@
       </c>
       <c r="C235" s="9">
         <f>normalized!Y5</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -6753,7 +6756,7 @@
       </c>
       <c r="C236" s="9">
         <f>normalized!Y6</f>
-        <v>1</v>
+        <v>0.72727272727272663</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -6765,7 +6768,7 @@
       </c>
       <c r="C237" s="9">
         <f>normalized!Y7</f>
-        <v>3.4</v>
+        <v>2.5454545454545454</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -6777,7 +6780,7 @@
       </c>
       <c r="C238" s="9">
         <f>normalized!Y8</f>
-        <v>4.1999999999999993</v>
+        <v>3.9545454545454546</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -6789,7 +6792,7 @@
       </c>
       <c r="C239" s="9">
         <f>normalized!Y9</f>
-        <v>1.7272727272727273</v>
+        <v>0.31818181818181834</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -6801,7 +6804,7 @@
       </c>
       <c r="C240" s="9">
         <f>normalized!Y10</f>
-        <v>1.1599999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -6813,7 +6816,7 @@
       </c>
       <c r="C241" s="9">
         <f>normalized!Y11</f>
-        <v>4.5200000000000005</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -6825,7 +6828,7 @@
       </c>
       <c r="C242" s="9">
         <f>normalized!Z2</f>
-        <v>4.2195121951219523</v>
+        <v>2.6181818181818182</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -6837,7 +6840,7 @@
       </c>
       <c r="C243" s="9">
         <f>normalized!Z3</f>
-        <v>2.0731707317073171</v>
+        <v>0.29090909090909101</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -6849,7 +6852,7 @@
       </c>
       <c r="C244" s="9">
         <f>normalized!Z4</f>
-        <v>4.0853658536585371</v>
+        <v>3.3454545454545457</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -6861,7 +6864,7 @@
       </c>
       <c r="C245" s="9">
         <f>normalized!Z5</f>
-        <v>1</v>
+        <v>0.58181818181818201</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -6873,7 +6876,7 @@
       </c>
       <c r="C246" s="9">
         <f>normalized!Z6</f>
-        <v>4.7560975609756104</v>
+        <v>3.3454545454545457</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -6885,7 +6888,7 @@
       </c>
       <c r="C247" s="9">
         <f>normalized!Z7</f>
-        <v>3.2536585365853665</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -6897,7 +6900,7 @@
       </c>
       <c r="C248" s="9">
         <f>normalized!Z8</f>
-        <v>1.8780487804878052</v>
+        <v>0.2181818181818187</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -6909,7 +6912,7 @@
       </c>
       <c r="C249" s="9">
         <f>normalized!Z9</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -6921,7 +6924,7 @@
       </c>
       <c r="C250" s="9">
         <f>normalized!Z10</f>
-        <v>3.6829268292682933</v>
+        <v>2.1818181818181817</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -6933,7 +6936,7 @@
       </c>
       <c r="C251" s="9">
         <f>normalized!Z11</f>
-        <v>1.858536585365854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">

--- a/Cofi/master.xlsx
+++ b/Cofi/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zyy/OneDrive/Columbia/0_Clubs/DPI/MM/DPI_NYCCP/Cofi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="475" documentId="8_{F1962E47-CBA2-024B-A1D4-ECDA12383FF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4D2EC071-B5D1-C943-960B-B356193AD145}"/>
+  <xr:revisionPtr revIDLastSave="478" documentId="8_{F1962E47-CBA2-024B-A1D4-ECDA12383FF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B4CA5FBE-71C0-5242-8963-CBCFA3BB6342}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="700" windowWidth="25140" windowHeight="12420" activeTab="1" xr2:uid="{687A766B-E2D6-6040-8210-6E46568CC1E1}"/>
+    <workbookView xWindow="1700" yWindow="700" windowWidth="25140" windowHeight="12420" activeTab="2" xr2:uid="{687A766B-E2D6-6040-8210-6E46568CC1E1}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3352A783-08E1-7246-8E6E-02A82FB74625}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1131,9 +1131,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B6049C-8DA6-6348-B6AE-52FF469FFFF4}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1600,9 +1600,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62DA424-4A73-6A45-8E72-E2B2107C6FD7}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O6" sqref="O6"/>
+      <selection pane="topRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2747,8 +2747,8 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O7" sqref="O7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Cofi/master.xlsx
+++ b/Cofi/master.xlsx
@@ -1090,7 +1090,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H23" sqref="H23"/>
+      <selection pane="topRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4761,7 +4761,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O18" sqref="O18"/>
+      <selection pane="topRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7585,7 +7585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522E427F-8E15-9D41-B6D9-4C81FCFB91C5}">
   <dimension ref="A1:C651"/>
   <sheetViews>
-    <sheetView topLeftCell="A335" workbookViewId="0">
+    <sheetView topLeftCell="A330" workbookViewId="0">
       <selection activeCell="C345" sqref="C345"/>
     </sheetView>
   </sheetViews>
